--- a/resources/historical_rulesv10.xlsx
+++ b/resources/historical_rulesv10.xlsx
@@ -768,12 +768,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>frozenset({'Firebird'})</t>
+          <t>frozenset({'SapHana'})</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>frozenset({'SAP Adaptive Server'})</t>
+          <t>frozenset({'ClickHouse'})</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -846,12 +846,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>frozenset({'SapHana'})</t>
+          <t>frozenset({'Firebird'})</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>frozenset({'ClickHouse'})</t>
+          <t>frozenset({'SAP Adaptive Server'})</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -963,25 +963,25 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>frozenset({'SAP SQL Anywhere'})</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
           <t>frozenset({'Firebird'})</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>frozenset({'SAP SQL Anywhere'})</t>
-        </is>
-      </c>
       <c r="C14" t="n">
+        <v>0.05641025641025641</v>
+      </c>
+      <c r="D14" t="n">
         <v>0.03076923076923077</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0.05641025641025641</v>
       </c>
       <c r="E14" t="n">
         <v>0.02564102564102564</v>
       </c>
       <c r="F14" t="n">
-        <v>0.8333333333333333</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="G14" t="n">
         <v>14.77272727272727</v>
@@ -990,7 +990,7 @@
         <v>0.02390532544378698</v>
       </c>
       <c r="I14" t="n">
-        <v>5.661538461538459</v>
+        <v>1.776923076923077</v>
       </c>
       <c r="J14" t="n">
         <v>1</v>
@@ -1002,25 +1002,25 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>frozenset({'Firebird'})</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
           <t>frozenset({'SAP SQL Anywhere'})</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>frozenset({'Firebird'})</t>
-        </is>
-      </c>
       <c r="C15" t="n">
+        <v>0.03076923076923077</v>
+      </c>
+      <c r="D15" t="n">
         <v>0.05641025641025641</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0.03076923076923077</v>
       </c>
       <c r="E15" t="n">
         <v>0.02564102564102564</v>
       </c>
       <c r="F15" t="n">
-        <v>0.4545454545454545</v>
+        <v>0.8333333333333333</v>
       </c>
       <c r="G15" t="n">
         <v>14.77272727272727</v>
@@ -1029,7 +1029,7 @@
         <v>0.02390532544378698</v>
       </c>
       <c r="I15" t="n">
-        <v>1.776923076923077</v>
+        <v>5.661538461538459</v>
       </c>
       <c r="J15" t="n">
         <v>1</v>
@@ -1041,25 +1041,25 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
+          <t>frozenset({'IBM DB2'})</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
           <t>frozenset({'Firebird'})</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>frozenset({'IBM DB2'})</t>
-        </is>
-      </c>
       <c r="C16" t="n">
+        <v>0.09230769230769231</v>
+      </c>
+      <c r="D16" t="n">
         <v>0.03076923076923077</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0.09230769230769231</v>
       </c>
       <c r="E16" t="n">
         <v>0.03076923076923077</v>
       </c>
       <c r="F16" t="n">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16" t="n">
         <v>10.83333333333333</v>
@@ -1067,10 +1067,8 @@
       <c r="H16" t="n">
         <v>0.02792899408284024</v>
       </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="I16" t="n">
+        <v>1.453846153846154</v>
       </c>
       <c r="J16" t="n">
         <v>1</v>
@@ -1082,34 +1080,36 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>frozenset({'ClickHouse'})</t>
+          <t>frozenset({'Firebird'})</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>frozenset({'Snowflake'})</t>
+          <t>frozenset({'IBM DB2'})</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.05128205128205128</v>
+        <v>0.03076923076923077</v>
       </c>
       <c r="D17" t="n">
-        <v>0.04615384615384616</v>
+        <v>0.09230769230769231</v>
       </c>
       <c r="E17" t="n">
-        <v>0.02564102564102564</v>
+        <v>0.03076923076923077</v>
       </c>
       <c r="F17" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G17" t="n">
         <v>10.83333333333333</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0232741617357002</v>
-      </c>
-      <c r="I17" t="n">
-        <v>1.907692307692308</v>
+        <v>0.02792899408284024</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="J17" t="n">
         <v>1</v>
@@ -1121,34 +1121,34 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>frozenset({'IBM DB2'})</t>
+          <t>frozenset({'ClickHouse'})</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>frozenset({'Firebird'})</t>
+          <t>frozenset({'Snowflake'})</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.09230769230769231</v>
+        <v>0.05128205128205128</v>
       </c>
       <c r="D18" t="n">
-        <v>0.03076923076923077</v>
+        <v>0.04615384615384616</v>
       </c>
       <c r="E18" t="n">
-        <v>0.03076923076923077</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="F18" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G18" t="n">
         <v>10.83333333333333</v>
       </c>
       <c r="H18" t="n">
-        <v>0.02792899408284024</v>
+        <v>0.0232741617357002</v>
       </c>
       <c r="I18" t="n">
-        <v>1.453846153846154</v>
+        <v>1.907692307692308</v>
       </c>
       <c r="J18" t="n">
         <v>1</v>
@@ -1355,25 +1355,25 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
+          <t>frozenset({'SAP SQL Anywhere'})</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
           <t>frozenset({'IBM DB2'})</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>frozenset({'SAP SQL Anywhere'})</t>
-        </is>
-      </c>
       <c r="C24" t="n">
+        <v>0.05641025641025641</v>
+      </c>
+      <c r="D24" t="n">
         <v>0.09230769230769231</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0.05641025641025641</v>
       </c>
       <c r="E24" t="n">
         <v>0.04615384615384616</v>
       </c>
       <c r="F24" t="n">
-        <v>0.5</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="G24" t="n">
         <v>8.863636363636363</v>
@@ -1382,7 +1382,7 @@
         <v>0.04094674556213018</v>
       </c>
       <c r="I24" t="n">
-        <v>1.887179487179487</v>
+        <v>4.992307692307693</v>
       </c>
       <c r="J24" t="n">
         <v>1</v>
@@ -1394,25 +1394,25 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
+          <t>frozenset({'IBM DB2'})</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
           <t>frozenset({'SAP SQL Anywhere'})</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>frozenset({'IBM DB2'})</t>
-        </is>
-      </c>
       <c r="C25" t="n">
+        <v>0.09230769230769231</v>
+      </c>
+      <c r="D25" t="n">
         <v>0.05641025641025641</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0.09230769230769231</v>
       </c>
       <c r="E25" t="n">
         <v>0.04615384615384616</v>
       </c>
       <c r="F25" t="n">
-        <v>0.8181818181818182</v>
+        <v>0.5</v>
       </c>
       <c r="G25" t="n">
         <v>8.863636363636363</v>
@@ -1421,7 +1421,7 @@
         <v>0.04094674556213018</v>
       </c>
       <c r="I25" t="n">
-        <v>4.992307692307693</v>
+        <v>1.887179487179487</v>
       </c>
       <c r="J25" t="n">
         <v>1</v>
@@ -1511,25 +1511,25 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
+          <t>frozenset({'HBase'})</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
           <t>frozenset({'Cassandra'})</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>frozenset({'HBase'})</t>
-        </is>
-      </c>
       <c r="C28" t="n">
+        <v>0.06153846153846154</v>
+      </c>
+      <c r="D28" t="n">
         <v>0.05641025641025641</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0.06153846153846154</v>
       </c>
       <c r="E28" t="n">
         <v>0.02564102564102564</v>
       </c>
       <c r="F28" t="n">
-        <v>0.4545454545454545</v>
+        <v>0.4166666666666666</v>
       </c>
       <c r="G28" t="n">
         <v>7.386363636363636</v>
@@ -1538,7 +1538,7 @@
         <v>0.02216962524654832</v>
       </c>
       <c r="I28" t="n">
-        <v>1.720512820512821</v>
+        <v>1.617582417582417</v>
       </c>
       <c r="J28" t="n">
         <v>1</v>
@@ -1550,25 +1550,25 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
+          <t>frozenset({'Cassandra'})</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
           <t>frozenset({'HBase'})</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>frozenset({'Cassandra'})</t>
-        </is>
-      </c>
       <c r="C29" t="n">
+        <v>0.05641025641025641</v>
+      </c>
+      <c r="D29" t="n">
         <v>0.06153846153846154</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0.05641025641025641</v>
       </c>
       <c r="E29" t="n">
         <v>0.02564102564102564</v>
       </c>
       <c r="F29" t="n">
-        <v>0.4166666666666666</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="G29" t="n">
         <v>7.386363636363636</v>
@@ -1577,7 +1577,7 @@
         <v>0.02216962524654832</v>
       </c>
       <c r="I29" t="n">
-        <v>1.617582417582417</v>
+        <v>1.720512820512821</v>
       </c>
       <c r="J29" t="n">
         <v>1</v>
@@ -1667,25 +1667,25 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
+          <t>frozenset({'Influx DB'})</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
           <t>frozenset({'MongoDB'})</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>frozenset({'Influx DB'})</t>
-        </is>
-      </c>
       <c r="C32" t="n">
+        <v>0.02564102564102564</v>
+      </c>
+      <c r="D32" t="n">
         <v>0.1435897435897436</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0.02564102564102564</v>
       </c>
       <c r="E32" t="n">
         <v>0.02564102564102564</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1785714285714286</v>
+        <v>1</v>
       </c>
       <c r="G32" t="n">
         <v>6.964285714285714</v>
@@ -1693,8 +1693,10 @@
       <c r="H32" t="n">
         <v>0.02195923734385273</v>
       </c>
-      <c r="I32" t="n">
-        <v>1.186176142697882</v>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="J32" t="n">
         <v>1</v>
@@ -1706,25 +1708,25 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
+          <t>frozenset({'MongoDB'})</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
           <t>frozenset({'Influx DB'})</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>frozenset({'MongoDB'})</t>
-        </is>
-      </c>
       <c r="C33" t="n">
+        <v>0.1435897435897436</v>
+      </c>
+      <c r="D33" t="n">
         <v>0.02564102564102564</v>
-      </c>
-      <c r="D33" t="n">
-        <v>0.1435897435897436</v>
       </c>
       <c r="E33" t="n">
         <v>0.02564102564102564</v>
       </c>
       <c r="F33" t="n">
-        <v>1</v>
+        <v>0.1785714285714286</v>
       </c>
       <c r="G33" t="n">
         <v>6.964285714285714</v>
@@ -1732,10 +1734,8 @@
       <c r="H33" t="n">
         <v>0.02195923734385273</v>
       </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="I33" t="n">
+        <v>1.186176142697882</v>
       </c>
       <c r="J33" t="n">
         <v>1</v>
@@ -1825,25 +1825,25 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
+          <t>frozenset({'Snowflake'})</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
           <t>frozenset({'DynamoDB'})</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>frozenset({'Snowflake'})</t>
-        </is>
-      </c>
       <c r="C36" t="n">
+        <v>0.04615384615384616</v>
+      </c>
+      <c r="D36" t="n">
         <v>0.09230769230769231</v>
-      </c>
-      <c r="D36" t="n">
-        <v>0.04615384615384616</v>
       </c>
       <c r="E36" t="n">
         <v>0.02564102564102564</v>
       </c>
       <c r="F36" t="n">
-        <v>0.2777777777777777</v>
+        <v>0.5555555555555555</v>
       </c>
       <c r="G36" t="n">
         <v>6.018518518518517</v>
@@ -1852,7 +1852,7 @@
         <v>0.02138067061143984</v>
       </c>
       <c r="I36" t="n">
-        <v>1.320710059171597</v>
+        <v>2.042307692307692</v>
       </c>
       <c r="J36" t="n">
         <v>1</v>
@@ -1864,25 +1864,25 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
+          <t>frozenset({'DynamoDB'})</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
           <t>frozenset({'Snowflake'})</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>frozenset({'DynamoDB'})</t>
-        </is>
-      </c>
       <c r="C37" t="n">
+        <v>0.09230769230769231</v>
+      </c>
+      <c r="D37" t="n">
         <v>0.04615384615384616</v>
-      </c>
-      <c r="D37" t="n">
-        <v>0.09230769230769231</v>
       </c>
       <c r="E37" t="n">
         <v>0.02564102564102564</v>
       </c>
       <c r="F37" t="n">
-        <v>0.5555555555555555</v>
+        <v>0.2777777777777777</v>
       </c>
       <c r="G37" t="n">
         <v>6.018518518518517</v>
@@ -1891,7 +1891,7 @@
         <v>0.02138067061143984</v>
       </c>
       <c r="I37" t="n">
-        <v>2.042307692307692</v>
+        <v>1.320710059171597</v>
       </c>
       <c r="J37" t="n">
         <v>1</v>
@@ -1908,29 +1908,29 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>frozenset({'Firebird'})</t>
+          <t>frozenset({'SAP Adaptive Server'})</t>
         </is>
       </c>
       <c r="C38" t="n">
         <v>0.1743589743589744</v>
       </c>
       <c r="D38" t="n">
-        <v>0.03076923076923077</v>
+        <v>0.05128205128205128</v>
       </c>
       <c r="E38" t="n">
-        <v>0.03076923076923077</v>
+        <v>0.05128205128205128</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1764705882352941</v>
+        <v>0.2941176470588235</v>
       </c>
       <c r="G38" t="n">
         <v>5.735294117647059</v>
       </c>
       <c r="H38" t="n">
-        <v>0.0254043392504931</v>
+        <v>0.04234056541748849</v>
       </c>
       <c r="I38" t="n">
-        <v>1.176923076923077</v>
+        <v>1.344017094017094</v>
       </c>
       <c r="J38" t="n">
         <v>1</v>
@@ -1942,34 +1942,36 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
+          <t>frozenset({'SAP Adaptive Server'})</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
           <t>frozenset({'MS SQL Server_Microsoft Azure SQL Database'})</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>frozenset({'Informix'})</t>
-        </is>
-      </c>
       <c r="C39" t="n">
+        <v>0.05128205128205128</v>
+      </c>
+      <c r="D39" t="n">
         <v>0.1743589743589744</v>
       </c>
-      <c r="D39" t="n">
-        <v>0.03589743589743589</v>
-      </c>
       <c r="E39" t="n">
-        <v>0.03589743589743589</v>
+        <v>0.05128205128205128</v>
       </c>
       <c r="F39" t="n">
-        <v>0.2058823529411765</v>
+        <v>1</v>
       </c>
       <c r="G39" t="n">
         <v>5.735294117647059</v>
       </c>
       <c r="H39" t="n">
-        <v>0.02963839579224194</v>
-      </c>
-      <c r="I39" t="n">
-        <v>1.214055080721747</v>
+        <v>0.04234056541748849</v>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="J39" t="n">
         <v>1</v>
@@ -1981,36 +1983,34 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>frozenset({'Informix'})</t>
+          <t>frozenset({'MS SQL Server_Microsoft Azure SQL Database'})</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>frozenset({'MS SQL Server_Microsoft Azure SQL Database'})</t>
+          <t>frozenset({'Firebird'})</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.03589743589743589</v>
+        <v>0.1743589743589744</v>
       </c>
       <c r="D40" t="n">
-        <v>0.1743589743589744</v>
+        <v>0.03076923076923077</v>
       </c>
       <c r="E40" t="n">
-        <v>0.03589743589743589</v>
+        <v>0.03076923076923077</v>
       </c>
       <c r="F40" t="n">
-        <v>1</v>
+        <v>0.1764705882352941</v>
       </c>
       <c r="G40" t="n">
         <v>5.735294117647059</v>
       </c>
       <c r="H40" t="n">
-        <v>0.02963839579224194</v>
-      </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>0.0254043392504931</v>
+      </c>
+      <c r="I40" t="n">
+        <v>1.176923076923077</v>
       </c>
       <c r="J40" t="n">
         <v>1</v>
@@ -2022,7 +2022,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>frozenset({'SAP SQL Anywhere'})</t>
+          <t>frozenset({'Informix'})</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2031,13 +2031,13 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0.05641025641025641</v>
+        <v>0.03589743589743589</v>
       </c>
       <c r="D41" t="n">
         <v>0.1743589743589744</v>
       </c>
       <c r="E41" t="n">
-        <v>0.05641025641025641</v>
+        <v>0.03589743589743589</v>
       </c>
       <c r="F41" t="n">
         <v>1</v>
@@ -2046,7 +2046,7 @@
         <v>5.735294117647059</v>
       </c>
       <c r="H41" t="n">
-        <v>0.04657462195923735</v>
+        <v>0.02963839579224194</v>
       </c>
       <c r="I41" t="inlineStr">
         <is>
@@ -2063,34 +2063,36 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
+          <t>frozenset({'Firebird'})</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
           <t>frozenset({'MS SQL Server_Microsoft Azure SQL Database'})</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>frozenset({'SAP SQL Anywhere'})</t>
-        </is>
-      </c>
       <c r="C42" t="n">
+        <v>0.03076923076923077</v>
+      </c>
+      <c r="D42" t="n">
         <v>0.1743589743589744</v>
       </c>
-      <c r="D42" t="n">
-        <v>0.05641025641025641</v>
-      </c>
       <c r="E42" t="n">
-        <v>0.05641025641025641</v>
+        <v>0.03076923076923077</v>
       </c>
       <c r="F42" t="n">
-        <v>0.3235294117647059</v>
+        <v>1</v>
       </c>
       <c r="G42" t="n">
         <v>5.735294117647059</v>
       </c>
       <c r="H42" t="n">
-        <v>0.04657462195923735</v>
-      </c>
-      <c r="I42" t="n">
-        <v>1.394871794871795</v>
+        <v>0.0254043392504931</v>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="J42" t="n">
         <v>1</v>
@@ -2102,34 +2104,36 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
+          <t>frozenset({'SapHana'})</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
           <t>frozenset({'MS SQL Server_Microsoft Azure SQL Database'})</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>frozenset({'SAP Adaptive Server'})</t>
-        </is>
-      </c>
       <c r="C43" t="n">
+        <v>0.03076923076923077</v>
+      </c>
+      <c r="D43" t="n">
         <v>0.1743589743589744</v>
       </c>
-      <c r="D43" t="n">
-        <v>0.05128205128205128</v>
-      </c>
       <c r="E43" t="n">
-        <v>0.05128205128205128</v>
+        <v>0.03076923076923077</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2941176470588235</v>
+        <v>1</v>
       </c>
       <c r="G43" t="n">
         <v>5.735294117647059</v>
       </c>
       <c r="H43" t="n">
-        <v>0.04234056541748849</v>
-      </c>
-      <c r="I43" t="n">
-        <v>1.344017094017094</v>
+        <v>0.0254043392504931</v>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="J43" t="n">
         <v>1</v>
@@ -2141,36 +2145,34 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>frozenset({'SAP Adaptive Server'})</t>
+          <t>frozenset({'MS SQL Server_Microsoft Azure SQL Database'})</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>frozenset({'MS SQL Server_Microsoft Azure SQL Database'})</t>
+          <t>frozenset({'SapHana'})</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0.05128205128205128</v>
+        <v>0.1743589743589744</v>
       </c>
       <c r="D44" t="n">
-        <v>0.1743589743589744</v>
+        <v>0.03076923076923077</v>
       </c>
       <c r="E44" t="n">
-        <v>0.05128205128205128</v>
+        <v>0.03076923076923077</v>
       </c>
       <c r="F44" t="n">
-        <v>1</v>
+        <v>0.1764705882352941</v>
       </c>
       <c r="G44" t="n">
         <v>5.735294117647059</v>
       </c>
       <c r="H44" t="n">
-        <v>0.04234056541748849</v>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>0.0254043392504931</v>
+      </c>
+      <c r="I44" t="n">
+        <v>1.176923076923077</v>
       </c>
       <c r="J44" t="n">
         <v>1</v>
@@ -2182,36 +2184,34 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>frozenset({'MarkLogic'})</t>
+          <t>frozenset({'MS SQL Server_Microsoft Azure SQL Database'})</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>frozenset({'MS SQL Server_Microsoft Azure SQL Database'})</t>
+          <t>frozenset({'SAP SQL Anywhere'})</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0.02564102564102564</v>
+        <v>0.1743589743589744</v>
       </c>
       <c r="D45" t="n">
-        <v>0.1743589743589744</v>
+        <v>0.05641025641025641</v>
       </c>
       <c r="E45" t="n">
-        <v>0.02564102564102564</v>
+        <v>0.05641025641025641</v>
       </c>
       <c r="F45" t="n">
-        <v>1</v>
+        <v>0.3235294117647059</v>
       </c>
       <c r="G45" t="n">
         <v>5.735294117647059</v>
       </c>
       <c r="H45" t="n">
-        <v>0.02117028270874425</v>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>0.04657462195923735</v>
+      </c>
+      <c r="I45" t="n">
+        <v>1.394871794871795</v>
       </c>
       <c r="J45" t="n">
         <v>1</v>
@@ -2223,34 +2223,36 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
+          <t>frozenset({'SAP SQL Anywhere'})</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
           <t>frozenset({'MS SQL Server_Microsoft Azure SQL Database'})</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>frozenset({'MarkLogic'})</t>
-        </is>
-      </c>
       <c r="C46" t="n">
+        <v>0.05641025641025641</v>
+      </c>
+      <c r="D46" t="n">
         <v>0.1743589743589744</v>
       </c>
-      <c r="D46" t="n">
-        <v>0.02564102564102564</v>
-      </c>
       <c r="E46" t="n">
-        <v>0.02564102564102564</v>
+        <v>0.05641025641025641</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1470588235294118</v>
+        <v>1</v>
       </c>
       <c r="G46" t="n">
         <v>5.735294117647059</v>
       </c>
       <c r="H46" t="n">
-        <v>0.02117028270874425</v>
-      </c>
-      <c r="I46" t="n">
-        <v>1.142351900972591</v>
+        <v>0.04657462195923735</v>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="J46" t="n">
         <v>1</v>
@@ -2262,34 +2264,36 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
+          <t>frozenset({'MarkLogic'})</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
           <t>frozenset({'MS SQL Server_Microsoft Azure SQL Database'})</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>frozenset({'SapHana'})</t>
-        </is>
-      </c>
       <c r="C47" t="n">
+        <v>0.02564102564102564</v>
+      </c>
+      <c r="D47" t="n">
         <v>0.1743589743589744</v>
       </c>
-      <c r="D47" t="n">
-        <v>0.03076923076923077</v>
-      </c>
       <c r="E47" t="n">
-        <v>0.03076923076923077</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1764705882352941</v>
+        <v>1</v>
       </c>
       <c r="G47" t="n">
         <v>5.735294117647059</v>
       </c>
       <c r="H47" t="n">
-        <v>0.0254043392504931</v>
-      </c>
-      <c r="I47" t="n">
-        <v>1.176923076923077</v>
+        <v>0.02117028270874425</v>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="J47" t="n">
         <v>1</v>
@@ -2301,36 +2305,34 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>frozenset({'SapHana'})</t>
+          <t>frozenset({'MS SQL Server_Microsoft Azure SQL Database'})</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>frozenset({'MS SQL Server_Microsoft Azure SQL Database'})</t>
+          <t>frozenset({'MarkLogic'})</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0.03076923076923077</v>
+        <v>0.1743589743589744</v>
       </c>
       <c r="D48" t="n">
-        <v>0.1743589743589744</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="E48" t="n">
-        <v>0.03076923076923077</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="F48" t="n">
-        <v>1</v>
+        <v>0.1470588235294118</v>
       </c>
       <c r="G48" t="n">
         <v>5.735294117647059</v>
       </c>
       <c r="H48" t="n">
-        <v>0.0254043392504931</v>
-      </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>0.02117028270874425</v>
+      </c>
+      <c r="I48" t="n">
+        <v>1.142351900972591</v>
       </c>
       <c r="J48" t="n">
         <v>1</v>
@@ -2342,36 +2344,34 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>frozenset({'Firebird'})</t>
+          <t>frozenset({'MS SQL Server_Microsoft Azure SQL Database'})</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>frozenset({'MS SQL Server_Microsoft Azure SQL Database'})</t>
+          <t>frozenset({'Informix'})</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>0.03076923076923077</v>
+        <v>0.1743589743589744</v>
       </c>
       <c r="D49" t="n">
-        <v>0.1743589743589744</v>
+        <v>0.03589743589743589</v>
       </c>
       <c r="E49" t="n">
-        <v>0.03076923076923077</v>
+        <v>0.03589743589743589</v>
       </c>
       <c r="F49" t="n">
-        <v>1</v>
+        <v>0.2058823529411765</v>
       </c>
       <c r="G49" t="n">
         <v>5.735294117647059</v>
       </c>
       <c r="H49" t="n">
-        <v>0.0254043392504931</v>
-      </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>0.02963839579224194</v>
+      </c>
+      <c r="I49" t="n">
+        <v>1.214055080721747</v>
       </c>
       <c r="J49" t="n">
         <v>1</v>
@@ -2617,25 +2617,25 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
+          <t>frozenset({'MS Access'})</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
           <t>frozenset({'HyperSQL'})</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>frozenset({'Firebird'})</t>
-        </is>
-      </c>
       <c r="C56" t="n">
+        <v>0.03076923076923077</v>
+      </c>
+      <c r="D56" t="n">
         <v>0.1948717948717949</v>
-      </c>
-      <c r="D56" t="n">
-        <v>0.03076923076923077</v>
       </c>
       <c r="E56" t="n">
         <v>0.03076923076923077</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1578947368421053</v>
+        <v>1</v>
       </c>
       <c r="G56" t="n">
         <v>5.131578947368421</v>
@@ -2643,8 +2643,10 @@
       <c r="H56" t="n">
         <v>0.02477317554240631</v>
       </c>
-      <c r="I56" t="n">
-        <v>1.150961538461539</v>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="J56" t="n">
         <v>1</v>
@@ -2656,25 +2658,25 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>frozenset({'Firebird'})</t>
+          <t>frozenset({'HyperSQL'})</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>frozenset({'HyperSQL'})</t>
+          <t>frozenset({'MS Access'})</t>
         </is>
       </c>
       <c r="C57" t="n">
+        <v>0.1948717948717949</v>
+      </c>
+      <c r="D57" t="n">
         <v>0.03076923076923077</v>
-      </c>
-      <c r="D57" t="n">
-        <v>0.1948717948717949</v>
       </c>
       <c r="E57" t="n">
         <v>0.03076923076923077</v>
       </c>
       <c r="F57" t="n">
-        <v>1</v>
+        <v>0.1578947368421053</v>
       </c>
       <c r="G57" t="n">
         <v>5.131578947368421</v>
@@ -2682,10 +2684,8 @@
       <c r="H57" t="n">
         <v>0.02477317554240631</v>
       </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="I57" t="n">
+        <v>1.150961538461539</v>
       </c>
       <c r="J57" t="n">
         <v>1</v>
@@ -2697,7 +2697,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>frozenset({'MS Access'})</t>
+          <t>frozenset({'Firebird'})</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2743,7 +2743,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>frozenset({'MS Access'})</t>
+          <t>frozenset({'Firebird'})</t>
         </is>
       </c>
       <c r="C59" t="n">
@@ -2777,25 +2777,25 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
+          <t>frozenset({'Cassandra'})</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
           <t>frozenset({'MongoDB'})</t>
         </is>
       </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>frozenset({'Cassandra'})</t>
-        </is>
-      </c>
       <c r="C60" t="n">
+        <v>0.05641025641025641</v>
+      </c>
+      <c r="D60" t="n">
         <v>0.1435897435897436</v>
-      </c>
-      <c r="D60" t="n">
-        <v>0.05641025641025641</v>
       </c>
       <c r="E60" t="n">
         <v>0.04102564102564103</v>
       </c>
       <c r="F60" t="n">
-        <v>0.2857142857142858</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="G60" t="n">
         <v>5.064935064935066</v>
@@ -2804,7 +2804,7 @@
         <v>0.03292570677186062</v>
       </c>
       <c r="I60" t="n">
-        <v>1.321025641025641</v>
+        <v>3.140170940170941</v>
       </c>
       <c r="J60" t="n">
         <v>1</v>
@@ -2816,25 +2816,25 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
+          <t>frozenset({'MongoDB'})</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
           <t>frozenset({'Cassandra'})</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>frozenset({'MongoDB'})</t>
-        </is>
-      </c>
       <c r="C61" t="n">
+        <v>0.1435897435897436</v>
+      </c>
+      <c r="D61" t="n">
         <v>0.05641025641025641</v>
-      </c>
-      <c r="D61" t="n">
-        <v>0.1435897435897436</v>
       </c>
       <c r="E61" t="n">
         <v>0.04102564102564103</v>
       </c>
       <c r="F61" t="n">
-        <v>0.7272727272727273</v>
+        <v>0.2857142857142858</v>
       </c>
       <c r="G61" t="n">
         <v>5.064935064935066</v>
@@ -2843,7 +2843,7 @@
         <v>0.03292570677186062</v>
       </c>
       <c r="I61" t="n">
-        <v>3.140170940170941</v>
+        <v>1.321025641025641</v>
       </c>
       <c r="J61" t="n">
         <v>1</v>
@@ -2894,25 +2894,25 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
+          <t>frozenset({'MS Access'})</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
           <t>frozenset({'MS SQL Server_Microsoft Azure SQL Database'})</t>
         </is>
       </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>frozenset({'MS Access'})</t>
-        </is>
-      </c>
       <c r="C63" t="n">
+        <v>0.03076923076923077</v>
+      </c>
+      <c r="D63" t="n">
         <v>0.1743589743589744</v>
-      </c>
-      <c r="D63" t="n">
-        <v>0.03076923076923077</v>
       </c>
       <c r="E63" t="n">
         <v>0.02564102564102564</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1470588235294118</v>
+        <v>0.8333333333333333</v>
       </c>
       <c r="G63" t="n">
         <v>4.779411764705882</v>
@@ -2921,7 +2921,7 @@
         <v>0.02027613412228797</v>
       </c>
       <c r="I63" t="n">
-        <v>1.136339522546419</v>
+        <v>4.953846153846151</v>
       </c>
       <c r="J63" t="n">
         <v>1</v>
@@ -2933,25 +2933,25 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
+          <t>frozenset({'MS SQL Server_Microsoft Azure SQL Database'})</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
           <t>frozenset({'MS Access'})</t>
         </is>
       </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>frozenset({'MS SQL Server_Microsoft Azure SQL Database'})</t>
-        </is>
-      </c>
       <c r="C64" t="n">
+        <v>0.1743589743589744</v>
+      </c>
+      <c r="D64" t="n">
         <v>0.03076923076923077</v>
-      </c>
-      <c r="D64" t="n">
-        <v>0.1743589743589744</v>
       </c>
       <c r="E64" t="n">
         <v>0.02564102564102564</v>
       </c>
       <c r="F64" t="n">
-        <v>0.8333333333333333</v>
+        <v>0.1470588235294118</v>
       </c>
       <c r="G64" t="n">
         <v>4.779411764705882</v>
@@ -2960,7 +2960,7 @@
         <v>0.02027613412228797</v>
       </c>
       <c r="I64" t="n">
-        <v>4.953846153846151</v>
+        <v>1.136339522546419</v>
       </c>
       <c r="J64" t="n">
         <v>1</v>
@@ -3089,25 +3089,25 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
+          <t>frozenset({'SAP Adaptive Server'})</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
           <t>frozenset({'HyperSQL'})</t>
         </is>
       </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>frozenset({'SAP Adaptive Server'})</t>
-        </is>
-      </c>
       <c r="C68" t="n">
+        <v>0.05128205128205128</v>
+      </c>
+      <c r="D68" t="n">
         <v>0.1948717948717949</v>
-      </c>
-      <c r="D68" t="n">
-        <v>0.05128205128205128</v>
       </c>
       <c r="E68" t="n">
         <v>0.04615384615384616</v>
       </c>
       <c r="F68" t="n">
-        <v>0.2368421052631579</v>
+        <v>0.9000000000000001</v>
       </c>
       <c r="G68" t="n">
         <v>4.61842105263158</v>
@@ -3116,7 +3116,7 @@
         <v>0.03616042077580539</v>
       </c>
       <c r="I68" t="n">
-        <v>1.24314765694076</v>
+        <v>8.051282051282062</v>
       </c>
       <c r="J68" t="n">
         <v>1</v>
@@ -3128,25 +3128,25 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
+          <t>frozenset({'HyperSQL'})</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
           <t>frozenset({'SAP Adaptive Server'})</t>
         </is>
       </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>frozenset({'HyperSQL'})</t>
-        </is>
-      </c>
       <c r="C69" t="n">
+        <v>0.1948717948717949</v>
+      </c>
+      <c r="D69" t="n">
         <v>0.05128205128205128</v>
-      </c>
-      <c r="D69" t="n">
-        <v>0.1948717948717949</v>
       </c>
       <c r="E69" t="n">
         <v>0.04615384615384616</v>
       </c>
       <c r="F69" t="n">
-        <v>0.9000000000000001</v>
+        <v>0.2368421052631579</v>
       </c>
       <c r="G69" t="n">
         <v>4.61842105263158</v>
@@ -3155,7 +3155,7 @@
         <v>0.03616042077580539</v>
       </c>
       <c r="I69" t="n">
-        <v>8.051282051282062</v>
+        <v>1.24314765694076</v>
       </c>
       <c r="J69" t="n">
         <v>1</v>
@@ -3640,29 +3640,29 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>frozenset({'ClickHouse'})</t>
+          <t>frozenset({'Firebird'})</t>
         </is>
       </c>
       <c r="C82" t="n">
         <v>0.2615384615384616</v>
       </c>
       <c r="D82" t="n">
-        <v>0.05128205128205128</v>
+        <v>0.03076923076923077</v>
       </c>
       <c r="E82" t="n">
-        <v>0.05128205128205128</v>
+        <v>0.03076923076923077</v>
       </c>
       <c r="F82" t="n">
-        <v>0.196078431372549</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="G82" t="n">
         <v>3.823529411764706</v>
       </c>
       <c r="H82" t="n">
-        <v>0.0378698224852071</v>
+        <v>0.02272189349112426</v>
       </c>
       <c r="I82" t="n">
-        <v>1.180112570356473</v>
+        <v>1.098461538461539</v>
       </c>
       <c r="J82" t="n">
         <v>1</v>
@@ -3674,7 +3674,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>frozenset({'ClickHouse'})</t>
+          <t>frozenset({'Firebird'})</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -3683,13 +3683,13 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>0.05128205128205128</v>
+        <v>0.03076923076923077</v>
       </c>
       <c r="D83" t="n">
         <v>0.2615384615384616</v>
       </c>
       <c r="E83" t="n">
-        <v>0.05128205128205128</v>
+        <v>0.03076923076923077</v>
       </c>
       <c r="F83" t="n">
         <v>1</v>
@@ -3698,7 +3698,7 @@
         <v>3.823529411764706</v>
       </c>
       <c r="H83" t="n">
-        <v>0.0378698224852071</v>
+        <v>0.02272189349112426</v>
       </c>
       <c r="I83" t="inlineStr">
         <is>
@@ -3715,7 +3715,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>frozenset({'SAP Adaptive Server'})</t>
+          <t>frozenset({'SapHana'})</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -3724,13 +3724,13 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>0.05128205128205128</v>
+        <v>0.03076923076923077</v>
       </c>
       <c r="D84" t="n">
         <v>0.2615384615384616</v>
       </c>
       <c r="E84" t="n">
-        <v>0.05128205128205128</v>
+        <v>0.03076923076923077</v>
       </c>
       <c r="F84" t="n">
         <v>1</v>
@@ -3739,7 +3739,7 @@
         <v>3.823529411764706</v>
       </c>
       <c r="H84" t="n">
-        <v>0.0378698224852071</v>
+        <v>0.02272189349112426</v>
       </c>
       <c r="I84" t="inlineStr">
         <is>
@@ -3761,29 +3761,29 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>frozenset({'SAP Adaptive Server'})</t>
+          <t>frozenset({'SapHana'})</t>
         </is>
       </c>
       <c r="C85" t="n">
         <v>0.2615384615384616</v>
       </c>
       <c r="D85" t="n">
-        <v>0.05128205128205128</v>
+        <v>0.03076923076923077</v>
       </c>
       <c r="E85" t="n">
-        <v>0.05128205128205128</v>
+        <v>0.03076923076923077</v>
       </c>
       <c r="F85" t="n">
-        <v>0.196078431372549</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="G85" t="n">
         <v>3.823529411764706</v>
       </c>
       <c r="H85" t="n">
-        <v>0.0378698224852071</v>
+        <v>0.02272189349112426</v>
       </c>
       <c r="I85" t="n">
-        <v>1.180112570356473</v>
+        <v>1.098461538461539</v>
       </c>
       <c r="J85" t="n">
         <v>1</v>
@@ -3800,29 +3800,29 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>frozenset({'MS Access'})</t>
+          <t>frozenset({'MarkLogic'})</t>
         </is>
       </c>
       <c r="C86" t="n">
         <v>0.2615384615384616</v>
       </c>
       <c r="D86" t="n">
-        <v>0.03076923076923077</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="E86" t="n">
-        <v>0.03076923076923077</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1176470588235294</v>
+        <v>0.09803921568627449</v>
       </c>
       <c r="G86" t="n">
         <v>3.823529411764706</v>
       </c>
       <c r="H86" t="n">
-        <v>0.02272189349112426</v>
+        <v>0.01893491124260355</v>
       </c>
       <c r="I86" t="n">
-        <v>1.098461538461539</v>
+        <v>1.080267558528428</v>
       </c>
       <c r="J86" t="n">
         <v>1</v>
@@ -3834,7 +3834,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>frozenset({'MS Access'})</t>
+          <t>frozenset({'MarkLogic'})</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -3843,13 +3843,13 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>0.03076923076923077</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="D87" t="n">
         <v>0.2615384615384616</v>
       </c>
       <c r="E87" t="n">
-        <v>0.03076923076923077</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="F87" t="n">
         <v>1</v>
@@ -3858,7 +3858,7 @@
         <v>3.823529411764706</v>
       </c>
       <c r="H87" t="n">
-        <v>0.02272189349112426</v>
+        <v>0.01893491124260355</v>
       </c>
       <c r="I87" t="inlineStr">
         <is>
@@ -3875,25 +3875,25 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
+          <t>frozenset({'Oracle'})</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
           <t>frozenset({'SAP SQL Anywhere'})</t>
         </is>
       </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>frozenset({'Oracle'})</t>
-        </is>
-      </c>
       <c r="C88" t="n">
+        <v>0.2615384615384616</v>
+      </c>
+      <c r="D88" t="n">
         <v>0.05641025641025641</v>
-      </c>
-      <c r="D88" t="n">
-        <v>0.2615384615384616</v>
       </c>
       <c r="E88" t="n">
         <v>0.05641025641025641</v>
       </c>
       <c r="F88" t="n">
-        <v>1</v>
+        <v>0.2156862745098039</v>
       </c>
       <c r="G88" t="n">
         <v>3.823529411764706</v>
@@ -3901,10 +3901,8 @@
       <c r="H88" t="n">
         <v>0.04165680473372781</v>
       </c>
-      <c r="I88" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="I88" t="n">
+        <v>1.203076923076923</v>
       </c>
       <c r="J88" t="n">
         <v>1</v>
@@ -3921,29 +3919,29 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>frozenset({'SAP SQL Anywhere'})</t>
+          <t>frozenset({'MS Access'})</t>
         </is>
       </c>
       <c r="C89" t="n">
         <v>0.2615384615384616</v>
       </c>
       <c r="D89" t="n">
-        <v>0.05641025641025641</v>
+        <v>0.03076923076923077</v>
       </c>
       <c r="E89" t="n">
-        <v>0.05641025641025641</v>
+        <v>0.03076923076923077</v>
       </c>
       <c r="F89" t="n">
-        <v>0.2156862745098039</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="G89" t="n">
         <v>3.823529411764706</v>
       </c>
       <c r="H89" t="n">
-        <v>0.04165680473372781</v>
+        <v>0.02272189349112426</v>
       </c>
       <c r="I89" t="n">
-        <v>1.203076923076923</v>
+        <v>1.098461538461539</v>
       </c>
       <c r="J89" t="n">
         <v>1</v>
@@ -3955,34 +3953,36 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
+          <t>frozenset({'SAP Adaptive Server'})</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
           <t>frozenset({'Oracle'})</t>
         </is>
       </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>frozenset({'Informix'})</t>
-        </is>
-      </c>
       <c r="C90" t="n">
+        <v>0.05128205128205128</v>
+      </c>
+      <c r="D90" t="n">
         <v>0.2615384615384616</v>
       </c>
-      <c r="D90" t="n">
-        <v>0.03589743589743589</v>
-      </c>
       <c r="E90" t="n">
-        <v>0.03589743589743589</v>
+        <v>0.05128205128205128</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1372549019607843</v>
+        <v>1</v>
       </c>
       <c r="G90" t="n">
         <v>3.823529411764706</v>
       </c>
       <c r="H90" t="n">
-        <v>0.02650887573964497</v>
-      </c>
-      <c r="I90" t="n">
-        <v>1.117482517482517</v>
+        <v>0.0378698224852071</v>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="J90" t="n">
         <v>1</v>
@@ -3994,7 +3994,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>frozenset({'Informix'})</t>
+          <t>frozenset({'MS Access'})</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -4003,13 +4003,13 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>0.03589743589743589</v>
+        <v>0.03076923076923077</v>
       </c>
       <c r="D91" t="n">
         <v>0.2615384615384616</v>
       </c>
       <c r="E91" t="n">
-        <v>0.03589743589743589</v>
+        <v>0.03076923076923077</v>
       </c>
       <c r="F91" t="n">
         <v>1</v>
@@ -4018,7 +4018,7 @@
         <v>3.823529411764706</v>
       </c>
       <c r="H91" t="n">
-        <v>0.02650887573964497</v>
+        <v>0.02272189349112426</v>
       </c>
       <c r="I91" t="inlineStr">
         <is>
@@ -4035,34 +4035,36 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
+          <t>frozenset({'SAP SQL Anywhere'})</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
           <t>frozenset({'Oracle'})</t>
         </is>
       </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>frozenset({'Firebird'})</t>
-        </is>
-      </c>
       <c r="C92" t="n">
+        <v>0.05641025641025641</v>
+      </c>
+      <c r="D92" t="n">
         <v>0.2615384615384616</v>
       </c>
-      <c r="D92" t="n">
-        <v>0.03076923076923077</v>
-      </c>
       <c r="E92" t="n">
-        <v>0.03076923076923077</v>
+        <v>0.05641025641025641</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1176470588235294</v>
+        <v>1</v>
       </c>
       <c r="G92" t="n">
         <v>3.823529411764706</v>
       </c>
       <c r="H92" t="n">
-        <v>0.02272189349112426</v>
-      </c>
-      <c r="I92" t="n">
-        <v>1.098461538461539</v>
+        <v>0.04165680473372781</v>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="J92" t="n">
         <v>1</v>
@@ -4074,36 +4076,34 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>frozenset({'Firebird'})</t>
+          <t>frozenset({'Oracle'})</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>frozenset({'Oracle'})</t>
+          <t>frozenset({'Informix'})</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>0.03076923076923077</v>
+        <v>0.2615384615384616</v>
       </c>
       <c r="D93" t="n">
-        <v>0.2615384615384616</v>
+        <v>0.03589743589743589</v>
       </c>
       <c r="E93" t="n">
-        <v>0.03076923076923077</v>
+        <v>0.03589743589743589</v>
       </c>
       <c r="F93" t="n">
-        <v>1</v>
+        <v>0.1372549019607843</v>
       </c>
       <c r="G93" t="n">
         <v>3.823529411764706</v>
       </c>
       <c r="H93" t="n">
-        <v>0.02272189349112426</v>
-      </c>
-      <c r="I93" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>0.02650887573964497</v>
+      </c>
+      <c r="I93" t="n">
+        <v>1.117482517482517</v>
       </c>
       <c r="J93" t="n">
         <v>1</v>
@@ -4115,34 +4115,36 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
+          <t>frozenset({'Informix'})</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
           <t>frozenset({'Oracle'})</t>
         </is>
       </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>frozenset({'SapHana'})</t>
-        </is>
-      </c>
       <c r="C94" t="n">
+        <v>0.03589743589743589</v>
+      </c>
+      <c r="D94" t="n">
         <v>0.2615384615384616</v>
       </c>
-      <c r="D94" t="n">
-        <v>0.03076923076923077</v>
-      </c>
       <c r="E94" t="n">
-        <v>0.03076923076923077</v>
+        <v>0.03589743589743589</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1176470588235294</v>
+        <v>1</v>
       </c>
       <c r="G94" t="n">
         <v>3.823529411764706</v>
       </c>
       <c r="H94" t="n">
-        <v>0.02272189349112426</v>
-      </c>
-      <c r="I94" t="n">
-        <v>1.098461538461539</v>
+        <v>0.02650887573964497</v>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="J94" t="n">
         <v>1</v>
@@ -4154,7 +4156,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>frozenset({'SapHana'})</t>
+          <t>frozenset({'ClickHouse'})</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -4163,13 +4165,13 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>0.03076923076923077</v>
+        <v>0.05128205128205128</v>
       </c>
       <c r="D95" t="n">
         <v>0.2615384615384616</v>
       </c>
       <c r="E95" t="n">
-        <v>0.03076923076923077</v>
+        <v>0.05128205128205128</v>
       </c>
       <c r="F95" t="n">
         <v>1</v>
@@ -4178,7 +4180,7 @@
         <v>3.823529411764706</v>
       </c>
       <c r="H95" t="n">
-        <v>0.02272189349112426</v>
+        <v>0.0378698224852071</v>
       </c>
       <c r="I95" t="inlineStr">
         <is>
@@ -4195,36 +4197,34 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>frozenset({'MarkLogic'})</t>
+          <t>frozenset({'Oracle'})</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>frozenset({'Oracle'})</t>
+          <t>frozenset({'SAP Adaptive Server'})</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>0.02564102564102564</v>
+        <v>0.2615384615384616</v>
       </c>
       <c r="D96" t="n">
-        <v>0.2615384615384616</v>
+        <v>0.05128205128205128</v>
       </c>
       <c r="E96" t="n">
-        <v>0.02564102564102564</v>
+        <v>0.05128205128205128</v>
       </c>
       <c r="F96" t="n">
-        <v>1</v>
+        <v>0.196078431372549</v>
       </c>
       <c r="G96" t="n">
         <v>3.823529411764706</v>
       </c>
       <c r="H96" t="n">
-        <v>0.01893491124260355</v>
-      </c>
-      <c r="I96" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>0.0378698224852071</v>
+      </c>
+      <c r="I96" t="n">
+        <v>1.180112570356473</v>
       </c>
       <c r="J96" t="n">
         <v>1</v>
@@ -4241,29 +4241,29 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>frozenset({'MarkLogic'})</t>
+          <t>frozenset({'ClickHouse'})</t>
         </is>
       </c>
       <c r="C97" t="n">
         <v>0.2615384615384616</v>
       </c>
       <c r="D97" t="n">
-        <v>0.02564102564102564</v>
+        <v>0.05128205128205128</v>
       </c>
       <c r="E97" t="n">
-        <v>0.02564102564102564</v>
+        <v>0.05128205128205128</v>
       </c>
       <c r="F97" t="n">
-        <v>0.09803921568627449</v>
+        <v>0.196078431372549</v>
       </c>
       <c r="G97" t="n">
         <v>3.823529411764706</v>
       </c>
       <c r="H97" t="n">
-        <v>0.01893491124260355</v>
+        <v>0.0378698224852071</v>
       </c>
       <c r="I97" t="n">
-        <v>1.080267558528428</v>
+        <v>1.180112570356473</v>
       </c>
       <c r="J97" t="n">
         <v>1</v>
@@ -4353,25 +4353,25 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
+          <t>frozenset({'HyperSQL'})</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
           <t>frozenset({'IBM DB2'})</t>
         </is>
       </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>frozenset({'HyperSQL'})</t>
-        </is>
-      </c>
       <c r="C100" t="n">
+        <v>0.1948717948717949</v>
+      </c>
+      <c r="D100" t="n">
         <v>0.09230769230769231</v>
-      </c>
-      <c r="D100" t="n">
-        <v>0.1948717948717949</v>
       </c>
       <c r="E100" t="n">
         <v>0.06666666666666667</v>
       </c>
       <c r="F100" t="n">
-        <v>0.7222222222222222</v>
+        <v>0.3421052631578947</v>
       </c>
       <c r="G100" t="n">
         <v>3.706140350877193</v>
@@ -4380,7 +4380,7 @@
         <v>0.04867850098619329</v>
       </c>
       <c r="I100" t="n">
-        <v>2.898461538461539</v>
+        <v>1.379692307692308</v>
       </c>
       <c r="J100" t="n">
         <v>1</v>
@@ -4392,25 +4392,25 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
+          <t>frozenset({'IBM DB2'})</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
           <t>frozenset({'HyperSQL'})</t>
         </is>
       </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>frozenset({'IBM DB2'})</t>
-        </is>
-      </c>
       <c r="C101" t="n">
+        <v>0.09230769230769231</v>
+      </c>
+      <c r="D101" t="n">
         <v>0.1948717948717949</v>
-      </c>
-      <c r="D101" t="n">
-        <v>0.09230769230769231</v>
       </c>
       <c r="E101" t="n">
         <v>0.06666666666666667</v>
       </c>
       <c r="F101" t="n">
-        <v>0.3421052631578947</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="G101" t="n">
         <v>3.706140350877193</v>
@@ -4419,7 +4419,7 @@
         <v>0.04867850098619329</v>
       </c>
       <c r="I101" t="n">
-        <v>1.379692307692308</v>
+        <v>2.898461538461539</v>
       </c>
       <c r="J101" t="n">
         <v>1</v>
@@ -4509,25 +4509,25 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
+          <t>frozenset({'HBase'})</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
           <t>frozenset({'MongoDB'})</t>
         </is>
       </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>frozenset({'HBase'})</t>
-        </is>
-      </c>
       <c r="C104" t="n">
+        <v>0.06153846153846154</v>
+      </c>
+      <c r="D104" t="n">
         <v>0.1435897435897436</v>
-      </c>
-      <c r="D104" t="n">
-        <v>0.06153846153846154</v>
       </c>
       <c r="E104" t="n">
         <v>0.03076923076923077</v>
       </c>
       <c r="F104" t="n">
-        <v>0.2142857142857143</v>
+        <v>0.5</v>
       </c>
       <c r="G104" t="n">
         <v>3.482142857142857</v>
@@ -4536,7 +4536,7 @@
         <v>0.02193293885601578</v>
       </c>
       <c r="I104" t="n">
-        <v>1.194405594405594</v>
+        <v>1.712820512820513</v>
       </c>
       <c r="J104" t="n">
         <v>1</v>
@@ -4548,25 +4548,25 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
+          <t>frozenset({'MongoDB'})</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
           <t>frozenset({'HBase'})</t>
         </is>
       </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>frozenset({'MongoDB'})</t>
-        </is>
-      </c>
       <c r="C105" t="n">
+        <v>0.1435897435897436</v>
+      </c>
+      <c r="D105" t="n">
         <v>0.06153846153846154</v>
-      </c>
-      <c r="D105" t="n">
-        <v>0.1435897435897436</v>
       </c>
       <c r="E105" t="n">
         <v>0.03076923076923077</v>
       </c>
       <c r="F105" t="n">
-        <v>0.5</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="G105" t="n">
         <v>3.482142857142857</v>
@@ -4575,7 +4575,7 @@
         <v>0.02193293885601578</v>
       </c>
       <c r="I105" t="n">
-        <v>1.712820512820513</v>
+        <v>1.194405594405594</v>
       </c>
       <c r="J105" t="n">
         <v>1</v>
@@ -5135,7 +5135,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>frozenset({'MS Access'})</t>
+          <t>frozenset({'Firebird'})</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -5176,34 +5176,34 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>frozenset({'PostgreSQL_ CockroachDB'})</t>
+          <t>frozenset({'H2'})</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>frozenset({'MS Access'})</t>
+          <t>frozenset({'Informix'})</t>
         </is>
       </c>
       <c r="C121" t="n">
         <v>0.3384615384615385</v>
       </c>
       <c r="D121" t="n">
-        <v>0.03076923076923077</v>
+        <v>0.03589743589743589</v>
       </c>
       <c r="E121" t="n">
-        <v>0.03076923076923077</v>
+        <v>0.03589743589743589</v>
       </c>
       <c r="F121" t="n">
-        <v>0.09090909090909091</v>
+        <v>0.106060606060606</v>
       </c>
       <c r="G121" t="n">
         <v>2.954545454545455</v>
       </c>
       <c r="H121" t="n">
-        <v>0.02035502958579882</v>
+        <v>0.02374753451676528</v>
       </c>
       <c r="I121" t="n">
-        <v>1.066153846153846</v>
+        <v>1.078487614080834</v>
       </c>
       <c r="J121" t="n">
         <v>1</v>
@@ -5215,22 +5215,22 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>frozenset({'SAP SQL Anywhere'})</t>
+          <t>frozenset({'Informix'})</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>frozenset({'PostgreSQL_ CockroachDB'})</t>
+          <t>frozenset({'H2'})</t>
         </is>
       </c>
       <c r="C122" t="n">
-        <v>0.05641025641025641</v>
+        <v>0.03589743589743589</v>
       </c>
       <c r="D122" t="n">
         <v>0.3384615384615385</v>
       </c>
       <c r="E122" t="n">
-        <v>0.05641025641025641</v>
+        <v>0.03589743589743589</v>
       </c>
       <c r="F122" t="n">
         <v>1</v>
@@ -5239,7 +5239,7 @@
         <v>2.954545454545455</v>
       </c>
       <c r="H122" t="n">
-        <v>0.03731755424063116</v>
+        <v>0.02374753451676528</v>
       </c>
       <c r="I122" t="inlineStr">
         <is>
@@ -5256,22 +5256,22 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>frozenset({'SAP Adaptive Server'})</t>
+          <t>frozenset({'Firebird'})</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>frozenset({'PostgreSQL_ CockroachDB'})</t>
+          <t>frozenset({'H2'})</t>
         </is>
       </c>
       <c r="C123" t="n">
-        <v>0.05128205128205128</v>
+        <v>0.03076923076923077</v>
       </c>
       <c r="D123" t="n">
         <v>0.3384615384615385</v>
       </c>
       <c r="E123" t="n">
-        <v>0.05128205128205128</v>
+        <v>0.03076923076923077</v>
       </c>
       <c r="F123" t="n">
         <v>1</v>
@@ -5280,7 +5280,7 @@
         <v>2.954545454545455</v>
       </c>
       <c r="H123" t="n">
-        <v>0.0339250493096647</v>
+        <v>0.02035502958579882</v>
       </c>
       <c r="I123" t="inlineStr">
         <is>
@@ -5297,7 +5297,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>frozenset({'PostgreSQL_ CockroachDB'})</t>
+          <t>frozenset({'H2'})</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -5341,7 +5341,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>frozenset({'PostgreSQL_ CockroachDB'})</t>
+          <t>frozenset({'H2'})</t>
         </is>
       </c>
       <c r="C125" t="n">
@@ -5377,7 +5377,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>frozenset({'ClickHouse'})</t>
+          <t>frozenset({'SapHana'})</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -5386,13 +5386,13 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>0.05128205128205128</v>
+        <v>0.03076923076923077</v>
       </c>
       <c r="D126" t="n">
         <v>0.3384615384615385</v>
       </c>
       <c r="E126" t="n">
-        <v>0.05128205128205128</v>
+        <v>0.03076923076923077</v>
       </c>
       <c r="F126" t="n">
         <v>1</v>
@@ -5401,7 +5401,7 @@
         <v>2.954545454545455</v>
       </c>
       <c r="H126" t="n">
-        <v>0.0339250493096647</v>
+        <v>0.02035502958579882</v>
       </c>
       <c r="I126" t="inlineStr">
         <is>
@@ -5418,36 +5418,34 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>frozenset({'Informix'})</t>
+          <t>frozenset({'PostgreSQL_ CockroachDB'})</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>frozenset({'PostgreSQL_ CockroachDB'})</t>
+          <t>frozenset({'SapHana'})</t>
         </is>
       </c>
       <c r="C127" t="n">
-        <v>0.03589743589743589</v>
+        <v>0.3384615384615385</v>
       </c>
       <c r="D127" t="n">
-        <v>0.3384615384615385</v>
+        <v>0.03076923076923077</v>
       </c>
       <c r="E127" t="n">
-        <v>0.03589743589743589</v>
+        <v>0.03076923076923077</v>
       </c>
       <c r="F127" t="n">
-        <v>1</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="G127" t="n">
         <v>2.954545454545455</v>
       </c>
       <c r="H127" t="n">
-        <v>0.02374753451676528</v>
-      </c>
-      <c r="I127" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>0.02035502958579882</v>
+      </c>
+      <c r="I127" t="n">
+        <v>1.066153846153846</v>
       </c>
       <c r="J127" t="n">
         <v>1</v>
@@ -5464,29 +5462,29 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>frozenset({'Informix'})</t>
+          <t>frozenset({'Firebird'})</t>
         </is>
       </c>
       <c r="C128" t="n">
         <v>0.3384615384615385</v>
       </c>
       <c r="D128" t="n">
-        <v>0.03589743589743589</v>
+        <v>0.03076923076923077</v>
       </c>
       <c r="E128" t="n">
-        <v>0.03589743589743589</v>
+        <v>0.03076923076923077</v>
       </c>
       <c r="F128" t="n">
-        <v>0.106060606060606</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="G128" t="n">
         <v>2.954545454545455</v>
       </c>
       <c r="H128" t="n">
-        <v>0.02374753451676528</v>
+        <v>0.02035502958579882</v>
       </c>
       <c r="I128" t="n">
-        <v>1.078487614080834</v>
+        <v>1.066153846153846</v>
       </c>
       <c r="J128" t="n">
         <v>1</v>
@@ -5498,12 +5496,12 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>frozenset({'PostgreSQL_ CockroachDB'})</t>
+          <t>frozenset({'H2'})</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>frozenset({'Firebird'})</t>
+          <t>frozenset({'SapHana'})</t>
         </is>
       </c>
       <c r="C129" t="n">
@@ -5537,25 +5535,25 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
+          <t>frozenset({'H2'})</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
           <t>frozenset({'Firebird'})</t>
         </is>
       </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>frozenset({'PostgreSQL_ CockroachDB'})</t>
-        </is>
-      </c>
       <c r="C130" t="n">
+        <v>0.3384615384615385</v>
+      </c>
+      <c r="D130" t="n">
         <v>0.03076923076923077</v>
-      </c>
-      <c r="D130" t="n">
-        <v>0.3384615384615385</v>
       </c>
       <c r="E130" t="n">
         <v>0.03076923076923077</v>
       </c>
       <c r="F130" t="n">
-        <v>1</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="G130" t="n">
         <v>2.954545454545455</v>
@@ -5563,10 +5561,8 @@
       <c r="H130" t="n">
         <v>0.02035502958579882</v>
       </c>
-      <c r="I130" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="I130" t="n">
+        <v>1.066153846153846</v>
       </c>
       <c r="J130" t="n">
         <v>1</v>
@@ -5578,22 +5574,22 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>frozenset({'IBM DB2'})</t>
+          <t>frozenset({'SapHana'})</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>frozenset({'PostgreSQL_ CockroachDB'})</t>
+          <t>frozenset({'H2'})</t>
         </is>
       </c>
       <c r="C131" t="n">
-        <v>0.09230769230769231</v>
+        <v>0.03076923076923077</v>
       </c>
       <c r="D131" t="n">
         <v>0.3384615384615385</v>
       </c>
       <c r="E131" t="n">
-        <v>0.09230769230769231</v>
+        <v>0.03076923076923077</v>
       </c>
       <c r="F131" t="n">
         <v>1</v>
@@ -5602,7 +5598,7 @@
         <v>2.954545454545455</v>
       </c>
       <c r="H131" t="n">
-        <v>0.06106508875739645</v>
+        <v>0.02035502958579882</v>
       </c>
       <c r="I131" t="inlineStr">
         <is>
@@ -5660,7 +5656,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>frozenset({'SapHana'})</t>
+          <t>frozenset({'SAP Adaptive Server'})</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -5669,13 +5665,13 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>0.03076923076923077</v>
+        <v>0.05128205128205128</v>
       </c>
       <c r="D133" t="n">
         <v>0.3384615384615385</v>
       </c>
       <c r="E133" t="n">
-        <v>0.03076923076923077</v>
+        <v>0.05128205128205128</v>
       </c>
       <c r="F133" t="n">
         <v>1</v>
@@ -5684,7 +5680,7 @@
         <v>2.954545454545455</v>
       </c>
       <c r="H133" t="n">
-        <v>0.02035502958579882</v>
+        <v>0.0339250493096647</v>
       </c>
       <c r="I133" t="inlineStr">
         <is>
@@ -5706,29 +5702,29 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>frozenset({'SapHana'})</t>
+          <t>frozenset({'PostGIS'})</t>
         </is>
       </c>
       <c r="C134" t="n">
         <v>0.3384615384615385</v>
       </c>
       <c r="D134" t="n">
-        <v>0.03076923076923077</v>
+        <v>0.03589743589743589</v>
       </c>
       <c r="E134" t="n">
-        <v>0.03076923076923077</v>
+        <v>0.03589743589743589</v>
       </c>
       <c r="F134" t="n">
-        <v>0.09090909090909091</v>
+        <v>0.106060606060606</v>
       </c>
       <c r="G134" t="n">
         <v>2.954545454545455</v>
       </c>
       <c r="H134" t="n">
-        <v>0.02035502958579882</v>
+        <v>0.02374753451676528</v>
       </c>
       <c r="I134" t="n">
-        <v>1.066153846153846</v>
+        <v>1.078487614080834</v>
       </c>
       <c r="J134" t="n">
         <v>1</v>
@@ -5740,34 +5736,36 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>frozenset({'H2'})</t>
+          <t>frozenset({'ClickHouse'})</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>frozenset({'PostGIS'})</t>
+          <t>frozenset({'PostgreSQL_ CockroachDB'})</t>
         </is>
       </c>
       <c r="C135" t="n">
+        <v>0.05128205128205128</v>
+      </c>
+      <c r="D135" t="n">
         <v>0.3384615384615385</v>
       </c>
-      <c r="D135" t="n">
-        <v>0.03589743589743589</v>
-      </c>
       <c r="E135" t="n">
-        <v>0.03589743589743589</v>
+        <v>0.05128205128205128</v>
       </c>
       <c r="F135" t="n">
-        <v>0.106060606060606</v>
+        <v>1</v>
       </c>
       <c r="G135" t="n">
         <v>2.954545454545455</v>
       </c>
       <c r="H135" t="n">
-        <v>0.02374753451676528</v>
-      </c>
-      <c r="I135" t="n">
-        <v>1.078487614080834</v>
+        <v>0.0339250493096647</v>
+      </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="J135" t="n">
         <v>1</v>
@@ -5784,7 +5782,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>frozenset({'H2'})</t>
+          <t>frozenset({'PostgreSQL_ CockroachDB'})</t>
         </is>
       </c>
       <c r="C136" t="n">
@@ -5820,22 +5818,22 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>frozenset({'Informix'})</t>
+          <t>frozenset({'MS Access'})</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>frozenset({'H2'})</t>
+          <t>frozenset({'PostgreSQL_ CockroachDB'})</t>
         </is>
       </c>
       <c r="C137" t="n">
-        <v>0.03589743589743589</v>
+        <v>0.03076923076923077</v>
       </c>
       <c r="D137" t="n">
         <v>0.3384615384615385</v>
       </c>
       <c r="E137" t="n">
-        <v>0.03589743589743589</v>
+        <v>0.03076923076923077</v>
       </c>
       <c r="F137" t="n">
         <v>1</v>
@@ -5844,7 +5842,7 @@
         <v>2.954545454545455</v>
       </c>
       <c r="H137" t="n">
-        <v>0.02374753451676528</v>
+        <v>0.02035502958579882</v>
       </c>
       <c r="I137" t="inlineStr">
         <is>
@@ -5861,34 +5859,36 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>frozenset({'H2'})</t>
+          <t>frozenset({'IBM DB2'})</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>frozenset({'Informix'})</t>
+          <t>frozenset({'PostgreSQL_ CockroachDB'})</t>
         </is>
       </c>
       <c r="C138" t="n">
+        <v>0.09230769230769231</v>
+      </c>
+      <c r="D138" t="n">
         <v>0.3384615384615385</v>
       </c>
-      <c r="D138" t="n">
-        <v>0.03589743589743589</v>
-      </c>
       <c r="E138" t="n">
-        <v>0.03589743589743589</v>
+        <v>0.09230769230769231</v>
       </c>
       <c r="F138" t="n">
-        <v>0.106060606060606</v>
+        <v>1</v>
       </c>
       <c r="G138" t="n">
         <v>2.954545454545455</v>
       </c>
       <c r="H138" t="n">
-        <v>0.02374753451676528</v>
-      </c>
-      <c r="I138" t="n">
-        <v>1.078487614080834</v>
+        <v>0.06106508875739645</v>
+      </c>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="J138" t="n">
         <v>1</v>
@@ -5900,12 +5900,12 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>frozenset({'H2'})</t>
+          <t>frozenset({'PostgreSQL_ CockroachDB'})</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>frozenset({'Firebird'})</t>
+          <t>frozenset({'MS Access'})</t>
         </is>
       </c>
       <c r="C139" t="n">
@@ -5939,22 +5939,22 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>frozenset({'Firebird'})</t>
+          <t>frozenset({'SAP SQL Anywhere'})</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>frozenset({'H2'})</t>
+          <t>frozenset({'PostgreSQL_ CockroachDB'})</t>
         </is>
       </c>
       <c r="C140" t="n">
-        <v>0.03076923076923077</v>
+        <v>0.05641025641025641</v>
       </c>
       <c r="D140" t="n">
         <v>0.3384615384615385</v>
       </c>
       <c r="E140" t="n">
-        <v>0.03076923076923077</v>
+        <v>0.05641025641025641</v>
       </c>
       <c r="F140" t="n">
         <v>1</v>
@@ -5963,7 +5963,7 @@
         <v>2.954545454545455</v>
       </c>
       <c r="H140" t="n">
-        <v>0.02035502958579882</v>
+        <v>0.03731755424063116</v>
       </c>
       <c r="I140" t="inlineStr">
         <is>
@@ -5980,34 +5980,36 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>frozenset({'H2'})</t>
+          <t>frozenset({'Informix'})</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>frozenset({'SapHana'})</t>
+          <t>frozenset({'PostgreSQL_ CockroachDB'})</t>
         </is>
       </c>
       <c r="C141" t="n">
+        <v>0.03589743589743589</v>
+      </c>
+      <c r="D141" t="n">
         <v>0.3384615384615385</v>
       </c>
-      <c r="D141" t="n">
-        <v>0.03076923076923077</v>
-      </c>
       <c r="E141" t="n">
-        <v>0.03076923076923077</v>
+        <v>0.03589743589743589</v>
       </c>
       <c r="F141" t="n">
-        <v>0.09090909090909091</v>
+        <v>1</v>
       </c>
       <c r="G141" t="n">
         <v>2.954545454545455</v>
       </c>
       <c r="H141" t="n">
-        <v>0.02035502958579882</v>
-      </c>
-      <c r="I141" t="n">
-        <v>1.066153846153846</v>
+        <v>0.02374753451676528</v>
+      </c>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="J141" t="n">
         <v>1</v>
@@ -6019,36 +6021,34 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>frozenset({'SapHana'})</t>
+          <t>frozenset({'PostgreSQL_ CockroachDB'})</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>frozenset({'H2'})</t>
+          <t>frozenset({'Informix'})</t>
         </is>
       </c>
       <c r="C142" t="n">
-        <v>0.03076923076923077</v>
+        <v>0.3384615384615385</v>
       </c>
       <c r="D142" t="n">
-        <v>0.3384615384615385</v>
+        <v>0.03589743589743589</v>
       </c>
       <c r="E142" t="n">
-        <v>0.03076923076923077</v>
+        <v>0.03589743589743589</v>
       </c>
       <c r="F142" t="n">
-        <v>1</v>
+        <v>0.106060606060606</v>
       </c>
       <c r="G142" t="n">
         <v>2.954545454545455</v>
       </c>
       <c r="H142" t="n">
-        <v>0.02035502958579882</v>
-      </c>
-      <c r="I142" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>0.02374753451676528</v>
+      </c>
+      <c r="I142" t="n">
+        <v>1.078487614080834</v>
       </c>
       <c r="J142" t="n">
         <v>1</v>
@@ -6104,29 +6104,29 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>frozenset({'IBM DB2'})</t>
+          <t>frozenset({'ClickHouse'})</t>
         </is>
       </c>
       <c r="C144" t="n">
         <v>0.3384615384615385</v>
       </c>
       <c r="D144" t="n">
-        <v>0.09230769230769231</v>
+        <v>0.05128205128205128</v>
       </c>
       <c r="E144" t="n">
-        <v>0.09230769230769231</v>
+        <v>0.05128205128205128</v>
       </c>
       <c r="F144" t="n">
-        <v>0.2727272727272727</v>
+        <v>0.1515151515151515</v>
       </c>
       <c r="G144" t="n">
         <v>2.954545454545454</v>
       </c>
       <c r="H144" t="n">
-        <v>0.06106508875739645</v>
+        <v>0.0339250493096647</v>
       </c>
       <c r="I144" t="n">
-        <v>1.248076923076923</v>
+        <v>1.118131868131868</v>
       </c>
       <c r="J144" t="n">
         <v>1</v>
@@ -6143,29 +6143,29 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>frozenset({'SAP SQL Anywhere'})</t>
+          <t>frozenset({'SAP Adaptive Server'})</t>
         </is>
       </c>
       <c r="C145" t="n">
         <v>0.3384615384615385</v>
       </c>
       <c r="D145" t="n">
-        <v>0.05641025641025641</v>
+        <v>0.05128205128205128</v>
       </c>
       <c r="E145" t="n">
-        <v>0.05641025641025641</v>
+        <v>0.05128205128205128</v>
       </c>
       <c r="F145" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.1515151515151515</v>
       </c>
       <c r="G145" t="n">
         <v>2.954545454545454</v>
       </c>
       <c r="H145" t="n">
-        <v>0.03731755424063116</v>
+        <v>0.0339250493096647</v>
       </c>
       <c r="I145" t="n">
-        <v>1.132307692307692</v>
+        <v>1.118131868131868</v>
       </c>
       <c r="J145" t="n">
         <v>1</v>
@@ -6182,29 +6182,29 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>frozenset({'SAP Adaptive Server'})</t>
+          <t>frozenset({'SAP SQL Anywhere'})</t>
         </is>
       </c>
       <c r="C146" t="n">
         <v>0.3384615384615385</v>
       </c>
       <c r="D146" t="n">
-        <v>0.05128205128205128</v>
+        <v>0.05641025641025641</v>
       </c>
       <c r="E146" t="n">
-        <v>0.05128205128205128</v>
+        <v>0.05641025641025641</v>
       </c>
       <c r="F146" t="n">
-        <v>0.1515151515151515</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="G146" t="n">
         <v>2.954545454545454</v>
       </c>
       <c r="H146" t="n">
-        <v>0.0339250493096647</v>
+        <v>0.03731755424063116</v>
       </c>
       <c r="I146" t="n">
-        <v>1.118131868131868</v>
+        <v>1.132307692307692</v>
       </c>
       <c r="J146" t="n">
         <v>1</v>
@@ -6221,29 +6221,29 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>frozenset({'ClickHouse'})</t>
+          <t>frozenset({'IBM DB2'})</t>
         </is>
       </c>
       <c r="C147" t="n">
         <v>0.3384615384615385</v>
       </c>
       <c r="D147" t="n">
-        <v>0.05128205128205128</v>
+        <v>0.09230769230769231</v>
       </c>
       <c r="E147" t="n">
-        <v>0.05128205128205128</v>
+        <v>0.09230769230769231</v>
       </c>
       <c r="F147" t="n">
-        <v>0.1515151515151515</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="G147" t="n">
         <v>2.954545454545454</v>
       </c>
       <c r="H147" t="n">
-        <v>0.0339250493096647</v>
+        <v>0.06106508875739645</v>
       </c>
       <c r="I147" t="n">
-        <v>1.118131868131868</v>
+        <v>1.248076923076923</v>
       </c>
       <c r="J147" t="n">
         <v>1</v>
@@ -6255,25 +6255,25 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
+          <t>frozenset({'IBM DB2'})</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
           <t>frozenset({'SQLite'})</t>
         </is>
       </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>frozenset({'IBM DB2'})</t>
-        </is>
-      </c>
       <c r="C148" t="n">
+        <v>0.09230769230769231</v>
+      </c>
+      <c r="D148" t="n">
         <v>0.1333333333333333</v>
-      </c>
-      <c r="D148" t="n">
-        <v>0.09230769230769231</v>
       </c>
       <c r="E148" t="n">
         <v>0.03589743589743589</v>
       </c>
       <c r="F148" t="n">
-        <v>0.2692307692307692</v>
+        <v>0.3888888888888888</v>
       </c>
       <c r="G148" t="n">
         <v>2.916666666666667</v>
@@ -6282,7 +6282,7 @@
         <v>0.02358974358974359</v>
       </c>
       <c r="I148" t="n">
-        <v>1.242105263157895</v>
+        <v>1.418181818181818</v>
       </c>
       <c r="J148" t="n">
         <v>1</v>
@@ -6294,25 +6294,25 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
+          <t>frozenset({'SQLite'})</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
           <t>frozenset({'IBM DB2'})</t>
         </is>
       </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>frozenset({'SQLite'})</t>
-        </is>
-      </c>
       <c r="C149" t="n">
+        <v>0.1333333333333333</v>
+      </c>
+      <c r="D149" t="n">
         <v>0.09230769230769231</v>
-      </c>
-      <c r="D149" t="n">
-        <v>0.1333333333333333</v>
       </c>
       <c r="E149" t="n">
         <v>0.03589743589743589</v>
       </c>
       <c r="F149" t="n">
-        <v>0.3888888888888888</v>
+        <v>0.2692307692307692</v>
       </c>
       <c r="G149" t="n">
         <v>2.916666666666667</v>
@@ -6321,7 +6321,7 @@
         <v>0.02358974358974359</v>
       </c>
       <c r="I149" t="n">
-        <v>1.418181818181818</v>
+        <v>1.242105263157895</v>
       </c>
       <c r="J149" t="n">
         <v>1</v>
@@ -6333,25 +6333,25 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
+          <t>frozenset({'Oracle'})</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
           <t>frozenset({'MS SQL Server_Microsoft Azure SQL Database'})</t>
         </is>
       </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>frozenset({'Oracle'})</t>
-        </is>
-      </c>
       <c r="C150" t="n">
+        <v>0.2615384615384616</v>
+      </c>
+      <c r="D150" t="n">
         <v>0.1743589743589744</v>
-      </c>
-      <c r="D150" t="n">
-        <v>0.2615384615384616</v>
       </c>
       <c r="E150" t="n">
         <v>0.1230769230769231</v>
       </c>
       <c r="F150" t="n">
-        <v>0.7058823529411765</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="G150" t="n">
         <v>2.698961937716263</v>
@@ -6360,7 +6360,7 @@
         <v>0.07747534516765286</v>
       </c>
       <c r="I150" t="n">
-        <v>2.510769230769231</v>
+        <v>1.559544159544159</v>
       </c>
       <c r="J150" t="n">
         <v>1</v>
@@ -6372,25 +6372,25 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
+          <t>frozenset({'MS SQL Server_Microsoft Azure SQL Database'})</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
           <t>frozenset({'Oracle'})</t>
         </is>
       </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>frozenset({'MS SQL Server_Microsoft Azure SQL Database'})</t>
-        </is>
-      </c>
       <c r="C151" t="n">
+        <v>0.1743589743589744</v>
+      </c>
+      <c r="D151" t="n">
         <v>0.2615384615384616</v>
-      </c>
-      <c r="D151" t="n">
-        <v>0.1743589743589744</v>
       </c>
       <c r="E151" t="n">
         <v>0.1230769230769231</v>
       </c>
       <c r="F151" t="n">
-        <v>0.4705882352941176</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="G151" t="n">
         <v>2.698961937716263</v>
@@ -6399,7 +6399,7 @@
         <v>0.07747534516765286</v>
       </c>
       <c r="I151" t="n">
-        <v>1.559544159544159</v>
+        <v>2.510769230769231</v>
       </c>
       <c r="J151" t="n">
         <v>1</v>
@@ -6411,25 +6411,25 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
+          <t>frozenset({'SAP SQL Anywhere'})</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
           <t>frozenset({'H2'})</t>
         </is>
       </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>frozenset({'SAP SQL Anywhere'})</t>
-        </is>
-      </c>
       <c r="C152" t="n">
+        <v>0.05641025641025641</v>
+      </c>
+      <c r="D152" t="n">
         <v>0.3384615384615385</v>
-      </c>
-      <c r="D152" t="n">
-        <v>0.05641025641025641</v>
       </c>
       <c r="E152" t="n">
         <v>0.05128205128205128</v>
       </c>
       <c r="F152" t="n">
-        <v>0.1515151515151515</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="G152" t="n">
         <v>2.68595041322314</v>
@@ -6438,7 +6438,7 @@
         <v>0.03218934911242603</v>
       </c>
       <c r="I152" t="n">
-        <v>1.112087912087912</v>
+        <v>7.276923076923074</v>
       </c>
       <c r="J152" t="n">
         <v>1</v>
@@ -6450,25 +6450,25 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
+          <t>frozenset({'H2'})</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
           <t>frozenset({'SAP SQL Anywhere'})</t>
         </is>
       </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>frozenset({'H2'})</t>
-        </is>
-      </c>
       <c r="C153" t="n">
+        <v>0.3384615384615385</v>
+      </c>
+      <c r="D153" t="n">
         <v>0.05641025641025641</v>
-      </c>
-      <c r="D153" t="n">
-        <v>0.3384615384615385</v>
       </c>
       <c r="E153" t="n">
         <v>0.05128205128205128</v>
       </c>
       <c r="F153" t="n">
-        <v>0.9090909090909091</v>
+        <v>0.1515151515151515</v>
       </c>
       <c r="G153" t="n">
         <v>2.68595041322314</v>
@@ -6477,7 +6477,7 @@
         <v>0.03218934911242603</v>
       </c>
       <c r="I153" t="n">
-        <v>7.276923076923074</v>
+        <v>1.112087912087912</v>
       </c>
       <c r="J153" t="n">
         <v>1</v>
@@ -6645,25 +6645,25 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
+          <t>frozenset({'Cassandra'})</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
           <t>frozenset({'MS SQL Server_Microsoft Azure SQL Database'})</t>
         </is>
       </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>frozenset({'Cassandra'})</t>
-        </is>
-      </c>
       <c r="C158" t="n">
+        <v>0.05641025641025641</v>
+      </c>
+      <c r="D158" t="n">
         <v>0.1743589743589744</v>
-      </c>
-      <c r="D158" t="n">
-        <v>0.05641025641025641</v>
       </c>
       <c r="E158" t="n">
         <v>0.02564102564102564</v>
       </c>
       <c r="F158" t="n">
-        <v>0.1470588235294118</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="G158" t="n">
         <v>2.606951871657754</v>
@@ -6672,7 +6672,7 @@
         <v>0.01580539119000657</v>
       </c>
       <c r="I158" t="n">
-        <v>1.106277630415561</v>
+        <v>1.513675213675214</v>
       </c>
       <c r="J158" t="n">
         <v>1</v>
@@ -6684,25 +6684,25 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
+          <t>frozenset({'MS SQL Server_Microsoft Azure SQL Database'})</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
           <t>frozenset({'Cassandra'})</t>
         </is>
       </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>frozenset({'MS SQL Server_Microsoft Azure SQL Database'})</t>
-        </is>
-      </c>
       <c r="C159" t="n">
+        <v>0.1743589743589744</v>
+      </c>
+      <c r="D159" t="n">
         <v>0.05641025641025641</v>
-      </c>
-      <c r="D159" t="n">
-        <v>0.1743589743589744</v>
       </c>
       <c r="E159" t="n">
         <v>0.02564102564102564</v>
       </c>
       <c r="F159" t="n">
-        <v>0.4545454545454545</v>
+        <v>0.1470588235294118</v>
       </c>
       <c r="G159" t="n">
         <v>2.606951871657754</v>
@@ -6711,7 +6711,7 @@
         <v>0.01580539119000657</v>
       </c>
       <c r="I159" t="n">
-        <v>1.513675213675214</v>
+        <v>1.106277630415561</v>
       </c>
       <c r="J159" t="n">
         <v>1</v>
@@ -6801,34 +6801,34 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>frozenset({'MS Access'})</t>
+          <t>frozenset({'H2'})</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>frozenset({'H2'})</t>
+          <t>frozenset({'IBM DB2'})</t>
         </is>
       </c>
       <c r="C162" t="n">
-        <v>0.03076923076923077</v>
+        <v>0.3384615384615385</v>
       </c>
       <c r="D162" t="n">
-        <v>0.3384615384615385</v>
+        <v>0.09230769230769231</v>
       </c>
       <c r="E162" t="n">
-        <v>0.02564102564102564</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="F162" t="n">
-        <v>0.8333333333333333</v>
+        <v>0.2272727272727273</v>
       </c>
       <c r="G162" t="n">
         <v>2.462121212121212</v>
       </c>
       <c r="H162" t="n">
-        <v>0.01522682445759369</v>
+        <v>0.04568047337278107</v>
       </c>
       <c r="I162" t="n">
-        <v>3.969230769230768</v>
+        <v>1.174660633484163</v>
       </c>
       <c r="J162" t="n">
         <v>1</v>
@@ -6879,34 +6879,34 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
+          <t>frozenset({'MS Access'})</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
           <t>frozenset({'H2'})</t>
         </is>
       </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>frozenset({'IBM DB2'})</t>
-        </is>
-      </c>
       <c r="C164" t="n">
+        <v>0.03076923076923077</v>
+      </c>
+      <c r="D164" t="n">
         <v>0.3384615384615385</v>
       </c>
-      <c r="D164" t="n">
-        <v>0.09230769230769231</v>
-      </c>
       <c r="E164" t="n">
-        <v>0.07692307692307693</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="F164" t="n">
-        <v>0.2272727272727273</v>
+        <v>0.8333333333333333</v>
       </c>
       <c r="G164" t="n">
         <v>2.462121212121212</v>
       </c>
       <c r="H164" t="n">
-        <v>0.04568047337278107</v>
+        <v>0.01522682445759369</v>
       </c>
       <c r="I164" t="n">
-        <v>1.174660633484163</v>
+        <v>3.969230769230768</v>
       </c>
       <c r="J164" t="n">
         <v>1</v>
@@ -7035,25 +7035,25 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
+          <t>frozenset({'PostgreSQL_ CockroachDB'})</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
           <t>frozenset({'MS SQL Server_Microsoft Azure SQL Database'})</t>
         </is>
       </c>
-      <c r="B168" t="inlineStr">
-        <is>
-          <t>frozenset({'PostgreSQL_ CockroachDB'})</t>
-        </is>
-      </c>
       <c r="C168" t="n">
+        <v>0.3384615384615385</v>
+      </c>
+      <c r="D168" t="n">
         <v>0.1743589743589744</v>
-      </c>
-      <c r="D168" t="n">
-        <v>0.3384615384615385</v>
       </c>
       <c r="E168" t="n">
         <v>0.1435897435897436</v>
       </c>
       <c r="F168" t="n">
-        <v>0.8235294117647058</v>
+        <v>0.4242424242424242</v>
       </c>
       <c r="G168" t="n">
         <v>2.433155080213904</v>
@@ -7062,7 +7062,7 @@
         <v>0.08457593688362919</v>
       </c>
       <c r="I168" t="n">
-        <v>3.748717948717948</v>
+        <v>1.434008097165992</v>
       </c>
       <c r="J168" t="n">
         <v>1</v>
@@ -7074,25 +7074,25 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
+          <t>frozenset({'MS SQL Server_Microsoft Azure SQL Database'})</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
           <t>frozenset({'PostgreSQL_ CockroachDB'})</t>
         </is>
       </c>
-      <c r="B169" t="inlineStr">
-        <is>
-          <t>frozenset({'MS SQL Server_Microsoft Azure SQL Database'})</t>
-        </is>
-      </c>
       <c r="C169" t="n">
+        <v>0.1743589743589744</v>
+      </c>
+      <c r="D169" t="n">
         <v>0.3384615384615385</v>
-      </c>
-      <c r="D169" t="n">
-        <v>0.1743589743589744</v>
       </c>
       <c r="E169" t="n">
         <v>0.1435897435897436</v>
       </c>
       <c r="F169" t="n">
-        <v>0.4242424242424242</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="G169" t="n">
         <v>2.433155080213904</v>
@@ -7101,7 +7101,7 @@
         <v>0.08457593688362919</v>
       </c>
       <c r="I169" t="n">
-        <v>1.434008097165992</v>
+        <v>3.748717948717948</v>
       </c>
       <c r="J169" t="n">
         <v>1</v>
@@ -7113,25 +7113,25 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
+          <t>frozenset({'Cassandra'})</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
           <t>frozenset({'PostgreSQL_ CockroachDB'})</t>
         </is>
       </c>
-      <c r="B170" t="inlineStr">
-        <is>
-          <t>frozenset({'Cassandra'})</t>
-        </is>
-      </c>
       <c r="C170" t="n">
+        <v>0.05641025641025641</v>
+      </c>
+      <c r="D170" t="n">
         <v>0.3384615384615385</v>
-      </c>
-      <c r="D170" t="n">
-        <v>0.05641025641025641</v>
       </c>
       <c r="E170" t="n">
         <v>0.04615384615384616</v>
       </c>
       <c r="F170" t="n">
-        <v>0.1363636363636364</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="G170" t="n">
         <v>2.417355371900826</v>
@@ -7140,7 +7140,7 @@
         <v>0.02706114398422091</v>
       </c>
       <c r="I170" t="n">
-        <v>1.092577597840756</v>
+        <v>3.638461538461539</v>
       </c>
       <c r="J170" t="n">
         <v>1</v>
@@ -7152,25 +7152,25 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
+          <t>frozenset({'PostgreSQL_ CockroachDB'})</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
           <t>frozenset({'Cassandra'})</t>
         </is>
       </c>
-      <c r="B171" t="inlineStr">
-        <is>
-          <t>frozenset({'PostgreSQL_ CockroachDB'})</t>
-        </is>
-      </c>
       <c r="C171" t="n">
+        <v>0.3384615384615385</v>
+      </c>
+      <c r="D171" t="n">
         <v>0.05641025641025641</v>
-      </c>
-      <c r="D171" t="n">
-        <v>0.3384615384615385</v>
       </c>
       <c r="E171" t="n">
         <v>0.04615384615384616</v>
       </c>
       <c r="F171" t="n">
-        <v>0.8181818181818182</v>
+        <v>0.1363636363636364</v>
       </c>
       <c r="G171" t="n">
         <v>2.417355371900826</v>
@@ -7179,7 +7179,7 @@
         <v>0.02706114398422091</v>
       </c>
       <c r="I171" t="n">
-        <v>3.638461538461539</v>
+        <v>1.092577597840756</v>
       </c>
       <c r="J171" t="n">
         <v>1</v>
@@ -7269,25 +7269,25 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
+          <t>frozenset({'MS SQL Server_Microsoft Azure SQL Database'})</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
           <t>frozenset({'HBase'})</t>
         </is>
       </c>
-      <c r="B174" t="inlineStr">
-        <is>
-          <t>frozenset({'MS SQL Server_Microsoft Azure SQL Database'})</t>
-        </is>
-      </c>
       <c r="C174" t="n">
+        <v>0.1743589743589744</v>
+      </c>
+      <c r="D174" t="n">
         <v>0.06153846153846154</v>
-      </c>
-      <c r="D174" t="n">
-        <v>0.1743589743589744</v>
       </c>
       <c r="E174" t="n">
         <v>0.02564102564102564</v>
       </c>
       <c r="F174" t="n">
-        <v>0.4166666666666666</v>
+        <v>0.1470588235294118</v>
       </c>
       <c r="G174" t="n">
         <v>2.389705882352941</v>
@@ -7296,7 +7296,7 @@
         <v>0.01491124260355029</v>
       </c>
       <c r="I174" t="n">
-        <v>1.415384615384615</v>
+        <v>1.10026525198939</v>
       </c>
       <c r="J174" t="n">
         <v>1</v>
@@ -7308,25 +7308,25 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
+          <t>frozenset({'HBase'})</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
           <t>frozenset({'MS SQL Server_Microsoft Azure SQL Database'})</t>
         </is>
       </c>
-      <c r="B175" t="inlineStr">
-        <is>
-          <t>frozenset({'HBase'})</t>
-        </is>
-      </c>
       <c r="C175" t="n">
+        <v>0.06153846153846154</v>
+      </c>
+      <c r="D175" t="n">
         <v>0.1743589743589744</v>
-      </c>
-      <c r="D175" t="n">
-        <v>0.06153846153846154</v>
       </c>
       <c r="E175" t="n">
         <v>0.02564102564102564</v>
       </c>
       <c r="F175" t="n">
-        <v>0.1470588235294118</v>
+        <v>0.4166666666666666</v>
       </c>
       <c r="G175" t="n">
         <v>2.389705882352941</v>
@@ -7335,7 +7335,7 @@
         <v>0.01491124260355029</v>
       </c>
       <c r="I175" t="n">
-        <v>1.10026525198939</v>
+        <v>1.415384615384615</v>
       </c>
       <c r="J175" t="n">
         <v>1</v>
@@ -7586,29 +7586,29 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>frozenset({'SAP SQL Anywhere'})</t>
+          <t>frozenset({'PostGIS'})</t>
         </is>
       </c>
       <c r="C182" t="n">
         <v>0.4358974358974359</v>
       </c>
       <c r="D182" t="n">
-        <v>0.05641025641025641</v>
+        <v>0.03589743589743589</v>
       </c>
       <c r="E182" t="n">
-        <v>0.05641025641025641</v>
+        <v>0.03589743589743589</v>
       </c>
       <c r="F182" t="n">
-        <v>0.1294117647058824</v>
+        <v>0.08235294117647059</v>
       </c>
       <c r="G182" t="n">
         <v>2.294117647058824</v>
       </c>
       <c r="H182" t="n">
-        <v>0.03182117028270874</v>
+        <v>0.02024983563445102</v>
       </c>
       <c r="I182" t="n">
-        <v>1.083853083853084</v>
+        <v>1.050624589086128</v>
       </c>
       <c r="J182" t="n">
         <v>1</v>
@@ -7625,29 +7625,29 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>frozenset({'Informix'})</t>
+          <t>frozenset({'SAP SQL Anywhere'})</t>
         </is>
       </c>
       <c r="C183" t="n">
         <v>0.4358974358974359</v>
       </c>
       <c r="D183" t="n">
-        <v>0.03589743589743589</v>
+        <v>0.05641025641025641</v>
       </c>
       <c r="E183" t="n">
-        <v>0.03589743589743589</v>
+        <v>0.05641025641025641</v>
       </c>
       <c r="F183" t="n">
-        <v>0.08235294117647059</v>
+        <v>0.1294117647058824</v>
       </c>
       <c r="G183" t="n">
         <v>2.294117647058824</v>
       </c>
       <c r="H183" t="n">
-        <v>0.02024983563445102</v>
+        <v>0.03182117028270874</v>
       </c>
       <c r="I183" t="n">
-        <v>1.050624589086128</v>
+        <v>1.083853083853084</v>
       </c>
       <c r="J183" t="n">
         <v>1</v>
@@ -7664,7 +7664,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>frozenset({'PostGIS'})</t>
+          <t>frozenset({'Informix'})</t>
         </is>
       </c>
       <c r="C184" t="n">
@@ -7698,7 +7698,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>frozenset({'PostGIS'})</t>
+          <t>frozenset({'Informix'})</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -7739,7 +7739,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>frozenset({'ClickHouse'})</t>
+          <t>frozenset({'Firebird'})</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -7748,13 +7748,13 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>0.05128205128205128</v>
+        <v>0.03076923076923077</v>
       </c>
       <c r="D186" t="n">
         <v>0.4358974358974359</v>
       </c>
       <c r="E186" t="n">
-        <v>0.05128205128205128</v>
+        <v>0.03076923076923077</v>
       </c>
       <c r="F186" t="n">
         <v>1</v>
@@ -7763,7 +7763,7 @@
         <v>2.294117647058823</v>
       </c>
       <c r="H186" t="n">
-        <v>0.02892833662064431</v>
+        <v>0.01735700197238659</v>
       </c>
       <c r="I186" t="inlineStr">
         <is>
@@ -7780,36 +7780,34 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>frozenset({'Influx DB'})</t>
+          <t>frozenset({'MySQL_Maria DB'})</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>frozenset({'MySQL_Maria DB'})</t>
+          <t>frozenset({'Firebird'})</t>
         </is>
       </c>
       <c r="C187" t="n">
-        <v>0.02564102564102564</v>
+        <v>0.4358974358974359</v>
       </c>
       <c r="D187" t="n">
-        <v>0.4358974358974359</v>
+        <v>0.03076923076923077</v>
       </c>
       <c r="E187" t="n">
-        <v>0.02564102564102564</v>
+        <v>0.03076923076923077</v>
       </c>
       <c r="F187" t="n">
-        <v>1</v>
+        <v>0.07058823529411765</v>
       </c>
       <c r="G187" t="n">
         <v>2.294117647058823</v>
       </c>
       <c r="H187" t="n">
-        <v>0.01446416831032216</v>
-      </c>
-      <c r="I187" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>0.01735700197238659</v>
+      </c>
+      <c r="I187" t="n">
+        <v>1.04284323271665</v>
       </c>
       <c r="J187" t="n">
         <v>1</v>
@@ -7901,36 +7899,34 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>frozenset({'Firebird'})</t>
+          <t>frozenset({'MySQL_Maria DB'})</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>frozenset({'MySQL_Maria DB'})</t>
+          <t>frozenset({'SAP Adaptive Server'})</t>
         </is>
       </c>
       <c r="C190" t="n">
-        <v>0.03076923076923077</v>
+        <v>0.4358974358974359</v>
       </c>
       <c r="D190" t="n">
-        <v>0.4358974358974359</v>
+        <v>0.05128205128205128</v>
       </c>
       <c r="E190" t="n">
-        <v>0.03076923076923077</v>
+        <v>0.05128205128205128</v>
       </c>
       <c r="F190" t="n">
-        <v>1</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="G190" t="n">
         <v>2.294117647058823</v>
       </c>
       <c r="H190" t="n">
-        <v>0.01735700197238659</v>
-      </c>
-      <c r="I190" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>0.02892833662064431</v>
+      </c>
+      <c r="I190" t="n">
+        <v>1.075213675213675</v>
       </c>
       <c r="J190" t="n">
         <v>1</v>
@@ -7942,34 +7938,36 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
+          <t>frozenset({'PostGIS'})</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
           <t>frozenset({'MySQL_Maria DB'})</t>
         </is>
       </c>
-      <c r="B191" t="inlineStr">
-        <is>
-          <t>frozenset({'Firebird'})</t>
-        </is>
-      </c>
       <c r="C191" t="n">
+        <v>0.03589743589743589</v>
+      </c>
+      <c r="D191" t="n">
         <v>0.4358974358974359</v>
       </c>
-      <c r="D191" t="n">
-        <v>0.03076923076923077</v>
-      </c>
       <c r="E191" t="n">
-        <v>0.03076923076923077</v>
+        <v>0.03589743589743589</v>
       </c>
       <c r="F191" t="n">
-        <v>0.07058823529411765</v>
+        <v>1</v>
       </c>
       <c r="G191" t="n">
         <v>2.294117647058823</v>
       </c>
       <c r="H191" t="n">
-        <v>0.01735700197238659</v>
-      </c>
-      <c r="I191" t="n">
-        <v>1.04284323271665</v>
+        <v>0.02024983563445102</v>
+      </c>
+      <c r="I191" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="J191" t="n">
         <v>1</v>
@@ -7981,7 +7979,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>frozenset({'Informix'})</t>
+          <t>frozenset({'ClickHouse'})</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -7990,13 +7988,13 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>0.03589743589743589</v>
+        <v>0.05128205128205128</v>
       </c>
       <c r="D192" t="n">
         <v>0.4358974358974359</v>
       </c>
       <c r="E192" t="n">
-        <v>0.03589743589743589</v>
+        <v>0.05128205128205128</v>
       </c>
       <c r="F192" t="n">
         <v>1</v>
@@ -8005,7 +8003,7 @@
         <v>2.294117647058823</v>
       </c>
       <c r="H192" t="n">
-        <v>0.02024983563445102</v>
+        <v>0.02892833662064431</v>
       </c>
       <c r="I192" t="inlineStr">
         <is>
@@ -8027,29 +8025,29 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>frozenset({'Influx DB'})</t>
+          <t>frozenset({'ClickHouse'})</t>
         </is>
       </c>
       <c r="C193" t="n">
         <v>0.4358974358974359</v>
       </c>
       <c r="D193" t="n">
-        <v>0.02564102564102564</v>
+        <v>0.05128205128205128</v>
       </c>
       <c r="E193" t="n">
-        <v>0.02564102564102564</v>
+        <v>0.05128205128205128</v>
       </c>
       <c r="F193" t="n">
-        <v>0.05882352941176471</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="G193" t="n">
         <v>2.294117647058823</v>
       </c>
       <c r="H193" t="n">
-        <v>0.01446416831032216</v>
+        <v>0.02892833662064431</v>
       </c>
       <c r="I193" t="n">
-        <v>1.03525641025641</v>
+        <v>1.075213675213675</v>
       </c>
       <c r="J193" t="n">
         <v>1</v>
@@ -8061,34 +8059,36 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
+          <t>frozenset({'SAP Adaptive Server'})</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
           <t>frozenset({'MySQL_Maria DB'})</t>
         </is>
       </c>
-      <c r="B194" t="inlineStr">
-        <is>
-          <t>frozenset({'Snowflake'})</t>
-        </is>
-      </c>
       <c r="C194" t="n">
+        <v>0.05128205128205128</v>
+      </c>
+      <c r="D194" t="n">
         <v>0.4358974358974359</v>
       </c>
-      <c r="D194" t="n">
-        <v>0.04615384615384616</v>
-      </c>
       <c r="E194" t="n">
-        <v>0.04615384615384616</v>
+        <v>0.05128205128205128</v>
       </c>
       <c r="F194" t="n">
-        <v>0.1058823529411765</v>
+        <v>1</v>
       </c>
       <c r="G194" t="n">
         <v>2.294117647058823</v>
       </c>
       <c r="H194" t="n">
-        <v>0.02603550295857988</v>
-      </c>
-      <c r="I194" t="n">
-        <v>1.066801619433198</v>
+        <v>0.02892833662064431</v>
+      </c>
+      <c r="I194" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="J194" t="n">
         <v>1</v>
@@ -8100,34 +8100,36 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
+          <t>frozenset({'MS Access'})</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
           <t>frozenset({'MySQL_Maria DB'})</t>
         </is>
       </c>
-      <c r="B195" t="inlineStr">
-        <is>
-          <t>frozenset({'ClickHouse'})</t>
-        </is>
-      </c>
       <c r="C195" t="n">
+        <v>0.03076923076923077</v>
+      </c>
+      <c r="D195" t="n">
         <v>0.4358974358974359</v>
       </c>
-      <c r="D195" t="n">
-        <v>0.05128205128205128</v>
-      </c>
       <c r="E195" t="n">
-        <v>0.05128205128205128</v>
+        <v>0.03076923076923077</v>
       </c>
       <c r="F195" t="n">
-        <v>0.1176470588235294</v>
+        <v>1</v>
       </c>
       <c r="G195" t="n">
         <v>2.294117647058823</v>
       </c>
       <c r="H195" t="n">
-        <v>0.02892833662064431</v>
-      </c>
-      <c r="I195" t="n">
-        <v>1.075213675213675</v>
+        <v>0.01735700197238659</v>
+      </c>
+      <c r="I195" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="J195" t="n">
         <v>1</v>
@@ -8180,36 +8182,34 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>frozenset({'SAP SQL Anywhere'})</t>
+          <t>frozenset({'MySQL_Maria DB'})</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>frozenset({'MySQL_Maria DB'})</t>
+          <t>frozenset({'MS Access'})</t>
         </is>
       </c>
       <c r="C197" t="n">
-        <v>0.05641025641025641</v>
+        <v>0.4358974358974359</v>
       </c>
       <c r="D197" t="n">
-        <v>0.4358974358974359</v>
+        <v>0.03076923076923077</v>
       </c>
       <c r="E197" t="n">
-        <v>0.05641025641025641</v>
+        <v>0.03076923076923077</v>
       </c>
       <c r="F197" t="n">
-        <v>1</v>
+        <v>0.07058823529411765</v>
       </c>
       <c r="G197" t="n">
         <v>2.294117647058823</v>
       </c>
       <c r="H197" t="n">
-        <v>0.03182117028270874</v>
-      </c>
-      <c r="I197" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>0.01735700197238659</v>
+      </c>
+      <c r="I197" t="n">
+        <v>1.04284323271665</v>
       </c>
       <c r="J197" t="n">
         <v>1</v>
@@ -8221,34 +8221,36 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
+          <t>frozenset({'SAP SQL Anywhere'})</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
           <t>frozenset({'MySQL_Maria DB'})</t>
         </is>
       </c>
-      <c r="B198" t="inlineStr">
-        <is>
-          <t>frozenset({'MS Access'})</t>
-        </is>
-      </c>
       <c r="C198" t="n">
+        <v>0.05641025641025641</v>
+      </c>
+      <c r="D198" t="n">
         <v>0.4358974358974359</v>
       </c>
-      <c r="D198" t="n">
-        <v>0.03076923076923077</v>
-      </c>
       <c r="E198" t="n">
-        <v>0.03076923076923077</v>
+        <v>0.05641025641025641</v>
       </c>
       <c r="F198" t="n">
-        <v>0.07058823529411765</v>
+        <v>1</v>
       </c>
       <c r="G198" t="n">
         <v>2.294117647058823</v>
       </c>
       <c r="H198" t="n">
-        <v>0.01735700197238659</v>
-      </c>
-      <c r="I198" t="n">
-        <v>1.04284323271665</v>
+        <v>0.03182117028270874</v>
+      </c>
+      <c r="I198" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="J198" t="n">
         <v>1</v>
@@ -8260,36 +8262,34 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>frozenset({'MS Access'})</t>
+          <t>frozenset({'MySQL_Maria DB'})</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>frozenset({'MySQL_Maria DB'})</t>
+          <t>frozenset({'Snowflake'})</t>
         </is>
       </c>
       <c r="C199" t="n">
-        <v>0.03076923076923077</v>
+        <v>0.4358974358974359</v>
       </c>
       <c r="D199" t="n">
-        <v>0.4358974358974359</v>
+        <v>0.04615384615384616</v>
       </c>
       <c r="E199" t="n">
-        <v>0.03076923076923077</v>
+        <v>0.04615384615384616</v>
       </c>
       <c r="F199" t="n">
-        <v>1</v>
+        <v>0.1058823529411765</v>
       </c>
       <c r="G199" t="n">
         <v>2.294117647058823</v>
       </c>
       <c r="H199" t="n">
-        <v>0.01735700197238659</v>
-      </c>
-      <c r="I199" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>0.02603550295857988</v>
+      </c>
+      <c r="I199" t="n">
+        <v>1.066801619433198</v>
       </c>
       <c r="J199" t="n">
         <v>1</v>
@@ -8306,29 +8306,29 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>frozenset({'SAP Adaptive Server'})</t>
+          <t>frozenset({'Influx DB'})</t>
         </is>
       </c>
       <c r="C200" t="n">
         <v>0.4358974358974359</v>
       </c>
       <c r="D200" t="n">
-        <v>0.05128205128205128</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="E200" t="n">
-        <v>0.05128205128205128</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="F200" t="n">
-        <v>0.1176470588235294</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="G200" t="n">
         <v>2.294117647058823</v>
       </c>
       <c r="H200" t="n">
-        <v>0.02892833662064431</v>
+        <v>0.01446416831032216</v>
       </c>
       <c r="I200" t="n">
-        <v>1.075213675213675</v>
+        <v>1.03525641025641</v>
       </c>
       <c r="J200" t="n">
         <v>1</v>
@@ -8340,7 +8340,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>frozenset({'SAP Adaptive Server'})</t>
+          <t>frozenset({'Influx DB'})</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -8349,13 +8349,13 @@
         </is>
       </c>
       <c r="C201" t="n">
-        <v>0.05128205128205128</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="D201" t="n">
         <v>0.4358974358974359</v>
       </c>
       <c r="E201" t="n">
-        <v>0.05128205128205128</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="F201" t="n">
         <v>1</v>
@@ -8364,7 +8364,7 @@
         <v>2.294117647058823</v>
       </c>
       <c r="H201" t="n">
-        <v>0.02892833662064431</v>
+        <v>0.01446416831032216</v>
       </c>
       <c r="I201" t="inlineStr">
         <is>
@@ -8381,25 +8381,25 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
+          <t>frozenset({'MongoDB'})</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
           <t>frozenset({'MS SQL Server_Microsoft Azure SQL Database'})</t>
         </is>
       </c>
-      <c r="B202" t="inlineStr">
-        <is>
-          <t>frozenset({'MongoDB'})</t>
-        </is>
-      </c>
       <c r="C202" t="n">
+        <v>0.1435897435897436</v>
+      </c>
+      <c r="D202" t="n">
         <v>0.1743589743589744</v>
-      </c>
-      <c r="D202" t="n">
-        <v>0.1435897435897436</v>
       </c>
       <c r="E202" t="n">
         <v>0.05641025641025641</v>
       </c>
       <c r="F202" t="n">
-        <v>0.3235294117647059</v>
+        <v>0.3928571428571429</v>
       </c>
       <c r="G202" t="n">
         <v>2.253151260504202</v>
@@ -8408,7 +8408,7 @@
         <v>0.03137409598948061</v>
       </c>
       <c r="I202" t="n">
-        <v>1.265997770345596</v>
+        <v>1.359879336349925</v>
       </c>
       <c r="J202" t="n">
         <v>1</v>
@@ -8420,25 +8420,25 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
+          <t>frozenset({'MS SQL Server_Microsoft Azure SQL Database'})</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
           <t>frozenset({'MongoDB'})</t>
         </is>
       </c>
-      <c r="B203" t="inlineStr">
-        <is>
-          <t>frozenset({'MS SQL Server_Microsoft Azure SQL Database'})</t>
-        </is>
-      </c>
       <c r="C203" t="n">
+        <v>0.1743589743589744</v>
+      </c>
+      <c r="D203" t="n">
         <v>0.1435897435897436</v>
-      </c>
-      <c r="D203" t="n">
-        <v>0.1743589743589744</v>
       </c>
       <c r="E203" t="n">
         <v>0.05641025641025641</v>
       </c>
       <c r="F203" t="n">
-        <v>0.3928571428571429</v>
+        <v>0.3235294117647059</v>
       </c>
       <c r="G203" t="n">
         <v>2.253151260504202</v>
@@ -8447,7 +8447,7 @@
         <v>0.03137409598948061</v>
       </c>
       <c r="I203" t="n">
-        <v>1.359879336349925</v>
+        <v>1.265997770345596</v>
       </c>
       <c r="J203" t="n">
         <v>1</v>
@@ -8459,25 +8459,25 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
+          <t>frozenset({'MS SQL Server_Microsoft Azure SQL Database'})</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
           <t>frozenset({'DynamoDB'})</t>
         </is>
       </c>
-      <c r="B204" t="inlineStr">
-        <is>
-          <t>frozenset({'MS SQL Server_Microsoft Azure SQL Database'})</t>
-        </is>
-      </c>
       <c r="C204" t="n">
+        <v>0.1743589743589744</v>
+      </c>
+      <c r="D204" t="n">
         <v>0.09230769230769231</v>
-      </c>
-      <c r="D204" t="n">
-        <v>0.1743589743589744</v>
       </c>
       <c r="E204" t="n">
         <v>0.03589743589743589</v>
       </c>
       <c r="F204" t="n">
-        <v>0.3888888888888888</v>
+        <v>0.2058823529411765</v>
       </c>
       <c r="G204" t="n">
         <v>2.230392156862745</v>
@@ -8486,7 +8486,7 @@
         <v>0.01980276134122288</v>
       </c>
       <c r="I204" t="n">
-        <v>1.351048951048951</v>
+        <v>1.143019943019943</v>
       </c>
       <c r="J204" t="n">
         <v>1</v>
@@ -8498,25 +8498,25 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
+          <t>frozenset({'DynamoDB'})</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
           <t>frozenset({'MS SQL Server_Microsoft Azure SQL Database'})</t>
         </is>
       </c>
-      <c r="B205" t="inlineStr">
-        <is>
-          <t>frozenset({'DynamoDB'})</t>
-        </is>
-      </c>
       <c r="C205" t="n">
+        <v>0.09230769230769231</v>
+      </c>
+      <c r="D205" t="n">
         <v>0.1743589743589744</v>
-      </c>
-      <c r="D205" t="n">
-        <v>0.09230769230769231</v>
       </c>
       <c r="E205" t="n">
         <v>0.03589743589743589</v>
       </c>
       <c r="F205" t="n">
-        <v>0.2058823529411765</v>
+        <v>0.3888888888888888</v>
       </c>
       <c r="G205" t="n">
         <v>2.230392156862745</v>
@@ -8525,7 +8525,7 @@
         <v>0.01980276134122288</v>
       </c>
       <c r="I205" t="n">
-        <v>1.143019943019943</v>
+        <v>1.351048951048951</v>
       </c>
       <c r="J205" t="n">
         <v>1</v>
@@ -8693,25 +8693,25 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
+          <t>frozenset({'MongoDB'})</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
           <t>frozenset({'Redis'})</t>
         </is>
       </c>
-      <c r="B210" t="inlineStr">
-        <is>
-          <t>frozenset({'MongoDB'})</t>
-        </is>
-      </c>
       <c r="C210" t="n">
+        <v>0.1435897435897436</v>
+      </c>
+      <c r="D210" t="n">
         <v>0.3025641025641025</v>
-      </c>
-      <c r="D210" t="n">
-        <v>0.1435897435897436</v>
       </c>
       <c r="E210" t="n">
         <v>0.09230769230769231</v>
       </c>
       <c r="F210" t="n">
-        <v>0.3050847457627119</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="G210" t="n">
         <v>2.124697336561744</v>
@@ -8720,7 +8720,7 @@
         <v>0.04886259040105195</v>
       </c>
       <c r="I210" t="n">
-        <v>1.232395247029394</v>
+        <v>1.952820512820513</v>
       </c>
       <c r="J210" t="n">
         <v>1</v>
@@ -8732,25 +8732,25 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
+          <t>frozenset({'Redis'})</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
           <t>frozenset({'MongoDB'})</t>
         </is>
       </c>
-      <c r="B211" t="inlineStr">
-        <is>
-          <t>frozenset({'Redis'})</t>
-        </is>
-      </c>
       <c r="C211" t="n">
+        <v>0.3025641025641025</v>
+      </c>
+      <c r="D211" t="n">
         <v>0.1435897435897436</v>
-      </c>
-      <c r="D211" t="n">
-        <v>0.3025641025641025</v>
       </c>
       <c r="E211" t="n">
         <v>0.09230769230769231</v>
       </c>
       <c r="F211" t="n">
-        <v>0.6428571428571429</v>
+        <v>0.3050847457627119</v>
       </c>
       <c r="G211" t="n">
         <v>2.124697336561744</v>
@@ -8759,7 +8759,7 @@
         <v>0.04886259040105195</v>
       </c>
       <c r="I211" t="n">
-        <v>1.952820512820513</v>
+        <v>1.232395247029394</v>
       </c>
       <c r="J211" t="n">
         <v>1</v>
@@ -8771,25 +8771,25 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
+          <t>frozenset({'MySQL_Maria DB'})</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
           <t>frozenset({'HBase'})</t>
         </is>
       </c>
-      <c r="B212" t="inlineStr">
-        <is>
-          <t>frozenset({'MySQL_Maria DB'})</t>
-        </is>
-      </c>
       <c r="C212" t="n">
+        <v>0.4358974358974359</v>
+      </c>
+      <c r="D212" t="n">
         <v>0.06153846153846154</v>
-      </c>
-      <c r="D212" t="n">
-        <v>0.4358974358974359</v>
       </c>
       <c r="E212" t="n">
         <v>0.05641025641025641</v>
       </c>
       <c r="F212" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.1294117647058824</v>
       </c>
       <c r="G212" t="n">
         <v>2.102941176470588</v>
@@ -8798,7 +8798,7 @@
         <v>0.02958579881656805</v>
       </c>
       <c r="I212" t="n">
-        <v>6.769230769230766</v>
+        <v>1.077962577962578</v>
       </c>
       <c r="J212" t="n">
         <v>1</v>
@@ -8810,25 +8810,25 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
+          <t>frozenset({'HBase'})</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
           <t>frozenset({'MySQL_Maria DB'})</t>
         </is>
       </c>
-      <c r="B213" t="inlineStr">
-        <is>
-          <t>frozenset({'HBase'})</t>
-        </is>
-      </c>
       <c r="C213" t="n">
+        <v>0.06153846153846154</v>
+      </c>
+      <c r="D213" t="n">
         <v>0.4358974358974359</v>
-      </c>
-      <c r="D213" t="n">
-        <v>0.06153846153846154</v>
       </c>
       <c r="E213" t="n">
         <v>0.05641025641025641</v>
       </c>
       <c r="F213" t="n">
-        <v>0.1294117647058824</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="G213" t="n">
         <v>2.102941176470588</v>
@@ -8837,7 +8837,7 @@
         <v>0.02958579881656805</v>
       </c>
       <c r="I213" t="n">
-        <v>1.077962577962578</v>
+        <v>6.769230769230766</v>
       </c>
       <c r="J213" t="n">
         <v>1</v>
@@ -8849,25 +8849,25 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
+          <t>frozenset({'MySQL_Maria DB'})</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
           <t>frozenset({'MS SQL Server_Microsoft Azure SQL Database'})</t>
         </is>
       </c>
-      <c r="B214" t="inlineStr">
-        <is>
-          <t>frozenset({'MySQL_Maria DB'})</t>
-        </is>
-      </c>
       <c r="C214" t="n">
+        <v>0.4358974358974359</v>
+      </c>
+      <c r="D214" t="n">
         <v>0.1743589743589744</v>
-      </c>
-      <c r="D214" t="n">
-        <v>0.4358974358974359</v>
       </c>
       <c r="E214" t="n">
         <v>0.158974358974359</v>
       </c>
       <c r="F214" t="n">
-        <v>0.9117647058823529</v>
+        <v>0.3647058823529412</v>
       </c>
       <c r="G214" t="n">
         <v>2.091695501730104</v>
@@ -8876,7 +8876,7 @@
         <v>0.08297172912557527</v>
       </c>
       <c r="I214" t="n">
-        <v>6.393162393162392</v>
+        <v>1.299620132953466</v>
       </c>
       <c r="J214" t="n">
         <v>1</v>
@@ -8888,25 +8888,25 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
+          <t>frozenset({'MS SQL Server_Microsoft Azure SQL Database'})</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
           <t>frozenset({'MySQL_Maria DB'})</t>
         </is>
       </c>
-      <c r="B215" t="inlineStr">
-        <is>
-          <t>frozenset({'MS SQL Server_Microsoft Azure SQL Database'})</t>
-        </is>
-      </c>
       <c r="C215" t="n">
+        <v>0.1743589743589744</v>
+      </c>
+      <c r="D215" t="n">
         <v>0.4358974358974359</v>
-      </c>
-      <c r="D215" t="n">
-        <v>0.1743589743589744</v>
       </c>
       <c r="E215" t="n">
         <v>0.158974358974359</v>
       </c>
       <c r="F215" t="n">
-        <v>0.3647058823529412</v>
+        <v>0.9117647058823529</v>
       </c>
       <c r="G215" t="n">
         <v>2.091695501730104</v>
@@ -8915,7 +8915,7 @@
         <v>0.08297172912557527</v>
       </c>
       <c r="I215" t="n">
-        <v>1.299620132953466</v>
+        <v>6.393162393162392</v>
       </c>
       <c r="J215" t="n">
         <v>1</v>
@@ -8966,34 +8966,34 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>frozenset({'PostgreSQL_ CockroachDB'})</t>
+          <t>frozenset({'Oracle'})</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>frozenset({'Oracle'})</t>
+          <t>frozenset({'Cassandra'})</t>
         </is>
       </c>
       <c r="C217" t="n">
-        <v>0.3384615384615385</v>
+        <v>0.2615384615384616</v>
       </c>
       <c r="D217" t="n">
-        <v>0.2615384615384616</v>
+        <v>0.05641025641025641</v>
       </c>
       <c r="E217" t="n">
-        <v>0.1846153846153846</v>
+        <v>0.03076923076923077</v>
       </c>
       <c r="F217" t="n">
-        <v>0.5454545454545454</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="G217" t="n">
         <v>2.085561497326203</v>
       </c>
       <c r="H217" t="n">
-        <v>0.09609467455621303</v>
+        <v>0.01601577909270217</v>
       </c>
       <c r="I217" t="n">
-        <v>1.624615384615385</v>
+        <v>1.069401709401709</v>
       </c>
       <c r="J217" t="n">
         <v>1</v>
@@ -9005,34 +9005,34 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
+          <t>frozenset({'PostgreSQL_ CockroachDB'})</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
           <t>frozenset({'Oracle'})</t>
         </is>
       </c>
-      <c r="B218" t="inlineStr">
-        <is>
-          <t>frozenset({'Cassandra'})</t>
-        </is>
-      </c>
       <c r="C218" t="n">
+        <v>0.3384615384615385</v>
+      </c>
+      <c r="D218" t="n">
         <v>0.2615384615384616</v>
       </c>
-      <c r="D218" t="n">
-        <v>0.05641025641025641</v>
-      </c>
       <c r="E218" t="n">
-        <v>0.03076923076923077</v>
+        <v>0.1846153846153846</v>
       </c>
       <c r="F218" t="n">
-        <v>0.1176470588235294</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="G218" t="n">
         <v>2.085561497326203</v>
       </c>
       <c r="H218" t="n">
-        <v>0.01601577909270217</v>
+        <v>0.09609467455621303</v>
       </c>
       <c r="I218" t="n">
-        <v>1.069401709401709</v>
+        <v>1.624615384615385</v>
       </c>
       <c r="J218" t="n">
         <v>1</v>
@@ -9083,25 +9083,25 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
+          <t>frozenset({'ClickHouse'})</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
           <t>frozenset({'H2'})</t>
         </is>
       </c>
-      <c r="B220" t="inlineStr">
-        <is>
-          <t>frozenset({'ClickHouse'})</t>
-        </is>
-      </c>
       <c r="C220" t="n">
+        <v>0.05128205128205128</v>
+      </c>
+      <c r="D220" t="n">
         <v>0.3384615384615385</v>
-      </c>
-      <c r="D220" t="n">
-        <v>0.05128205128205128</v>
       </c>
       <c r="E220" t="n">
         <v>0.03589743589743589</v>
       </c>
       <c r="F220" t="n">
-        <v>0.106060606060606</v>
+        <v>0.7</v>
       </c>
       <c r="G220" t="n">
         <v>2.068181818181818</v>
@@ -9110,7 +9110,7 @@
         <v>0.01854043392504931</v>
       </c>
       <c r="I220" t="n">
-        <v>1.061277705345502</v>
+        <v>2.205128205128205</v>
       </c>
       <c r="J220" t="n">
         <v>1</v>
@@ -9122,25 +9122,25 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
+          <t>frozenset({'H2'})</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
           <t>frozenset({'ClickHouse'})</t>
         </is>
       </c>
-      <c r="B221" t="inlineStr">
-        <is>
-          <t>frozenset({'H2'})</t>
-        </is>
-      </c>
       <c r="C221" t="n">
+        <v>0.3384615384615385</v>
+      </c>
+      <c r="D221" t="n">
         <v>0.05128205128205128</v>
-      </c>
-      <c r="D221" t="n">
-        <v>0.3384615384615385</v>
       </c>
       <c r="E221" t="n">
         <v>0.03589743589743589</v>
       </c>
       <c r="F221" t="n">
-        <v>0.7</v>
+        <v>0.106060606060606</v>
       </c>
       <c r="G221" t="n">
         <v>2.068181818181818</v>
@@ -9149,7 +9149,7 @@
         <v>0.01854043392504931</v>
       </c>
       <c r="I221" t="n">
-        <v>2.205128205128205</v>
+        <v>1.061277705345502</v>
       </c>
       <c r="J221" t="n">
         <v>1</v>
@@ -9512,22 +9512,22 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>frozenset({'Snowflake'})</t>
+          <t>frozenset({'HBase'})</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>frozenset({'H2'})</t>
+          <t>frozenset({'PostgreSQL_ CockroachDB'})</t>
         </is>
       </c>
       <c r="C231" t="n">
-        <v>0.04615384615384616</v>
+        <v>0.06153846153846154</v>
       </c>
       <c r="D231" t="n">
         <v>0.3384615384615385</v>
       </c>
       <c r="E231" t="n">
-        <v>0.03076923076923077</v>
+        <v>0.04102564102564103</v>
       </c>
       <c r="F231" t="n">
         <v>0.6666666666666666</v>
@@ -9536,7 +9536,7 @@
         <v>1.96969696969697</v>
       </c>
       <c r="H231" t="n">
-        <v>0.01514792899408284</v>
+        <v>0.02019723865877712</v>
       </c>
       <c r="I231" t="n">
         <v>1.984615384615384</v>
@@ -9551,25 +9551,25 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
+          <t>frozenset({'PostgreSQL_ CockroachDB'})</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
           <t>frozenset({'HBase'})</t>
         </is>
       </c>
-      <c r="B232" t="inlineStr">
-        <is>
-          <t>frozenset({'PostgreSQL_ CockroachDB'})</t>
-        </is>
-      </c>
       <c r="C232" t="n">
+        <v>0.3384615384615385</v>
+      </c>
+      <c r="D232" t="n">
         <v>0.06153846153846154</v>
-      </c>
-      <c r="D232" t="n">
-        <v>0.3384615384615385</v>
       </c>
       <c r="E232" t="n">
         <v>0.04102564102564103</v>
       </c>
       <c r="F232" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.1212121212121212</v>
       </c>
       <c r="G232" t="n">
         <v>1.96969696969697</v>
@@ -9578,7 +9578,7 @@
         <v>0.02019723865877712</v>
       </c>
       <c r="I232" t="n">
-        <v>1.984615384615384</v>
+        <v>1.06790450928382</v>
       </c>
       <c r="J232" t="n">
         <v>1</v>
@@ -9590,34 +9590,34 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>frozenset({'PostgreSQL_ CockroachDB'})</t>
+          <t>frozenset({'Snowflake'})</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>frozenset({'HBase'})</t>
+          <t>frozenset({'H2'})</t>
         </is>
       </c>
       <c r="C233" t="n">
+        <v>0.04615384615384616</v>
+      </c>
+      <c r="D233" t="n">
         <v>0.3384615384615385</v>
       </c>
-      <c r="D233" t="n">
-        <v>0.06153846153846154</v>
-      </c>
       <c r="E233" t="n">
-        <v>0.04102564102564103</v>
+        <v>0.03076923076923077</v>
       </c>
       <c r="F233" t="n">
-        <v>0.1212121212121212</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G233" t="n">
         <v>1.96969696969697</v>
       </c>
       <c r="H233" t="n">
-        <v>0.02019723865877712</v>
+        <v>0.01514792899408284</v>
       </c>
       <c r="I233" t="n">
-        <v>1.06790450928382</v>
+        <v>1.984615384615384</v>
       </c>
       <c r="J233" t="n">
         <v>1</v>
@@ -9941,25 +9941,25 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
+          <t>frozenset({'Oracle'})</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
           <t>frozenset({'MongoDB'})</t>
         </is>
       </c>
-      <c r="B242" t="inlineStr">
-        <is>
-          <t>frozenset({'Oracle'})</t>
-        </is>
-      </c>
       <c r="C242" t="n">
+        <v>0.2615384615384616</v>
+      </c>
+      <c r="D242" t="n">
         <v>0.1435897435897436</v>
-      </c>
-      <c r="D242" t="n">
-        <v>0.2615384615384616</v>
       </c>
       <c r="E242" t="n">
         <v>0.07179487179487179</v>
       </c>
       <c r="F242" t="n">
-        <v>0.5</v>
+        <v>0.2745098039215686</v>
       </c>
       <c r="G242" t="n">
         <v>1.911764705882353</v>
@@ -9968,7 +9968,7 @@
         <v>0.03424063116370808</v>
       </c>
       <c r="I242" t="n">
-        <v>1.476923076923077</v>
+        <v>1.18045738045738</v>
       </c>
       <c r="J242" t="n">
         <v>1</v>
@@ -9980,25 +9980,25 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
+          <t>frozenset({'MongoDB'})</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
           <t>frozenset({'Oracle'})</t>
         </is>
       </c>
-      <c r="B243" t="inlineStr">
-        <is>
-          <t>frozenset({'MongoDB'})</t>
-        </is>
-      </c>
       <c r="C243" t="n">
+        <v>0.1435897435897436</v>
+      </c>
+      <c r="D243" t="n">
         <v>0.2615384615384616</v>
-      </c>
-      <c r="D243" t="n">
-        <v>0.1435897435897436</v>
       </c>
       <c r="E243" t="n">
         <v>0.07179487179487179</v>
       </c>
       <c r="F243" t="n">
-        <v>0.2745098039215686</v>
+        <v>0.5</v>
       </c>
       <c r="G243" t="n">
         <v>1.911764705882353</v>
@@ -10007,7 +10007,7 @@
         <v>0.03424063116370808</v>
       </c>
       <c r="I243" t="n">
-        <v>1.18045738045738</v>
+        <v>1.476923076923077</v>
       </c>
       <c r="J243" t="n">
         <v>1</v>
@@ -10019,25 +10019,25 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
+          <t>frozenset({'MongoDB'})</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
           <t>frozenset({'H2'})</t>
         </is>
       </c>
-      <c r="B244" t="inlineStr">
-        <is>
-          <t>frozenset({'MongoDB'})</t>
-        </is>
-      </c>
       <c r="C244" t="n">
+        <v>0.1435897435897436</v>
+      </c>
+      <c r="D244" t="n">
         <v>0.3384615384615385</v>
-      </c>
-      <c r="D244" t="n">
-        <v>0.1435897435897436</v>
       </c>
       <c r="E244" t="n">
         <v>0.09230769230769231</v>
       </c>
       <c r="F244" t="n">
-        <v>0.2727272727272727</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="G244" t="n">
         <v>1.899350649350649</v>
@@ -10046,7 +10046,7 @@
         <v>0.04370808678500987</v>
       </c>
       <c r="I244" t="n">
-        <v>1.177564102564103</v>
+        <v>1.852307692307692</v>
       </c>
       <c r="J244" t="n">
         <v>1</v>
@@ -10058,25 +10058,25 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
+          <t>frozenset({'H2'})</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
           <t>frozenset({'MongoDB'})</t>
         </is>
       </c>
-      <c r="B245" t="inlineStr">
-        <is>
-          <t>frozenset({'H2'})</t>
-        </is>
-      </c>
       <c r="C245" t="n">
+        <v>0.3384615384615385</v>
+      </c>
+      <c r="D245" t="n">
         <v>0.1435897435897436</v>
-      </c>
-      <c r="D245" t="n">
-        <v>0.3384615384615385</v>
       </c>
       <c r="E245" t="n">
         <v>0.09230769230769231</v>
       </c>
       <c r="F245" t="n">
-        <v>0.6428571428571429</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="G245" t="n">
         <v>1.899350649350649</v>
@@ -10085,7 +10085,7 @@
         <v>0.04370808678500987</v>
       </c>
       <c r="I245" t="n">
-        <v>1.852307692307692</v>
+        <v>1.177564102564103</v>
       </c>
       <c r="J245" t="n">
         <v>1</v>
@@ -10175,25 +10175,25 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
+          <t>frozenset({'H2'})</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
           <t>frozenset({'Hazelcast'})</t>
         </is>
       </c>
-      <c r="B248" t="inlineStr">
-        <is>
-          <t>frozenset({'H2'})</t>
-        </is>
-      </c>
       <c r="C248" t="n">
+        <v>0.3384615384615385</v>
+      </c>
+      <c r="D248" t="n">
         <v>0.06666666666666667</v>
-      </c>
-      <c r="D248" t="n">
-        <v>0.3384615384615385</v>
       </c>
       <c r="E248" t="n">
         <v>0.04102564102564103</v>
       </c>
       <c r="F248" t="n">
-        <v>0.6153846153846154</v>
+        <v>0.1212121212121212</v>
       </c>
       <c r="G248" t="n">
         <v>1.818181818181818</v>
@@ -10202,7 +10202,7 @@
         <v>0.01846153846153846</v>
       </c>
       <c r="I248" t="n">
-        <v>1.72</v>
+        <v>1.062068965517242</v>
       </c>
       <c r="J248" t="n">
         <v>1</v>
@@ -10214,25 +10214,25 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
+          <t>frozenset({'Hazelcast'})</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
           <t>frozenset({'H2'})</t>
         </is>
       </c>
-      <c r="B249" t="inlineStr">
-        <is>
-          <t>frozenset({'Hazelcast'})</t>
-        </is>
-      </c>
       <c r="C249" t="n">
+        <v>0.06666666666666667</v>
+      </c>
+      <c r="D249" t="n">
         <v>0.3384615384615385</v>
-      </c>
-      <c r="D249" t="n">
-        <v>0.06666666666666667</v>
       </c>
       <c r="E249" t="n">
         <v>0.04102564102564103</v>
       </c>
       <c r="F249" t="n">
-        <v>0.1212121212121212</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="G249" t="n">
         <v>1.818181818181818</v>
@@ -10241,7 +10241,7 @@
         <v>0.01846153846153846</v>
       </c>
       <c r="I249" t="n">
-        <v>1.062068965517242</v>
+        <v>1.72</v>
       </c>
       <c r="J249" t="n">
         <v>1</v>
@@ -10409,25 +10409,25 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
+          <t>frozenset({'MySQL_Maria DB'})</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
           <t>frozenset({'MongoDB'})</t>
         </is>
       </c>
-      <c r="B254" t="inlineStr">
-        <is>
-          <t>frozenset({'MySQL_Maria DB'})</t>
-        </is>
-      </c>
       <c r="C254" t="n">
+        <v>0.4358974358974359</v>
+      </c>
+      <c r="D254" t="n">
         <v>0.1435897435897436</v>
-      </c>
-      <c r="D254" t="n">
-        <v>0.4358974358974359</v>
       </c>
       <c r="E254" t="n">
         <v>0.1128205128205128</v>
       </c>
       <c r="F254" t="n">
-        <v>0.7857142857142858</v>
+        <v>0.2588235294117647</v>
       </c>
       <c r="G254" t="n">
         <v>1.802521008403362</v>
@@ -10436,7 +10436,7 @@
         <v>0.05023011176857331</v>
       </c>
       <c r="I254" t="n">
-        <v>2.632478632478634</v>
+        <v>1.155474155474155</v>
       </c>
       <c r="J254" t="n">
         <v>1</v>
@@ -10448,25 +10448,25 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
+          <t>frozenset({'MongoDB'})</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
           <t>frozenset({'MySQL_Maria DB'})</t>
         </is>
       </c>
-      <c r="B255" t="inlineStr">
-        <is>
-          <t>frozenset({'MongoDB'})</t>
-        </is>
-      </c>
       <c r="C255" t="n">
+        <v>0.1435897435897436</v>
+      </c>
+      <c r="D255" t="n">
         <v>0.4358974358974359</v>
-      </c>
-      <c r="D255" t="n">
-        <v>0.1435897435897436</v>
       </c>
       <c r="E255" t="n">
         <v>0.1128205128205128</v>
       </c>
       <c r="F255" t="n">
-        <v>0.2588235294117647</v>
+        <v>0.7857142857142858</v>
       </c>
       <c r="G255" t="n">
         <v>1.802521008403362</v>
@@ -10475,7 +10475,7 @@
         <v>0.05023011176857331</v>
       </c>
       <c r="I255" t="n">
-        <v>1.155474155474155</v>
+        <v>2.632478632478634</v>
       </c>
       <c r="J255" t="n">
         <v>1</v>
@@ -10487,25 +10487,25 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
+          <t>frozenset({'Google Cloud Datastore'})</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
           <t>frozenset({'Oracle'})</t>
         </is>
       </c>
-      <c r="B256" t="inlineStr">
-        <is>
-          <t>frozenset({'Google Cloud Datastore'})</t>
-        </is>
-      </c>
       <c r="C256" t="n">
+        <v>0.08717948717948718</v>
+      </c>
+      <c r="D256" t="n">
         <v>0.2615384615384616</v>
-      </c>
-      <c r="D256" t="n">
-        <v>0.08717948717948718</v>
       </c>
       <c r="E256" t="n">
         <v>0.04102564102564103</v>
       </c>
       <c r="F256" t="n">
-        <v>0.1568627450980392</v>
+        <v>0.4705882352941177</v>
       </c>
       <c r="G256" t="n">
         <v>1.799307958477509</v>
@@ -10514,7 +10514,7 @@
         <v>0.01822485207100592</v>
       </c>
       <c r="I256" t="n">
-        <v>1.082647584973166</v>
+        <v>1.394871794871795</v>
       </c>
       <c r="J256" t="n">
         <v>1</v>
@@ -10526,25 +10526,25 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
+          <t>frozenset({'Oracle'})</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
           <t>frozenset({'Google Cloud Datastore'})</t>
         </is>
       </c>
-      <c r="B257" t="inlineStr">
-        <is>
-          <t>frozenset({'Oracle'})</t>
-        </is>
-      </c>
       <c r="C257" t="n">
+        <v>0.2615384615384616</v>
+      </c>
+      <c r="D257" t="n">
         <v>0.08717948717948718</v>
-      </c>
-      <c r="D257" t="n">
-        <v>0.2615384615384616</v>
       </c>
       <c r="E257" t="n">
         <v>0.04102564102564103</v>
       </c>
       <c r="F257" t="n">
-        <v>0.4705882352941177</v>
+        <v>0.1568627450980392</v>
       </c>
       <c r="G257" t="n">
         <v>1.799307958477509</v>
@@ -10553,7 +10553,7 @@
         <v>0.01822485207100592</v>
       </c>
       <c r="I257" t="n">
-        <v>1.394871794871795</v>
+        <v>1.082647584973166</v>
       </c>
       <c r="J257" t="n">
         <v>1</v>
@@ -10565,25 +10565,25 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
+          <t>frozenset({'H2'})</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
           <t>frozenset({'Oracle'})</t>
         </is>
       </c>
-      <c r="B258" t="inlineStr">
-        <is>
-          <t>frozenset({'H2'})</t>
-        </is>
-      </c>
       <c r="C258" t="n">
+        <v>0.3384615384615385</v>
+      </c>
+      <c r="D258" t="n">
         <v>0.2615384615384616</v>
-      </c>
-      <c r="D258" t="n">
-        <v>0.3384615384615385</v>
       </c>
       <c r="E258" t="n">
         <v>0.158974358974359</v>
       </c>
       <c r="F258" t="n">
-        <v>0.6078431372549019</v>
+        <v>0.4696969696969697</v>
       </c>
       <c r="G258" t="n">
         <v>1.795900178253119</v>
@@ -10592,7 +10592,7 @@
         <v>0.07045364891518736</v>
       </c>
       <c r="I258" t="n">
-        <v>1.686923076923077</v>
+        <v>1.392527472527473</v>
       </c>
       <c r="J258" t="n">
         <v>1</v>
@@ -10604,25 +10604,25 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
+          <t>frozenset({'Oracle'})</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
           <t>frozenset({'H2'})</t>
         </is>
       </c>
-      <c r="B259" t="inlineStr">
-        <is>
-          <t>frozenset({'Oracle'})</t>
-        </is>
-      </c>
       <c r="C259" t="n">
+        <v>0.2615384615384616</v>
+      </c>
+      <c r="D259" t="n">
         <v>0.3384615384615385</v>
-      </c>
-      <c r="D259" t="n">
-        <v>0.2615384615384616</v>
       </c>
       <c r="E259" t="n">
         <v>0.158974358974359</v>
       </c>
       <c r="F259" t="n">
-        <v>0.4696969696969697</v>
+        <v>0.6078431372549019</v>
       </c>
       <c r="G259" t="n">
         <v>1.795900178253119</v>
@@ -10631,7 +10631,7 @@
         <v>0.07045364891518736</v>
       </c>
       <c r="I259" t="n">
-        <v>1.392527472527473</v>
+        <v>1.686923076923077</v>
       </c>
       <c r="J259" t="n">
         <v>1</v>
@@ -11033,25 +11033,25 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
+          <t>frozenset({'Redis'})</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
           <t>frozenset({'Google Cloud Datastore'})</t>
         </is>
       </c>
-      <c r="B270" t="inlineStr">
-        <is>
-          <t>frozenset({'Redis'})</t>
-        </is>
-      </c>
       <c r="C270" t="n">
+        <v>0.3025641025641025</v>
+      </c>
+      <c r="D270" t="n">
         <v>0.08717948717948718</v>
-      </c>
-      <c r="D270" t="n">
-        <v>0.3025641025641025</v>
       </c>
       <c r="E270" t="n">
         <v>0.04615384615384616</v>
       </c>
       <c r="F270" t="n">
-        <v>0.5294117647058824</v>
+        <v>0.1525423728813559</v>
       </c>
       <c r="G270" t="n">
         <v>1.74975074775673</v>
@@ -11060,7 +11060,7 @@
         <v>0.01977646285338594</v>
       </c>
       <c r="I270" t="n">
-        <v>1.482051282051282</v>
+        <v>1.077128205128205</v>
       </c>
       <c r="J270" t="n">
         <v>1</v>
@@ -11072,25 +11072,25 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
+          <t>frozenset({'Google Cloud Datastore'})</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
           <t>frozenset({'Redis'})</t>
         </is>
       </c>
-      <c r="B271" t="inlineStr">
-        <is>
-          <t>frozenset({'Google Cloud Datastore'})</t>
-        </is>
-      </c>
       <c r="C271" t="n">
+        <v>0.08717948717948718</v>
+      </c>
+      <c r="D271" t="n">
         <v>0.3025641025641025</v>
-      </c>
-      <c r="D271" t="n">
-        <v>0.08717948717948718</v>
       </c>
       <c r="E271" t="n">
         <v>0.04615384615384616</v>
       </c>
       <c r="F271" t="n">
-        <v>0.1525423728813559</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="G271" t="n">
         <v>1.74975074775673</v>
@@ -11099,7 +11099,7 @@
         <v>0.01977646285338594</v>
       </c>
       <c r="I271" t="n">
-        <v>1.077128205128205</v>
+        <v>1.482051282051282</v>
       </c>
       <c r="J271" t="n">
         <v>1</v>
@@ -11189,25 +11189,25 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
+          <t>frozenset({'H2'})</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
           <t>frozenset({'MySQL_Maria DB'})</t>
         </is>
       </c>
-      <c r="B274" t="inlineStr">
-        <is>
-          <t>frozenset({'H2'})</t>
-        </is>
-      </c>
       <c r="C274" t="n">
+        <v>0.3384615384615385</v>
+      </c>
+      <c r="D274" t="n">
         <v>0.4358974358974359</v>
-      </c>
-      <c r="D274" t="n">
-        <v>0.3384615384615385</v>
       </c>
       <c r="E274" t="n">
         <v>0.2564102564102564</v>
       </c>
       <c r="F274" t="n">
-        <v>0.588235294117647</v>
+        <v>0.7575757575757575</v>
       </c>
       <c r="G274" t="n">
         <v>1.737967914438502</v>
@@ -11216,7 +11216,7 @@
         <v>0.1088757396449704</v>
       </c>
       <c r="I274" t="n">
-        <v>1.606593406593406</v>
+        <v>2.326923076923076</v>
       </c>
       <c r="J274" t="n">
         <v>1</v>
@@ -11228,25 +11228,25 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
+          <t>frozenset({'MySQL_Maria DB'})</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
           <t>frozenset({'H2'})</t>
         </is>
       </c>
-      <c r="B275" t="inlineStr">
-        <is>
-          <t>frozenset({'MySQL_Maria DB'})</t>
-        </is>
-      </c>
       <c r="C275" t="n">
+        <v>0.4358974358974359</v>
+      </c>
+      <c r="D275" t="n">
         <v>0.3384615384615385</v>
-      </c>
-      <c r="D275" t="n">
-        <v>0.4358974358974359</v>
       </c>
       <c r="E275" t="n">
         <v>0.2564102564102564</v>
       </c>
       <c r="F275" t="n">
-        <v>0.7575757575757575</v>
+        <v>0.588235294117647</v>
       </c>
       <c r="G275" t="n">
         <v>1.737967914438502</v>
@@ -11255,7 +11255,7 @@
         <v>0.1088757396449704</v>
       </c>
       <c r="I275" t="n">
-        <v>2.326923076923076</v>
+        <v>1.606593406593406</v>
       </c>
       <c r="J275" t="n">
         <v>1</v>
@@ -11345,25 +11345,25 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
+          <t>frozenset({'H2'})</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
           <t>frozenset({'HyperSQL'})</t>
         </is>
       </c>
-      <c r="B278" t="inlineStr">
-        <is>
-          <t>frozenset({'H2'})</t>
-        </is>
-      </c>
       <c r="C278" t="n">
+        <v>0.3384615384615385</v>
+      </c>
+      <c r="D278" t="n">
         <v>0.1948717948717949</v>
-      </c>
-      <c r="D278" t="n">
-        <v>0.3384615384615385</v>
       </c>
       <c r="E278" t="n">
         <v>0.1128205128205128</v>
       </c>
       <c r="F278" t="n">
-        <v>0.5789473684210527</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G278" t="n">
         <v>1.710526315789474</v>
@@ -11372,7 +11372,7 @@
         <v>0.04686390532544378</v>
       </c>
       <c r="I278" t="n">
-        <v>1.571153846153846</v>
+        <v>1.207692307692308</v>
       </c>
       <c r="J278" t="n">
         <v>1</v>
@@ -11384,25 +11384,25 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
+          <t>frozenset({'HyperSQL'})</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
           <t>frozenset({'H2'})</t>
         </is>
       </c>
-      <c r="B279" t="inlineStr">
-        <is>
-          <t>frozenset({'HyperSQL'})</t>
-        </is>
-      </c>
       <c r="C279" t="n">
+        <v>0.1948717948717949</v>
+      </c>
+      <c r="D279" t="n">
         <v>0.3384615384615385</v>
-      </c>
-      <c r="D279" t="n">
-        <v>0.1948717948717949</v>
       </c>
       <c r="E279" t="n">
         <v>0.1128205128205128</v>
       </c>
       <c r="F279" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="G279" t="n">
         <v>1.710526315789474</v>
@@ -11411,7 +11411,7 @@
         <v>0.04686390532544378</v>
       </c>
       <c r="I279" t="n">
-        <v>1.207692307692308</v>
+        <v>1.571153846153846</v>
       </c>
       <c r="J279" t="n">
         <v>1</v>
@@ -11657,25 +11657,25 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
+          <t>frozenset({'MySQL_Maria DB'})</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
           <t>frozenset({'SQLite'})</t>
         </is>
       </c>
-      <c r="B286" t="inlineStr">
-        <is>
-          <t>frozenset({'MySQL_Maria DB'})</t>
-        </is>
-      </c>
       <c r="C286" t="n">
+        <v>0.4358974358974359</v>
+      </c>
+      <c r="D286" t="n">
         <v>0.1333333333333333</v>
-      </c>
-      <c r="D286" t="n">
-        <v>0.4358974358974359</v>
       </c>
       <c r="E286" t="n">
         <v>0.09743589743589744</v>
       </c>
       <c r="F286" t="n">
-        <v>0.7307692307692308</v>
+        <v>0.2235294117647059</v>
       </c>
       <c r="G286" t="n">
         <v>1.676470588235294</v>
@@ -11684,7 +11684,7 @@
         <v>0.03931623931623932</v>
       </c>
       <c r="I286" t="n">
-        <v>2.095238095238096</v>
+        <v>1.116161616161616</v>
       </c>
       <c r="J286" t="n">
         <v>1</v>
@@ -11696,25 +11696,25 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
+          <t>frozenset({'SQLite'})</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
           <t>frozenset({'MySQL_Maria DB'})</t>
         </is>
       </c>
-      <c r="B287" t="inlineStr">
-        <is>
-          <t>frozenset({'SQLite'})</t>
-        </is>
-      </c>
       <c r="C287" t="n">
+        <v>0.1333333333333333</v>
+      </c>
+      <c r="D287" t="n">
         <v>0.4358974358974359</v>
-      </c>
-      <c r="D287" t="n">
-        <v>0.1333333333333333</v>
       </c>
       <c r="E287" t="n">
         <v>0.09743589743589744</v>
       </c>
       <c r="F287" t="n">
-        <v>0.2235294117647059</v>
+        <v>0.7307692307692308</v>
       </c>
       <c r="G287" t="n">
         <v>1.676470588235294</v>
@@ -11723,7 +11723,7 @@
         <v>0.03931623931623932</v>
       </c>
       <c r="I287" t="n">
-        <v>1.116161616161616</v>
+        <v>2.095238095238096</v>
       </c>
       <c r="J287" t="n">
         <v>1</v>
@@ -11891,25 +11891,25 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
+          <t>frozenset({'MongoDB'})</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
           <t>frozenset({'HyperSQL'})</t>
         </is>
       </c>
-      <c r="B292" t="inlineStr">
-        <is>
-          <t>frozenset({'MongoDB'})</t>
-        </is>
-      </c>
       <c r="C292" t="n">
+        <v>0.1435897435897436</v>
+      </c>
+      <c r="D292" t="n">
         <v>0.1948717948717949</v>
-      </c>
-      <c r="D292" t="n">
-        <v>0.1435897435897436</v>
       </c>
       <c r="E292" t="n">
         <v>0.04615384615384616</v>
       </c>
       <c r="F292" t="n">
-        <v>0.2368421052631579</v>
+        <v>0.3214285714285715</v>
       </c>
       <c r="G292" t="n">
         <v>1.649436090225564</v>
@@ -11918,7 +11918,7 @@
         <v>0.01817225509533202</v>
       </c>
       <c r="I292" t="n">
-        <v>1.122192749778957</v>
+        <v>1.186504723346829</v>
       </c>
       <c r="J292" t="n">
         <v>1</v>
@@ -11930,25 +11930,25 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
+          <t>frozenset({'HyperSQL'})</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
           <t>frozenset({'MongoDB'})</t>
         </is>
       </c>
-      <c r="B293" t="inlineStr">
-        <is>
-          <t>frozenset({'HyperSQL'})</t>
-        </is>
-      </c>
       <c r="C293" t="n">
+        <v>0.1948717948717949</v>
+      </c>
+      <c r="D293" t="n">
         <v>0.1435897435897436</v>
-      </c>
-      <c r="D293" t="n">
-        <v>0.1948717948717949</v>
       </c>
       <c r="E293" t="n">
         <v>0.04615384615384616</v>
       </c>
       <c r="F293" t="n">
-        <v>0.3214285714285715</v>
+        <v>0.2368421052631579</v>
       </c>
       <c r="G293" t="n">
         <v>1.649436090225564</v>
@@ -11957,7 +11957,7 @@
         <v>0.01817225509533202</v>
       </c>
       <c r="I293" t="n">
-        <v>1.186504723346829</v>
+        <v>1.122192749778957</v>
       </c>
       <c r="J293" t="n">
         <v>1</v>
@@ -12047,25 +12047,25 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
+          <t>frozenset({'SQLite'})</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
           <t>frozenset({'Oracle'})</t>
         </is>
       </c>
-      <c r="B296" t="inlineStr">
-        <is>
-          <t>frozenset({'SQLite'})</t>
-        </is>
-      </c>
       <c r="C296" t="n">
+        <v>0.1333333333333333</v>
+      </c>
+      <c r="D296" t="n">
         <v>0.2615384615384616</v>
-      </c>
-      <c r="D296" t="n">
-        <v>0.1333333333333333</v>
       </c>
       <c r="E296" t="n">
         <v>0.05641025641025641</v>
       </c>
       <c r="F296" t="n">
-        <v>0.2156862745098039</v>
+        <v>0.4230769230769231</v>
       </c>
       <c r="G296" t="n">
         <v>1.617647058823529</v>
@@ -12074,7 +12074,7 @@
         <v>0.02153846153846154</v>
       </c>
       <c r="I296" t="n">
-        <v>1.105</v>
+        <v>1.28</v>
       </c>
       <c r="J296" t="n">
         <v>1</v>
@@ -12086,25 +12086,25 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
+          <t>frozenset({'Oracle'})</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
           <t>frozenset({'SQLite'})</t>
         </is>
       </c>
-      <c r="B297" t="inlineStr">
-        <is>
-          <t>frozenset({'Oracle'})</t>
-        </is>
-      </c>
       <c r="C297" t="n">
+        <v>0.2615384615384616</v>
+      </c>
+      <c r="D297" t="n">
         <v>0.1333333333333333</v>
-      </c>
-      <c r="D297" t="n">
-        <v>0.2615384615384616</v>
       </c>
       <c r="E297" t="n">
         <v>0.05641025641025641</v>
       </c>
       <c r="F297" t="n">
-        <v>0.4230769230769231</v>
+        <v>0.2156862745098039</v>
       </c>
       <c r="G297" t="n">
         <v>1.617647058823529</v>
@@ -12113,7 +12113,7 @@
         <v>0.02153846153846154</v>
       </c>
       <c r="I297" t="n">
-        <v>1.28</v>
+        <v>1.105</v>
       </c>
       <c r="J297" t="n">
         <v>1</v>
@@ -12281,25 +12281,25 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
+          <t>frozenset({'HBase'})</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
           <t>frozenset({'Oracle'})</t>
         </is>
       </c>
-      <c r="B302" t="inlineStr">
-        <is>
-          <t>frozenset({'HBase'})</t>
-        </is>
-      </c>
       <c r="C302" t="n">
+        <v>0.06153846153846154</v>
+      </c>
+      <c r="D302" t="n">
         <v>0.2615384615384616</v>
-      </c>
-      <c r="D302" t="n">
-        <v>0.06153846153846154</v>
       </c>
       <c r="E302" t="n">
         <v>0.02564102564102564</v>
       </c>
       <c r="F302" t="n">
-        <v>0.09803921568627449</v>
+        <v>0.4166666666666666</v>
       </c>
       <c r="G302" t="n">
         <v>1.59313725490196</v>
@@ -12308,7 +12308,7 @@
         <v>0.00954635108481262</v>
       </c>
       <c r="I302" t="n">
-        <v>1.040468227424749</v>
+        <v>1.265934065934066</v>
       </c>
       <c r="J302" t="n">
         <v>1</v>
@@ -12320,25 +12320,25 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
+          <t>frozenset({'Oracle'})</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
           <t>frozenset({'HBase'})</t>
         </is>
       </c>
-      <c r="B303" t="inlineStr">
-        <is>
-          <t>frozenset({'Oracle'})</t>
-        </is>
-      </c>
       <c r="C303" t="n">
+        <v>0.2615384615384616</v>
+      </c>
+      <c r="D303" t="n">
         <v>0.06153846153846154</v>
-      </c>
-      <c r="D303" t="n">
-        <v>0.2615384615384616</v>
       </c>
       <c r="E303" t="n">
         <v>0.02564102564102564</v>
       </c>
       <c r="F303" t="n">
-        <v>0.4166666666666666</v>
+        <v>0.09803921568627449</v>
       </c>
       <c r="G303" t="n">
         <v>1.59313725490196</v>
@@ -12347,7 +12347,7 @@
         <v>0.00954635108481262</v>
       </c>
       <c r="I303" t="n">
-        <v>1.265934065934066</v>
+        <v>1.040468227424749</v>
       </c>
       <c r="J303" t="n">
         <v>1</v>
@@ -12359,25 +12359,25 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
+          <t>frozenset({'Redis'})</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
           <t>frozenset({'Hazelcast'})</t>
         </is>
       </c>
-      <c r="B304" t="inlineStr">
-        <is>
-          <t>frozenset({'Redis'})</t>
-        </is>
-      </c>
       <c r="C304" t="n">
+        <v>0.3025641025641025</v>
+      </c>
+      <c r="D304" t="n">
         <v>0.06666666666666667</v>
-      </c>
-      <c r="D304" t="n">
-        <v>0.3025641025641025</v>
       </c>
       <c r="E304" t="n">
         <v>0.03076923076923077</v>
       </c>
       <c r="F304" t="n">
-        <v>0.4615384615384616</v>
+        <v>0.1016949152542373</v>
       </c>
       <c r="G304" t="n">
         <v>1.525423728813559</v>
@@ -12386,7 +12386,7 @@
         <v>0.0105982905982906</v>
       </c>
       <c r="I304" t="n">
-        <v>1.295238095238095</v>
+        <v>1.038993710691824</v>
       </c>
       <c r="J304" t="n">
         <v>1</v>
@@ -12398,25 +12398,25 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
+          <t>frozenset({'Hazelcast'})</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
           <t>frozenset({'Redis'})</t>
         </is>
       </c>
-      <c r="B305" t="inlineStr">
-        <is>
-          <t>frozenset({'Hazelcast'})</t>
-        </is>
-      </c>
       <c r="C305" t="n">
+        <v>0.06666666666666667</v>
+      </c>
+      <c r="D305" t="n">
         <v>0.3025641025641025</v>
-      </c>
-      <c r="D305" t="n">
-        <v>0.06666666666666667</v>
       </c>
       <c r="E305" t="n">
         <v>0.03076923076923077</v>
       </c>
       <c r="F305" t="n">
-        <v>0.1016949152542373</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="G305" t="n">
         <v>1.525423728813559</v>
@@ -12425,7 +12425,7 @@
         <v>0.0105982905982906</v>
       </c>
       <c r="I305" t="n">
-        <v>1.038993710691824</v>
+        <v>1.295238095238095</v>
       </c>
       <c r="J305" t="n">
         <v>1</v>
@@ -12593,25 +12593,25 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
+          <t>frozenset({'Oracle'})</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
           <t>frozenset({'Redis'})</t>
         </is>
       </c>
-      <c r="B310" t="inlineStr">
-        <is>
-          <t>frozenset({'Oracle'})</t>
-        </is>
-      </c>
       <c r="C310" t="n">
+        <v>0.2615384615384616</v>
+      </c>
+      <c r="D310" t="n">
         <v>0.3025641025641025</v>
-      </c>
-      <c r="D310" t="n">
-        <v>0.2615384615384616</v>
       </c>
       <c r="E310" t="n">
         <v>0.1179487179487179</v>
       </c>
       <c r="F310" t="n">
-        <v>0.3898305084745763</v>
+        <v>0.4509803921568627</v>
       </c>
       <c r="G310" t="n">
         <v>1.490528414755733</v>
@@ -12620,7 +12620,7 @@
         <v>0.03881656804733728</v>
       </c>
       <c r="I310" t="n">
-        <v>1.21025641025641</v>
+        <v>1.27032967032967</v>
       </c>
       <c r="J310" t="n">
         <v>1</v>
@@ -12632,25 +12632,25 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
+          <t>frozenset({'Redis'})</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
           <t>frozenset({'Oracle'})</t>
         </is>
       </c>
-      <c r="B311" t="inlineStr">
-        <is>
-          <t>frozenset({'Redis'})</t>
-        </is>
-      </c>
       <c r="C311" t="n">
+        <v>0.3025641025641025</v>
+      </c>
+      <c r="D311" t="n">
         <v>0.2615384615384616</v>
-      </c>
-      <c r="D311" t="n">
-        <v>0.3025641025641025</v>
       </c>
       <c r="E311" t="n">
         <v>0.1179487179487179</v>
       </c>
       <c r="F311" t="n">
-        <v>0.4509803921568627</v>
+        <v>0.3898305084745763</v>
       </c>
       <c r="G311" t="n">
         <v>1.490528414755733</v>
@@ -12659,7 +12659,7 @@
         <v>0.03881656804733728</v>
       </c>
       <c r="I311" t="n">
-        <v>1.27032967032967</v>
+        <v>1.21025641025641</v>
       </c>
       <c r="J311" t="n">
         <v>1</v>
@@ -12983,25 +12983,25 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
+          <t>frozenset({'H2'})</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
           <t>frozenset({'Google Cloud Datastore'})</t>
         </is>
       </c>
-      <c r="B320" t="inlineStr">
-        <is>
-          <t>frozenset({'H2'})</t>
-        </is>
-      </c>
       <c r="C320" t="n">
+        <v>0.3384615384615385</v>
+      </c>
+      <c r="D320" t="n">
         <v>0.08717948717948718</v>
-      </c>
-      <c r="D320" t="n">
-        <v>0.3384615384615385</v>
       </c>
       <c r="E320" t="n">
         <v>0.04102564102564103</v>
       </c>
       <c r="F320" t="n">
-        <v>0.4705882352941177</v>
+        <v>0.1212121212121212</v>
       </c>
       <c r="G320" t="n">
         <v>1.390374331550802</v>
@@ -13010,7 +13010,7 @@
         <v>0.01151873767258383</v>
       </c>
       <c r="I320" t="n">
-        <v>1.24957264957265</v>
+        <v>1.038726790450928</v>
       </c>
       <c r="J320" t="n">
         <v>1</v>
@@ -13022,25 +13022,25 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
+          <t>frozenset({'Google Cloud Datastore'})</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
           <t>frozenset({'H2'})</t>
         </is>
       </c>
-      <c r="B321" t="inlineStr">
-        <is>
-          <t>frozenset({'Google Cloud Datastore'})</t>
-        </is>
-      </c>
       <c r="C321" t="n">
+        <v>0.08717948717948718</v>
+      </c>
+      <c r="D321" t="n">
         <v>0.3384615384615385</v>
-      </c>
-      <c r="D321" t="n">
-        <v>0.08717948717948718</v>
       </c>
       <c r="E321" t="n">
         <v>0.04102564102564103</v>
       </c>
       <c r="F321" t="n">
-        <v>0.1212121212121212</v>
+        <v>0.4705882352941177</v>
       </c>
       <c r="G321" t="n">
         <v>1.390374331550802</v>
@@ -13049,7 +13049,7 @@
         <v>0.01151873767258383</v>
       </c>
       <c r="I321" t="n">
-        <v>1.038726790450928</v>
+        <v>1.24957264957265</v>
       </c>
       <c r="J321" t="n">
         <v>1</v>
@@ -13295,25 +13295,25 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
+          <t>frozenset({'MySQL_Maria DB'})</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
           <t>frozenset({'Google Cloud Datastore'})</t>
         </is>
       </c>
-      <c r="B328" t="inlineStr">
-        <is>
-          <t>frozenset({'MySQL_Maria DB'})</t>
-        </is>
-      </c>
       <c r="C328" t="n">
+        <v>0.4358974358974359</v>
+      </c>
+      <c r="D328" t="n">
         <v>0.08717948717948718</v>
-      </c>
-      <c r="D328" t="n">
-        <v>0.4358974358974359</v>
       </c>
       <c r="E328" t="n">
         <v>0.04615384615384616</v>
       </c>
       <c r="F328" t="n">
-        <v>0.5294117647058824</v>
+        <v>0.1058823529411765</v>
       </c>
       <c r="G328" t="n">
         <v>1.214532871972318</v>
@@ -13322,7 +13322,7 @@
         <v>0.008152531229454307</v>
       </c>
       <c r="I328" t="n">
-        <v>1.198717948717949</v>
+        <v>1.020917678812416</v>
       </c>
       <c r="J328" t="n">
         <v>1</v>
@@ -13334,25 +13334,25 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
+          <t>frozenset({'Google Cloud Datastore'})</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
           <t>frozenset({'MySQL_Maria DB'})</t>
         </is>
       </c>
-      <c r="B329" t="inlineStr">
-        <is>
-          <t>frozenset({'Google Cloud Datastore'})</t>
-        </is>
-      </c>
       <c r="C329" t="n">
+        <v>0.08717948717948718</v>
+      </c>
+      <c r="D329" t="n">
         <v>0.4358974358974359</v>
-      </c>
-      <c r="D329" t="n">
-        <v>0.08717948717948718</v>
       </c>
       <c r="E329" t="n">
         <v>0.04615384615384616</v>
       </c>
       <c r="F329" t="n">
-        <v>0.1058823529411765</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="G329" t="n">
         <v>1.214532871972318</v>
@@ -13361,7 +13361,7 @@
         <v>0.008152531229454307</v>
       </c>
       <c r="I329" t="n">
-        <v>1.020917678812416</v>
+        <v>1.198717948717949</v>
       </c>
       <c r="J329" t="n">
         <v>1</v>

--- a/resources/historical_rulesv10.xlsx
+++ b/resources/historical_rulesv10.xlsx
@@ -571,25 +571,25 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>frozenset({'SAP Adaptive Server'})</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>frozenset({'SAP SQL Anywhere'})</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>frozenset({'SAP Adaptive Server'})</t>
-        </is>
-      </c>
       <c r="C4" t="n">
+        <v>0.05128205128205128</v>
+      </c>
+      <c r="D4" t="n">
         <v>0.05641025641025641</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.05128205128205128</v>
       </c>
       <c r="E4" t="n">
         <v>0.05128205128205128</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9090909090909091</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
         <v>17.72727272727273</v>
@@ -597,8 +597,10 @@
       <c r="H4" t="n">
         <v>0.04838921761998685</v>
       </c>
-      <c r="I4" t="n">
-        <v>10.43589743589743</v>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="J4" t="n">
         <v>1</v>
@@ -610,25 +612,25 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>frozenset({'SAP SQL Anywhere'})</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>frozenset({'SAP Adaptive Server'})</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>frozenset({'SAP SQL Anywhere'})</t>
-        </is>
-      </c>
       <c r="C5" t="n">
+        <v>0.05641025641025641</v>
+      </c>
+      <c r="D5" t="n">
         <v>0.05128205128205128</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.05641025641025641</v>
       </c>
       <c r="E5" t="n">
         <v>0.05128205128205128</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="G5" t="n">
         <v>17.72727272727273</v>
@@ -636,10 +638,8 @@
       <c r="H5" t="n">
         <v>0.04838921761998685</v>
       </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="I5" t="n">
+        <v>10.43589743589743</v>
       </c>
       <c r="J5" t="n">
         <v>1</v>
@@ -729,25 +729,25 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>frozenset({'Firebird'})</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>frozenset({'SAP Adaptive Server'})</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>frozenset({'Firebird'})</t>
-        </is>
-      </c>
       <c r="C8" t="n">
+        <v>0.03076923076923077</v>
+      </c>
+      <c r="D8" t="n">
         <v>0.05128205128205128</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.03076923076923077</v>
       </c>
       <c r="E8" t="n">
         <v>0.02564102564102564</v>
       </c>
       <c r="F8" t="n">
-        <v>0.5</v>
+        <v>0.8333333333333333</v>
       </c>
       <c r="G8" t="n">
         <v>16.25</v>
@@ -756,7 +756,7 @@
         <v>0.02406311637080868</v>
       </c>
       <c r="I8" t="n">
-        <v>1.938461538461538</v>
+        <v>5.69230769230769</v>
       </c>
       <c r="J8" t="n">
         <v>1</v>
@@ -768,25 +768,25 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>frozenset({'SapHana'})</t>
+          <t>frozenset({'SAP Adaptive Server'})</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>frozenset({'ClickHouse'})</t>
+          <t>frozenset({'Firebird'})</t>
         </is>
       </c>
       <c r="C9" t="n">
+        <v>0.05128205128205128</v>
+      </c>
+      <c r="D9" t="n">
         <v>0.03076923076923077</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.05128205128205128</v>
       </c>
       <c r="E9" t="n">
         <v>0.02564102564102564</v>
       </c>
       <c r="F9" t="n">
-        <v>0.8333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G9" t="n">
         <v>16.25</v>
@@ -795,7 +795,7 @@
         <v>0.02406311637080868</v>
       </c>
       <c r="I9" t="n">
-        <v>5.69230769230769</v>
+        <v>1.938461538461538</v>
       </c>
       <c r="J9" t="n">
         <v>1</v>
@@ -846,12 +846,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>frozenset({'Firebird'})</t>
+          <t>frozenset({'SapHana'})</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>frozenset({'SAP Adaptive Server'})</t>
+          <t>frozenset({'ClickHouse'})</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -1041,34 +1041,34 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>frozenset({'IBM DB2'})</t>
+          <t>frozenset({'Snowflake'})</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>frozenset({'Firebird'})</t>
+          <t>frozenset({'ClickHouse'})</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.09230769230769231</v>
+        <v>0.04615384615384616</v>
       </c>
       <c r="D16" t="n">
-        <v>0.03076923076923077</v>
+        <v>0.05128205128205128</v>
       </c>
       <c r="E16" t="n">
-        <v>0.03076923076923077</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="F16" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.5555555555555555</v>
       </c>
       <c r="G16" t="n">
         <v>10.83333333333333</v>
       </c>
       <c r="H16" t="n">
-        <v>0.02792899408284024</v>
+        <v>0.0232741617357002</v>
       </c>
       <c r="I16" t="n">
-        <v>1.453846153846154</v>
+        <v>2.134615384615384</v>
       </c>
       <c r="J16" t="n">
         <v>1</v>
@@ -1080,36 +1080,34 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>frozenset({'Firebird'})</t>
+          <t>frozenset({'ClickHouse'})</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>frozenset({'IBM DB2'})</t>
+          <t>frozenset({'Snowflake'})</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.03076923076923077</v>
+        <v>0.05128205128205128</v>
       </c>
       <c r="D17" t="n">
-        <v>0.09230769230769231</v>
+        <v>0.04615384615384616</v>
       </c>
       <c r="E17" t="n">
-        <v>0.03076923076923077</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="F17" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G17" t="n">
         <v>10.83333333333333</v>
       </c>
       <c r="H17" t="n">
-        <v>0.02792899408284024</v>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>0.0232741617357002</v>
+      </c>
+      <c r="I17" t="n">
+        <v>1.907692307692308</v>
       </c>
       <c r="J17" t="n">
         <v>1</v>
@@ -1121,34 +1119,34 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>frozenset({'ClickHouse'})</t>
+          <t>frozenset({'IBM DB2'})</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>frozenset({'Snowflake'})</t>
+          <t>frozenset({'Firebird'})</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.05128205128205128</v>
+        <v>0.09230769230769231</v>
       </c>
       <c r="D18" t="n">
-        <v>0.04615384615384616</v>
+        <v>0.03076923076923077</v>
       </c>
       <c r="E18" t="n">
-        <v>0.02564102564102564</v>
+        <v>0.03076923076923077</v>
       </c>
       <c r="F18" t="n">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18" t="n">
         <v>10.83333333333333</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0232741617357002</v>
+        <v>0.02792899408284024</v>
       </c>
       <c r="I18" t="n">
-        <v>1.907692307692308</v>
+        <v>1.453846153846154</v>
       </c>
       <c r="J18" t="n">
         <v>1</v>
@@ -1160,34 +1158,36 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>frozenset({'Snowflake'})</t>
+          <t>frozenset({'Firebird'})</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>frozenset({'ClickHouse'})</t>
+          <t>frozenset({'IBM DB2'})</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.04615384615384616</v>
+        <v>0.03076923076923077</v>
       </c>
       <c r="D19" t="n">
-        <v>0.05128205128205128</v>
+        <v>0.09230769230769231</v>
       </c>
       <c r="E19" t="n">
-        <v>0.02564102564102564</v>
+        <v>0.03076923076923077</v>
       </c>
       <c r="F19" t="n">
-        <v>0.5555555555555555</v>
+        <v>1</v>
       </c>
       <c r="G19" t="n">
         <v>10.83333333333333</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0232741617357002</v>
-      </c>
-      <c r="I19" t="n">
-        <v>2.134615384615384</v>
+        <v>0.02792899408284024</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="J19" t="n">
         <v>1</v>
@@ -1747,25 +1747,25 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
+          <t>frozenset({'SQLite'})</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
           <t>frozenset({'Firebird'})</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>frozenset({'SQLite'})</t>
-        </is>
-      </c>
       <c r="C34" t="n">
+        <v>0.1333333333333333</v>
+      </c>
+      <c r="D34" t="n">
         <v>0.03076923076923077</v>
-      </c>
-      <c r="D34" t="n">
-        <v>0.1333333333333333</v>
       </c>
       <c r="E34" t="n">
         <v>0.02564102564102564</v>
       </c>
       <c r="F34" t="n">
-        <v>0.8333333333333333</v>
+        <v>0.1923076923076923</v>
       </c>
       <c r="G34" t="n">
         <v>6.249999999999999</v>
@@ -1774,7 +1774,7 @@
         <v>0.02153846153846154</v>
       </c>
       <c r="I34" t="n">
-        <v>5.199999999999998</v>
+        <v>1.2</v>
       </c>
       <c r="J34" t="n">
         <v>1</v>
@@ -1786,25 +1786,25 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
+          <t>frozenset({'Firebird'})</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
           <t>frozenset({'SQLite'})</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>frozenset({'Firebird'})</t>
-        </is>
-      </c>
       <c r="C35" t="n">
+        <v>0.03076923076923077</v>
+      </c>
+      <c r="D35" t="n">
         <v>0.1333333333333333</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0.03076923076923077</v>
       </c>
       <c r="E35" t="n">
         <v>0.02564102564102564</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1923076923076923</v>
+        <v>0.8333333333333333</v>
       </c>
       <c r="G35" t="n">
         <v>6.249999999999999</v>
@@ -1813,7 +1813,7 @@
         <v>0.02153846153846154</v>
       </c>
       <c r="I35" t="n">
-        <v>1.2</v>
+        <v>5.199999999999998</v>
       </c>
       <c r="J35" t="n">
         <v>1</v>
@@ -1908,29 +1908,29 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>frozenset({'SAP Adaptive Server'})</t>
+          <t>frozenset({'MarkLogic'})</t>
         </is>
       </c>
       <c r="C38" t="n">
         <v>0.1743589743589744</v>
       </c>
       <c r="D38" t="n">
-        <v>0.05128205128205128</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="E38" t="n">
-        <v>0.05128205128205128</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="F38" t="n">
-        <v>0.2941176470588235</v>
+        <v>0.1470588235294118</v>
       </c>
       <c r="G38" t="n">
         <v>5.735294117647059</v>
       </c>
       <c r="H38" t="n">
-        <v>0.04234056541748849</v>
+        <v>0.02117028270874425</v>
       </c>
       <c r="I38" t="n">
-        <v>1.344017094017094</v>
+        <v>1.142351900972591</v>
       </c>
       <c r="J38" t="n">
         <v>1</v>
@@ -1942,7 +1942,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>frozenset({'SAP Adaptive Server'})</t>
+          <t>frozenset({'MarkLogic'})</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1951,13 +1951,13 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.05128205128205128</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="D39" t="n">
         <v>0.1743589743589744</v>
       </c>
       <c r="E39" t="n">
-        <v>0.05128205128205128</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="F39" t="n">
         <v>1</v>
@@ -1966,7 +1966,7 @@
         <v>5.735294117647059</v>
       </c>
       <c r="H39" t="n">
-        <v>0.04234056541748849</v>
+        <v>0.02117028270874425</v>
       </c>
       <c r="I39" t="inlineStr">
         <is>
@@ -1983,34 +1983,36 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
+          <t>frozenset({'Informix'})</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
           <t>frozenset({'MS SQL Server_Microsoft Azure SQL Database'})</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>frozenset({'Firebird'})</t>
-        </is>
-      </c>
       <c r="C40" t="n">
+        <v>0.03589743589743589</v>
+      </c>
+      <c r="D40" t="n">
         <v>0.1743589743589744</v>
       </c>
-      <c r="D40" t="n">
-        <v>0.03076923076923077</v>
-      </c>
       <c r="E40" t="n">
-        <v>0.03076923076923077</v>
+        <v>0.03589743589743589</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1764705882352941</v>
+        <v>1</v>
       </c>
       <c r="G40" t="n">
         <v>5.735294117647059</v>
       </c>
       <c r="H40" t="n">
-        <v>0.0254043392504931</v>
-      </c>
-      <c r="I40" t="n">
-        <v>1.176923076923077</v>
+        <v>0.02963839579224194</v>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="J40" t="n">
         <v>1</v>
@@ -2022,7 +2024,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>frozenset({'Informix'})</t>
+          <t>frozenset({'Firebird'})</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2031,13 +2033,13 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0.03589743589743589</v>
+        <v>0.03076923076923077</v>
       </c>
       <c r="D41" t="n">
         <v>0.1743589743589744</v>
       </c>
       <c r="E41" t="n">
-        <v>0.03589743589743589</v>
+        <v>0.03076923076923077</v>
       </c>
       <c r="F41" t="n">
         <v>1</v>
@@ -2046,7 +2048,7 @@
         <v>5.735294117647059</v>
       </c>
       <c r="H41" t="n">
-        <v>0.02963839579224194</v>
+        <v>0.0254043392504931</v>
       </c>
       <c r="I41" t="inlineStr">
         <is>
@@ -2063,25 +2065,25 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
+          <t>frozenset({'MS SQL Server_Microsoft Azure SQL Database'})</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
           <t>frozenset({'Firebird'})</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>frozenset({'MS SQL Server_Microsoft Azure SQL Database'})</t>
-        </is>
-      </c>
       <c r="C42" t="n">
+        <v>0.1743589743589744</v>
+      </c>
+      <c r="D42" t="n">
         <v>0.03076923076923077</v>
-      </c>
-      <c r="D42" t="n">
-        <v>0.1743589743589744</v>
       </c>
       <c r="E42" t="n">
         <v>0.03076923076923077</v>
       </c>
       <c r="F42" t="n">
-        <v>1</v>
+        <v>0.1764705882352941</v>
       </c>
       <c r="G42" t="n">
         <v>5.735294117647059</v>
@@ -2089,10 +2091,8 @@
       <c r="H42" t="n">
         <v>0.0254043392504931</v>
       </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="I42" t="n">
+        <v>1.176923076923077</v>
       </c>
       <c r="J42" t="n">
         <v>1</v>
@@ -2189,29 +2189,29 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>frozenset({'SAP SQL Anywhere'})</t>
+          <t>frozenset({'SAP Adaptive Server'})</t>
         </is>
       </c>
       <c r="C45" t="n">
         <v>0.1743589743589744</v>
       </c>
       <c r="D45" t="n">
-        <v>0.05641025641025641</v>
+        <v>0.05128205128205128</v>
       </c>
       <c r="E45" t="n">
-        <v>0.05641025641025641</v>
+        <v>0.05128205128205128</v>
       </c>
       <c r="F45" t="n">
-        <v>0.3235294117647059</v>
+        <v>0.2941176470588235</v>
       </c>
       <c r="G45" t="n">
         <v>5.735294117647059</v>
       </c>
       <c r="H45" t="n">
-        <v>0.04657462195923735</v>
+        <v>0.04234056541748849</v>
       </c>
       <c r="I45" t="n">
-        <v>1.394871794871795</v>
+        <v>1.344017094017094</v>
       </c>
       <c r="J45" t="n">
         <v>1</v>
@@ -2264,36 +2264,34 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>frozenset({'MarkLogic'})</t>
+          <t>frozenset({'MS SQL Server_Microsoft Azure SQL Database'})</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>frozenset({'MS SQL Server_Microsoft Azure SQL Database'})</t>
+          <t>frozenset({'SAP SQL Anywhere'})</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>0.02564102564102564</v>
+        <v>0.1743589743589744</v>
       </c>
       <c r="D47" t="n">
-        <v>0.1743589743589744</v>
+        <v>0.05641025641025641</v>
       </c>
       <c r="E47" t="n">
-        <v>0.02564102564102564</v>
+        <v>0.05641025641025641</v>
       </c>
       <c r="F47" t="n">
-        <v>1</v>
+        <v>0.3235294117647059</v>
       </c>
       <c r="G47" t="n">
         <v>5.735294117647059</v>
       </c>
       <c r="H47" t="n">
-        <v>0.02117028270874425</v>
-      </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>0.04657462195923735</v>
+      </c>
+      <c r="I47" t="n">
+        <v>1.394871794871795</v>
       </c>
       <c r="J47" t="n">
         <v>1</v>
@@ -2305,34 +2303,36 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
+          <t>frozenset({'SAP Adaptive Server'})</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
           <t>frozenset({'MS SQL Server_Microsoft Azure SQL Database'})</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>frozenset({'MarkLogic'})</t>
-        </is>
-      </c>
       <c r="C48" t="n">
+        <v>0.05128205128205128</v>
+      </c>
+      <c r="D48" t="n">
         <v>0.1743589743589744</v>
       </c>
-      <c r="D48" t="n">
-        <v>0.02564102564102564</v>
-      </c>
       <c r="E48" t="n">
-        <v>0.02564102564102564</v>
+        <v>0.05128205128205128</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1470588235294118</v>
+        <v>1</v>
       </c>
       <c r="G48" t="n">
         <v>5.735294117647059</v>
       </c>
       <c r="H48" t="n">
-        <v>0.02117028270874425</v>
-      </c>
-      <c r="I48" t="n">
-        <v>1.142351900972591</v>
+        <v>0.04234056541748849</v>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="J48" t="n">
         <v>1</v>
@@ -2697,25 +2697,25 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
+          <t>frozenset({'HyperSQL'})</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
           <t>frozenset({'Firebird'})</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>frozenset({'HyperSQL'})</t>
-        </is>
-      </c>
       <c r="C58" t="n">
+        <v>0.1948717948717949</v>
+      </c>
+      <c r="D58" t="n">
         <v>0.03076923076923077</v>
-      </c>
-      <c r="D58" t="n">
-        <v>0.1948717948717949</v>
       </c>
       <c r="E58" t="n">
         <v>0.03076923076923077</v>
       </c>
       <c r="F58" t="n">
-        <v>1</v>
+        <v>0.1578947368421053</v>
       </c>
       <c r="G58" t="n">
         <v>5.131578947368421</v>
@@ -2723,10 +2723,8 @@
       <c r="H58" t="n">
         <v>0.02477317554240631</v>
       </c>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="I58" t="n">
+        <v>1.150961538461539</v>
       </c>
       <c r="J58" t="n">
         <v>1</v>
@@ -2738,25 +2736,25 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
+          <t>frozenset({'Firebird'})</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
           <t>frozenset({'HyperSQL'})</t>
         </is>
       </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>frozenset({'Firebird'})</t>
-        </is>
-      </c>
       <c r="C59" t="n">
+        <v>0.03076923076923077</v>
+      </c>
+      <c r="D59" t="n">
         <v>0.1948717948717949</v>
-      </c>
-      <c r="D59" t="n">
-        <v>0.03076923076923077</v>
       </c>
       <c r="E59" t="n">
         <v>0.03076923076923077</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1578947368421053</v>
+        <v>1</v>
       </c>
       <c r="G59" t="n">
         <v>5.131578947368421</v>
@@ -2764,8 +2762,10 @@
       <c r="H59" t="n">
         <v>0.02477317554240631</v>
       </c>
-      <c r="I59" t="n">
-        <v>1.150961538461539</v>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="J59" t="n">
         <v>1</v>
@@ -2894,34 +2894,34 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>frozenset({'MS Access'})</t>
+          <t>frozenset({'MS SQL Server_Microsoft Azure SQL Database'})</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>frozenset({'MS SQL Server_Microsoft Azure SQL Database'})</t>
+          <t>frozenset({'IBM DB2'})</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>0.03076923076923077</v>
+        <v>0.1743589743589744</v>
       </c>
       <c r="D63" t="n">
-        <v>0.1743589743589744</v>
+        <v>0.09230769230769231</v>
       </c>
       <c r="E63" t="n">
-        <v>0.02564102564102564</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="F63" t="n">
-        <v>0.8333333333333333</v>
+        <v>0.4411764705882353</v>
       </c>
       <c r="G63" t="n">
         <v>4.779411764705882</v>
       </c>
       <c r="H63" t="n">
-        <v>0.02027613412228797</v>
+        <v>0.06082840236686391</v>
       </c>
       <c r="I63" t="n">
-        <v>4.953846153846151</v>
+        <v>1.624291497975708</v>
       </c>
       <c r="J63" t="n">
         <v>1</v>
@@ -2972,34 +2972,34 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
+          <t>frozenset({'MS Access'})</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
           <t>frozenset({'MS SQL Server_Microsoft Azure SQL Database'})</t>
         </is>
       </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>frozenset({'IBM DB2'})</t>
-        </is>
-      </c>
       <c r="C65" t="n">
+        <v>0.03076923076923077</v>
+      </c>
+      <c r="D65" t="n">
         <v>0.1743589743589744</v>
       </c>
-      <c r="D65" t="n">
-        <v>0.09230769230769231</v>
-      </c>
       <c r="E65" t="n">
-        <v>0.07692307692307693</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="F65" t="n">
-        <v>0.4411764705882353</v>
+        <v>0.8333333333333333</v>
       </c>
       <c r="G65" t="n">
         <v>4.779411764705882</v>
       </c>
       <c r="H65" t="n">
-        <v>0.06082840236686391</v>
+        <v>0.02027613412228797</v>
       </c>
       <c r="I65" t="n">
-        <v>1.624291497975708</v>
+        <v>4.953846153846151</v>
       </c>
       <c r="J65" t="n">
         <v>1</v>
@@ -3167,25 +3167,25 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
+          <t>frozenset({'MS SQL Server_Microsoft Azure SQL Database'})</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
           <t>frozenset({'Snowflake'})</t>
         </is>
       </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>frozenset({'MS SQL Server_Microsoft Azure SQL Database'})</t>
-        </is>
-      </c>
       <c r="C70" t="n">
+        <v>0.1743589743589744</v>
+      </c>
+      <c r="D70" t="n">
         <v>0.04615384615384616</v>
-      </c>
-      <c r="D70" t="n">
-        <v>0.1743589743589744</v>
       </c>
       <c r="E70" t="n">
         <v>0.03589743589743589</v>
       </c>
       <c r="F70" t="n">
-        <v>0.7777777777777777</v>
+        <v>0.2058823529411765</v>
       </c>
       <c r="G70" t="n">
         <v>4.460784313725489</v>
@@ -3194,7 +3194,7 @@
         <v>0.02785009861932939</v>
       </c>
       <c r="I70" t="n">
-        <v>3.715384615384614</v>
+        <v>1.201139601139601</v>
       </c>
       <c r="J70" t="n">
         <v>1</v>
@@ -3206,25 +3206,25 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
+          <t>frozenset({'Snowflake'})</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
           <t>frozenset({'MS SQL Server_Microsoft Azure SQL Database'})</t>
         </is>
       </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>frozenset({'Snowflake'})</t>
-        </is>
-      </c>
       <c r="C71" t="n">
+        <v>0.04615384615384616</v>
+      </c>
+      <c r="D71" t="n">
         <v>0.1743589743589744</v>
-      </c>
-      <c r="D71" t="n">
-        <v>0.04615384615384616</v>
       </c>
       <c r="E71" t="n">
         <v>0.03589743589743589</v>
       </c>
       <c r="F71" t="n">
-        <v>0.2058823529411765</v>
+        <v>0.7777777777777777</v>
       </c>
       <c r="G71" t="n">
         <v>4.460784313725489</v>
@@ -3233,7 +3233,7 @@
         <v>0.02785009861932939</v>
       </c>
       <c r="I71" t="n">
-        <v>1.201139601139601</v>
+        <v>3.715384615384614</v>
       </c>
       <c r="J71" t="n">
         <v>1</v>
@@ -3323,25 +3323,25 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
+          <t>frozenset({'MongoDB'})</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
           <t>frozenset({'Hazelcast'})</t>
         </is>
       </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>frozenset({'MongoDB'})</t>
-        </is>
-      </c>
       <c r="C74" t="n">
+        <v>0.1435897435897436</v>
+      </c>
+      <c r="D74" t="n">
         <v>0.06666666666666667</v>
-      </c>
-      <c r="D74" t="n">
-        <v>0.1435897435897436</v>
       </c>
       <c r="E74" t="n">
         <v>0.04102564102564103</v>
       </c>
       <c r="F74" t="n">
-        <v>0.6153846153846154</v>
+        <v>0.2857142857142858</v>
       </c>
       <c r="G74" t="n">
         <v>4.285714285714286</v>
@@ -3350,7 +3350,7 @@
         <v>0.03145299145299145</v>
       </c>
       <c r="I74" t="n">
-        <v>2.226666666666667</v>
+        <v>1.306666666666667</v>
       </c>
       <c r="J74" t="n">
         <v>1</v>
@@ -3362,25 +3362,25 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
+          <t>frozenset({'Hazelcast'})</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
           <t>frozenset({'MongoDB'})</t>
         </is>
       </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>frozenset({'Hazelcast'})</t>
-        </is>
-      </c>
       <c r="C75" t="n">
+        <v>0.06666666666666667</v>
+      </c>
+      <c r="D75" t="n">
         <v>0.1435897435897436</v>
-      </c>
-      <c r="D75" t="n">
-        <v>0.06666666666666667</v>
       </c>
       <c r="E75" t="n">
         <v>0.04102564102564103</v>
       </c>
       <c r="F75" t="n">
-        <v>0.2857142857142858</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="G75" t="n">
         <v>4.285714285714286</v>
@@ -3389,7 +3389,7 @@
         <v>0.03145299145299145</v>
       </c>
       <c r="I75" t="n">
-        <v>1.306666666666667</v>
+        <v>2.226666666666667</v>
       </c>
       <c r="J75" t="n">
         <v>1</v>
@@ -3557,25 +3557,25 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
+          <t>frozenset({'PostGIS'})</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
           <t>frozenset({'MS SQL Server_Microsoft Azure SQL Database'})</t>
         </is>
       </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>frozenset({'PostGIS'})</t>
-        </is>
-      </c>
       <c r="C80" t="n">
+        <v>0.03589743589743589</v>
+      </c>
+      <c r="D80" t="n">
         <v>0.1743589743589744</v>
-      </c>
-      <c r="D80" t="n">
-        <v>0.03589743589743589</v>
       </c>
       <c r="E80" t="n">
         <v>0.02564102564102564</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1470588235294118</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="G80" t="n">
         <v>4.096638655462185</v>
@@ -3584,7 +3584,7 @@
         <v>0.01938198553583169</v>
       </c>
       <c r="I80" t="n">
-        <v>1.130327144120248</v>
+        <v>2.88974358974359</v>
       </c>
       <c r="J80" t="n">
         <v>1</v>
@@ -3596,25 +3596,25 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
+          <t>frozenset({'MS SQL Server_Microsoft Azure SQL Database'})</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
           <t>frozenset({'PostGIS'})</t>
         </is>
       </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>frozenset({'MS SQL Server_Microsoft Azure SQL Database'})</t>
-        </is>
-      </c>
       <c r="C81" t="n">
+        <v>0.1743589743589744</v>
+      </c>
+      <c r="D81" t="n">
         <v>0.03589743589743589</v>
-      </c>
-      <c r="D81" t="n">
-        <v>0.1743589743589744</v>
       </c>
       <c r="E81" t="n">
         <v>0.02564102564102564</v>
       </c>
       <c r="F81" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.1470588235294118</v>
       </c>
       <c r="G81" t="n">
         <v>4.096638655462185</v>
@@ -3623,7 +3623,7 @@
         <v>0.01938198553583169</v>
       </c>
       <c r="I81" t="n">
-        <v>2.88974358974359</v>
+        <v>1.130327144120248</v>
       </c>
       <c r="J81" t="n">
         <v>1</v>
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>frozenset({'Firebird'})</t>
+          <t>frozenset({'SapHana'})</t>
         </is>
       </c>
       <c r="C82" t="n">
@@ -3674,7 +3674,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>frozenset({'Firebird'})</t>
+          <t>frozenset({'SapHana'})</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -3715,36 +3715,34 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>frozenset({'SapHana'})</t>
+          <t>frozenset({'Oracle'})</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>frozenset({'Oracle'})</t>
+          <t>frozenset({'ClickHouse'})</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>0.03076923076923077</v>
+        <v>0.2615384615384616</v>
       </c>
       <c r="D84" t="n">
-        <v>0.2615384615384616</v>
+        <v>0.05128205128205128</v>
       </c>
       <c r="E84" t="n">
-        <v>0.03076923076923077</v>
+        <v>0.05128205128205128</v>
       </c>
       <c r="F84" t="n">
-        <v>1</v>
+        <v>0.196078431372549</v>
       </c>
       <c r="G84" t="n">
         <v>3.823529411764706</v>
       </c>
       <c r="H84" t="n">
-        <v>0.02272189349112426</v>
-      </c>
-      <c r="I84" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>0.0378698224852071</v>
+      </c>
+      <c r="I84" t="n">
+        <v>1.180112570356473</v>
       </c>
       <c r="J84" t="n">
         <v>1</v>
@@ -3761,7 +3759,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>frozenset({'SapHana'})</t>
+          <t>frozenset({'MS Access'})</t>
         </is>
       </c>
       <c r="C85" t="n">
@@ -3795,34 +3793,36 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
+          <t>frozenset({'ClickHouse'})</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
           <t>frozenset({'Oracle'})</t>
         </is>
       </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>frozenset({'MarkLogic'})</t>
-        </is>
-      </c>
       <c r="C86" t="n">
+        <v>0.05128205128205128</v>
+      </c>
+      <c r="D86" t="n">
         <v>0.2615384615384616</v>
       </c>
-      <c r="D86" t="n">
-        <v>0.02564102564102564</v>
-      </c>
       <c r="E86" t="n">
-        <v>0.02564102564102564</v>
+        <v>0.05128205128205128</v>
       </c>
       <c r="F86" t="n">
-        <v>0.09803921568627449</v>
+        <v>1</v>
       </c>
       <c r="G86" t="n">
         <v>3.823529411764706</v>
       </c>
       <c r="H86" t="n">
-        <v>0.01893491124260355</v>
-      </c>
-      <c r="I86" t="n">
-        <v>1.080267558528428</v>
+        <v>0.0378698224852071</v>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="J86" t="n">
         <v>1</v>
@@ -3834,36 +3834,34 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>frozenset({'MarkLogic'})</t>
+          <t>frozenset({'Oracle'})</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>frozenset({'Oracle'})</t>
+          <t>frozenset({'SAP Adaptive Server'})</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>0.02564102564102564</v>
+        <v>0.2615384615384616</v>
       </c>
       <c r="D87" t="n">
-        <v>0.2615384615384616</v>
+        <v>0.05128205128205128</v>
       </c>
       <c r="E87" t="n">
-        <v>0.02564102564102564</v>
+        <v>0.05128205128205128</v>
       </c>
       <c r="F87" t="n">
-        <v>1</v>
+        <v>0.196078431372549</v>
       </c>
       <c r="G87" t="n">
         <v>3.823529411764706</v>
       </c>
       <c r="H87" t="n">
-        <v>0.01893491124260355</v>
-      </c>
-      <c r="I87" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>0.0378698224852071</v>
+      </c>
+      <c r="I87" t="n">
+        <v>1.180112570356473</v>
       </c>
       <c r="J87" t="n">
         <v>1</v>
@@ -3875,34 +3873,36 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
+          <t>frozenset({'SAP Adaptive Server'})</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
           <t>frozenset({'Oracle'})</t>
         </is>
       </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>frozenset({'SAP SQL Anywhere'})</t>
-        </is>
-      </c>
       <c r="C88" t="n">
+        <v>0.05128205128205128</v>
+      </c>
+      <c r="D88" t="n">
         <v>0.2615384615384616</v>
       </c>
-      <c r="D88" t="n">
-        <v>0.05641025641025641</v>
-      </c>
       <c r="E88" t="n">
-        <v>0.05641025641025641</v>
+        <v>0.05128205128205128</v>
       </c>
       <c r="F88" t="n">
-        <v>0.2156862745098039</v>
+        <v>1</v>
       </c>
       <c r="G88" t="n">
         <v>3.823529411764706</v>
       </c>
       <c r="H88" t="n">
-        <v>0.04165680473372781</v>
-      </c>
-      <c r="I88" t="n">
-        <v>1.203076923076923</v>
+        <v>0.0378698224852071</v>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="J88" t="n">
         <v>1</v>
@@ -3914,34 +3914,36 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
+          <t>frozenset({'SAP SQL Anywhere'})</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
           <t>frozenset({'Oracle'})</t>
         </is>
       </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>frozenset({'MS Access'})</t>
-        </is>
-      </c>
       <c r="C89" t="n">
+        <v>0.05641025641025641</v>
+      </c>
+      <c r="D89" t="n">
         <v>0.2615384615384616</v>
       </c>
-      <c r="D89" t="n">
-        <v>0.03076923076923077</v>
-      </c>
       <c r="E89" t="n">
-        <v>0.03076923076923077</v>
+        <v>0.05641025641025641</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1176470588235294</v>
+        <v>1</v>
       </c>
       <c r="G89" t="n">
         <v>3.823529411764706</v>
       </c>
       <c r="H89" t="n">
-        <v>0.02272189349112426</v>
-      </c>
-      <c r="I89" t="n">
-        <v>1.098461538461539</v>
+        <v>0.04165680473372781</v>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="J89" t="n">
         <v>1</v>
@@ -3953,7 +3955,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>frozenset({'SAP Adaptive Server'})</t>
+          <t>frozenset({'MS Access'})</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -3962,13 +3964,13 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>0.05128205128205128</v>
+        <v>0.03076923076923077</v>
       </c>
       <c r="D90" t="n">
         <v>0.2615384615384616</v>
       </c>
       <c r="E90" t="n">
-        <v>0.05128205128205128</v>
+        <v>0.03076923076923077</v>
       </c>
       <c r="F90" t="n">
         <v>1</v>
@@ -3977,7 +3979,7 @@
         <v>3.823529411764706</v>
       </c>
       <c r="H90" t="n">
-        <v>0.0378698224852071</v>
+        <v>0.02272189349112426</v>
       </c>
       <c r="I90" t="inlineStr">
         <is>
@@ -3994,36 +3996,34 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>frozenset({'MS Access'})</t>
+          <t>frozenset({'Oracle'})</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>frozenset({'Oracle'})</t>
+          <t>frozenset({'SAP SQL Anywhere'})</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>0.03076923076923077</v>
+        <v>0.2615384615384616</v>
       </c>
       <c r="D91" t="n">
-        <v>0.2615384615384616</v>
+        <v>0.05641025641025641</v>
       </c>
       <c r="E91" t="n">
-        <v>0.03076923076923077</v>
+        <v>0.05641025641025641</v>
       </c>
       <c r="F91" t="n">
-        <v>1</v>
+        <v>0.2156862745098039</v>
       </c>
       <c r="G91" t="n">
         <v>3.823529411764706</v>
       </c>
       <c r="H91" t="n">
-        <v>0.02272189349112426</v>
-      </c>
-      <c r="I91" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>0.04165680473372781</v>
+      </c>
+      <c r="I91" t="n">
+        <v>1.203076923076923</v>
       </c>
       <c r="J91" t="n">
         <v>1</v>
@@ -4035,7 +4035,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>frozenset({'SAP SQL Anywhere'})</t>
+          <t>frozenset({'Firebird'})</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -4044,13 +4044,13 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>0.05641025641025641</v>
+        <v>0.03076923076923077</v>
       </c>
       <c r="D92" t="n">
         <v>0.2615384615384616</v>
       </c>
       <c r="E92" t="n">
-        <v>0.05641025641025641</v>
+        <v>0.03076923076923077</v>
       </c>
       <c r="F92" t="n">
         <v>1</v>
@@ -4059,7 +4059,7 @@
         <v>3.823529411764706</v>
       </c>
       <c r="H92" t="n">
-        <v>0.04165680473372781</v>
+        <v>0.02272189349112426</v>
       </c>
       <c r="I92" t="inlineStr">
         <is>
@@ -4076,25 +4076,25 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
+          <t>frozenset({'Informix'})</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
           <t>frozenset({'Oracle'})</t>
         </is>
       </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>frozenset({'Informix'})</t>
-        </is>
-      </c>
       <c r="C93" t="n">
+        <v>0.03589743589743589</v>
+      </c>
+      <c r="D93" t="n">
         <v>0.2615384615384616</v>
-      </c>
-      <c r="D93" t="n">
-        <v>0.03589743589743589</v>
       </c>
       <c r="E93" t="n">
         <v>0.03589743589743589</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1372549019607843</v>
+        <v>1</v>
       </c>
       <c r="G93" t="n">
         <v>3.823529411764706</v>
@@ -4102,8 +4102,10 @@
       <c r="H93" t="n">
         <v>0.02650887573964497</v>
       </c>
-      <c r="I93" t="n">
-        <v>1.117482517482517</v>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="J93" t="n">
         <v>1</v>
@@ -4115,36 +4117,34 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>frozenset({'Informix'})</t>
+          <t>frozenset({'Oracle'})</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>frozenset({'Oracle'})</t>
+          <t>frozenset({'Firebird'})</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>0.03589743589743589</v>
+        <v>0.2615384615384616</v>
       </c>
       <c r="D94" t="n">
-        <v>0.2615384615384616</v>
+        <v>0.03076923076923077</v>
       </c>
       <c r="E94" t="n">
-        <v>0.03589743589743589</v>
+        <v>0.03076923076923077</v>
       </c>
       <c r="F94" t="n">
-        <v>1</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="G94" t="n">
         <v>3.823529411764706</v>
       </c>
       <c r="H94" t="n">
-        <v>0.02650887573964497</v>
-      </c>
-      <c r="I94" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>0.02272189349112426</v>
+      </c>
+      <c r="I94" t="n">
+        <v>1.098461538461539</v>
       </c>
       <c r="J94" t="n">
         <v>1</v>
@@ -4156,36 +4156,34 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>frozenset({'ClickHouse'})</t>
+          <t>frozenset({'Oracle'})</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>frozenset({'Oracle'})</t>
+          <t>frozenset({'Informix'})</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>0.05128205128205128</v>
+        <v>0.2615384615384616</v>
       </c>
       <c r="D95" t="n">
-        <v>0.2615384615384616</v>
+        <v>0.03589743589743589</v>
       </c>
       <c r="E95" t="n">
-        <v>0.05128205128205128</v>
+        <v>0.03589743589743589</v>
       </c>
       <c r="F95" t="n">
-        <v>1</v>
+        <v>0.1372549019607843</v>
       </c>
       <c r="G95" t="n">
         <v>3.823529411764706</v>
       </c>
       <c r="H95" t="n">
-        <v>0.0378698224852071</v>
-      </c>
-      <c r="I95" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>0.02650887573964497</v>
+      </c>
+      <c r="I95" t="n">
+        <v>1.117482517482517</v>
       </c>
       <c r="J95" t="n">
         <v>1</v>
@@ -4197,34 +4195,36 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
+          <t>frozenset({'MarkLogic'})</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
           <t>frozenset({'Oracle'})</t>
         </is>
       </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>frozenset({'SAP Adaptive Server'})</t>
-        </is>
-      </c>
       <c r="C96" t="n">
+        <v>0.02564102564102564</v>
+      </c>
+      <c r="D96" t="n">
         <v>0.2615384615384616</v>
       </c>
-      <c r="D96" t="n">
-        <v>0.05128205128205128</v>
-      </c>
       <c r="E96" t="n">
-        <v>0.05128205128205128</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="F96" t="n">
-        <v>0.196078431372549</v>
+        <v>1</v>
       </c>
       <c r="G96" t="n">
         <v>3.823529411764706</v>
       </c>
       <c r="H96" t="n">
-        <v>0.0378698224852071</v>
-      </c>
-      <c r="I96" t="n">
-        <v>1.180112570356473</v>
+        <v>0.01893491124260355</v>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="J96" t="n">
         <v>1</v>
@@ -4241,29 +4241,29 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>frozenset({'ClickHouse'})</t>
+          <t>frozenset({'MarkLogic'})</t>
         </is>
       </c>
       <c r="C97" t="n">
         <v>0.2615384615384616</v>
       </c>
       <c r="D97" t="n">
-        <v>0.05128205128205128</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="E97" t="n">
-        <v>0.05128205128205128</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="F97" t="n">
-        <v>0.196078431372549</v>
+        <v>0.09803921568627449</v>
       </c>
       <c r="G97" t="n">
         <v>3.823529411764706</v>
       </c>
       <c r="H97" t="n">
-        <v>0.0378698224852071</v>
+        <v>0.01893491124260355</v>
       </c>
       <c r="I97" t="n">
-        <v>1.180112570356473</v>
+        <v>1.080267558528428</v>
       </c>
       <c r="J97" t="n">
         <v>1</v>
@@ -4275,25 +4275,25 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
+          <t>frozenset({'SQLite'})</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
           <t>frozenset({'SAP Adaptive Server'})</t>
         </is>
       </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>frozenset({'SQLite'})</t>
-        </is>
-      </c>
       <c r="C98" t="n">
+        <v>0.1333333333333333</v>
+      </c>
+      <c r="D98" t="n">
         <v>0.05128205128205128</v>
-      </c>
-      <c r="D98" t="n">
-        <v>0.1333333333333333</v>
       </c>
       <c r="E98" t="n">
         <v>0.02564102564102564</v>
       </c>
       <c r="F98" t="n">
-        <v>0.5</v>
+        <v>0.1923076923076923</v>
       </c>
       <c r="G98" t="n">
         <v>3.75</v>
@@ -4302,7 +4302,7 @@
         <v>0.0188034188034188</v>
       </c>
       <c r="I98" t="n">
-        <v>1.733333333333333</v>
+        <v>1.174603174603174</v>
       </c>
       <c r="J98" t="n">
         <v>1</v>
@@ -4314,25 +4314,25 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
+          <t>frozenset({'SAP Adaptive Server'})</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
           <t>frozenset({'SQLite'})</t>
         </is>
       </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>frozenset({'SAP Adaptive Server'})</t>
-        </is>
-      </c>
       <c r="C99" t="n">
+        <v>0.05128205128205128</v>
+      </c>
+      <c r="D99" t="n">
         <v>0.1333333333333333</v>
-      </c>
-      <c r="D99" t="n">
-        <v>0.05128205128205128</v>
       </c>
       <c r="E99" t="n">
         <v>0.02564102564102564</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1923076923076923</v>
+        <v>0.5</v>
       </c>
       <c r="G99" t="n">
         <v>3.75</v>
@@ -4341,7 +4341,7 @@
         <v>0.0188034188034188</v>
       </c>
       <c r="I99" t="n">
-        <v>1.174603174603174</v>
+        <v>1.733333333333333</v>
       </c>
       <c r="J99" t="n">
         <v>1</v>
@@ -4431,25 +4431,25 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
+          <t>frozenset({'PostGIS'})</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
           <t>frozenset({'HyperSQL'})</t>
         </is>
       </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>frozenset({'PostGIS'})</t>
-        </is>
-      </c>
       <c r="C102" t="n">
+        <v>0.03589743589743589</v>
+      </c>
+      <c r="D102" t="n">
         <v>0.1948717948717949</v>
-      </c>
-      <c r="D102" t="n">
-        <v>0.03589743589743589</v>
       </c>
       <c r="E102" t="n">
         <v>0.02564102564102564</v>
       </c>
       <c r="F102" t="n">
-        <v>0.131578947368421</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="G102" t="n">
         <v>3.665413533834586</v>
@@ -4458,7 +4458,7 @@
         <v>0.01864562787639711</v>
       </c>
       <c r="I102" t="n">
-        <v>1.11017871017871</v>
+        <v>2.817948717948718</v>
       </c>
       <c r="J102" t="n">
         <v>1</v>
@@ -4470,25 +4470,25 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
+          <t>frozenset({'HyperSQL'})</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
           <t>frozenset({'PostGIS'})</t>
         </is>
       </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>frozenset({'HyperSQL'})</t>
-        </is>
-      </c>
       <c r="C103" t="n">
+        <v>0.1948717948717949</v>
+      </c>
+      <c r="D103" t="n">
         <v>0.03589743589743589</v>
-      </c>
-      <c r="D103" t="n">
-        <v>0.1948717948717949</v>
       </c>
       <c r="E103" t="n">
         <v>0.02564102564102564</v>
       </c>
       <c r="F103" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.131578947368421</v>
       </c>
       <c r="G103" t="n">
         <v>3.665413533834586</v>
@@ -4497,7 +4497,7 @@
         <v>0.01864562787639711</v>
       </c>
       <c r="I103" t="n">
-        <v>2.817948717948718</v>
+        <v>1.11017871017871</v>
       </c>
       <c r="J103" t="n">
         <v>1</v>
@@ -4509,25 +4509,25 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
+          <t>frozenset({'MongoDB'})</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
           <t>frozenset({'HBase'})</t>
         </is>
       </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>frozenset({'MongoDB'})</t>
-        </is>
-      </c>
       <c r="C104" t="n">
+        <v>0.1435897435897436</v>
+      </c>
+      <c r="D104" t="n">
         <v>0.06153846153846154</v>
-      </c>
-      <c r="D104" t="n">
-        <v>0.1435897435897436</v>
       </c>
       <c r="E104" t="n">
         <v>0.03076923076923077</v>
       </c>
       <c r="F104" t="n">
-        <v>0.5</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="G104" t="n">
         <v>3.482142857142857</v>
@@ -4536,7 +4536,7 @@
         <v>0.02193293885601578</v>
       </c>
       <c r="I104" t="n">
-        <v>1.712820512820513</v>
+        <v>1.194405594405594</v>
       </c>
       <c r="J104" t="n">
         <v>1</v>
@@ -4548,25 +4548,25 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
+          <t>frozenset({'HBase'})</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
           <t>frozenset({'MongoDB'})</t>
         </is>
       </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>frozenset({'HBase'})</t>
-        </is>
-      </c>
       <c r="C105" t="n">
+        <v>0.06153846153846154</v>
+      </c>
+      <c r="D105" t="n">
         <v>0.1435897435897436</v>
-      </c>
-      <c r="D105" t="n">
-        <v>0.06153846153846154</v>
       </c>
       <c r="E105" t="n">
         <v>0.03076923076923077</v>
       </c>
       <c r="F105" t="n">
-        <v>0.2142857142857143</v>
+        <v>0.5</v>
       </c>
       <c r="G105" t="n">
         <v>3.482142857142857</v>
@@ -4575,7 +4575,7 @@
         <v>0.02193293885601578</v>
       </c>
       <c r="I105" t="n">
-        <v>1.194405594405594</v>
+        <v>1.712820512820513</v>
       </c>
       <c r="J105" t="n">
         <v>1</v>
@@ -5135,25 +5135,25 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
+          <t>frozenset({'H2'})</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
           <t>frozenset({'Firebird'})</t>
         </is>
       </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>frozenset({'PostgreSQL_ CockroachDB'})</t>
-        </is>
-      </c>
       <c r="C120" t="n">
+        <v>0.3384615384615385</v>
+      </c>
+      <c r="D120" t="n">
         <v>0.03076923076923077</v>
-      </c>
-      <c r="D120" t="n">
-        <v>0.3384615384615385</v>
       </c>
       <c r="E120" t="n">
         <v>0.03076923076923077</v>
       </c>
       <c r="F120" t="n">
-        <v>1</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="G120" t="n">
         <v>2.954545454545455</v>
@@ -5161,10 +5161,8 @@
       <c r="H120" t="n">
         <v>0.02035502958579882</v>
       </c>
-      <c r="I120" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="I120" t="n">
+        <v>1.066153846153846</v>
       </c>
       <c r="J120" t="n">
         <v>1</v>
@@ -5176,25 +5174,25 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
+          <t>frozenset({'Informix'})</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
           <t>frozenset({'H2'})</t>
         </is>
       </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>frozenset({'Informix'})</t>
-        </is>
-      </c>
       <c r="C121" t="n">
+        <v>0.03589743589743589</v>
+      </c>
+      <c r="D121" t="n">
         <v>0.3384615384615385</v>
-      </c>
-      <c r="D121" t="n">
-        <v>0.03589743589743589</v>
       </c>
       <c r="E121" t="n">
         <v>0.03589743589743589</v>
       </c>
       <c r="F121" t="n">
-        <v>0.106060606060606</v>
+        <v>1</v>
       </c>
       <c r="G121" t="n">
         <v>2.954545454545455</v>
@@ -5202,8 +5200,10 @@
       <c r="H121" t="n">
         <v>0.02374753451676528</v>
       </c>
-      <c r="I121" t="n">
-        <v>1.078487614080834</v>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="J121" t="n">
         <v>1</v>
@@ -5215,25 +5215,25 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
+          <t>frozenset({'H2'})</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
           <t>frozenset({'Informix'})</t>
         </is>
       </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>frozenset({'H2'})</t>
-        </is>
-      </c>
       <c r="C122" t="n">
+        <v>0.3384615384615385</v>
+      </c>
+      <c r="D122" t="n">
         <v>0.03589743589743589</v>
-      </c>
-      <c r="D122" t="n">
-        <v>0.3384615384615385</v>
       </c>
       <c r="E122" t="n">
         <v>0.03589743589743589</v>
       </c>
       <c r="F122" t="n">
-        <v>1</v>
+        <v>0.106060606060606</v>
       </c>
       <c r="G122" t="n">
         <v>2.954545454545455</v>
@@ -5241,10 +5241,8 @@
       <c r="H122" t="n">
         <v>0.02374753451676528</v>
       </c>
-      <c r="I122" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="I122" t="n">
+        <v>1.078487614080834</v>
       </c>
       <c r="J122" t="n">
         <v>1</v>
@@ -5302,29 +5300,29 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>frozenset({'PostGIS'})</t>
+          <t>frozenset({'SapHana'})</t>
         </is>
       </c>
       <c r="C124" t="n">
         <v>0.3384615384615385</v>
       </c>
       <c r="D124" t="n">
-        <v>0.03589743589743589</v>
+        <v>0.03076923076923077</v>
       </c>
       <c r="E124" t="n">
-        <v>0.03589743589743589</v>
+        <v>0.03076923076923077</v>
       </c>
       <c r="F124" t="n">
-        <v>0.106060606060606</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="G124" t="n">
         <v>2.954545454545455</v>
       </c>
       <c r="H124" t="n">
-        <v>0.02374753451676528</v>
+        <v>0.02035502958579882</v>
       </c>
       <c r="I124" t="n">
-        <v>1.078487614080834</v>
+        <v>1.066153846153846</v>
       </c>
       <c r="J124" t="n">
         <v>1</v>
@@ -5336,7 +5334,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>frozenset({'PostGIS'})</t>
+          <t>frozenset({'SapHana'})</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -5345,13 +5343,13 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>0.03589743589743589</v>
+        <v>0.03076923076923077</v>
       </c>
       <c r="D125" t="n">
         <v>0.3384615384615385</v>
       </c>
       <c r="E125" t="n">
-        <v>0.03589743589743589</v>
+        <v>0.03076923076923077</v>
       </c>
       <c r="F125" t="n">
         <v>1</v>
@@ -5360,7 +5358,7 @@
         <v>2.954545454545455</v>
       </c>
       <c r="H125" t="n">
-        <v>0.02374753451676528</v>
+        <v>0.02035502958579882</v>
       </c>
       <c r="I125" t="inlineStr">
         <is>
@@ -5377,25 +5375,25 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
+          <t>frozenset({'PostgreSQL_ CockroachDB'})</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
           <t>frozenset({'SapHana'})</t>
         </is>
       </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>frozenset({'PostgreSQL_ CockroachDB'})</t>
-        </is>
-      </c>
       <c r="C126" t="n">
+        <v>0.3384615384615385</v>
+      </c>
+      <c r="D126" t="n">
         <v>0.03076923076923077</v>
-      </c>
-      <c r="D126" t="n">
-        <v>0.3384615384615385</v>
       </c>
       <c r="E126" t="n">
         <v>0.03076923076923077</v>
       </c>
       <c r="F126" t="n">
-        <v>1</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="G126" t="n">
         <v>2.954545454545455</v>
@@ -5403,10 +5401,8 @@
       <c r="H126" t="n">
         <v>0.02035502958579882</v>
       </c>
-      <c r="I126" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="I126" t="n">
+        <v>1.066153846153846</v>
       </c>
       <c r="J126" t="n">
         <v>1</v>
@@ -5418,25 +5414,25 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
+          <t>frozenset({'SapHana'})</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
           <t>frozenset({'PostgreSQL_ CockroachDB'})</t>
         </is>
       </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>frozenset({'SapHana'})</t>
-        </is>
-      </c>
       <c r="C127" t="n">
+        <v>0.03076923076923077</v>
+      </c>
+      <c r="D127" t="n">
         <v>0.3384615384615385</v>
-      </c>
-      <c r="D127" t="n">
-        <v>0.03076923076923077</v>
       </c>
       <c r="E127" t="n">
         <v>0.03076923076923077</v>
       </c>
       <c r="F127" t="n">
-        <v>0.09090909090909091</v>
+        <v>1</v>
       </c>
       <c r="G127" t="n">
         <v>2.954545454545455</v>
@@ -5444,8 +5440,10 @@
       <c r="H127" t="n">
         <v>0.02035502958579882</v>
       </c>
-      <c r="I127" t="n">
-        <v>1.066153846153846</v>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="J127" t="n">
         <v>1</v>
@@ -5457,34 +5455,34 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>frozenset({'PostgreSQL_ CockroachDB'})</t>
+          <t>frozenset({'H2'})</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>frozenset({'Firebird'})</t>
+          <t>frozenset({'PostGIS'})</t>
         </is>
       </c>
       <c r="C128" t="n">
         <v>0.3384615384615385</v>
       </c>
       <c r="D128" t="n">
-        <v>0.03076923076923077</v>
+        <v>0.03589743589743589</v>
       </c>
       <c r="E128" t="n">
-        <v>0.03076923076923077</v>
+        <v>0.03589743589743589</v>
       </c>
       <c r="F128" t="n">
-        <v>0.09090909090909091</v>
+        <v>0.106060606060606</v>
       </c>
       <c r="G128" t="n">
         <v>2.954545454545455</v>
       </c>
       <c r="H128" t="n">
-        <v>0.02035502958579882</v>
+        <v>0.02374753451676528</v>
       </c>
       <c r="I128" t="n">
-        <v>1.066153846153846</v>
+        <v>1.078487614080834</v>
       </c>
       <c r="J128" t="n">
         <v>1</v>
@@ -5496,34 +5494,36 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
+          <t>frozenset({'PostGIS'})</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
           <t>frozenset({'H2'})</t>
         </is>
       </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>frozenset({'SapHana'})</t>
-        </is>
-      </c>
       <c r="C129" t="n">
+        <v>0.03589743589743589</v>
+      </c>
+      <c r="D129" t="n">
         <v>0.3384615384615385</v>
       </c>
-      <c r="D129" t="n">
-        <v>0.03076923076923077</v>
-      </c>
       <c r="E129" t="n">
-        <v>0.03076923076923077</v>
+        <v>0.03589743589743589</v>
       </c>
       <c r="F129" t="n">
-        <v>0.09090909090909091</v>
+        <v>1</v>
       </c>
       <c r="G129" t="n">
         <v>2.954545454545455</v>
       </c>
       <c r="H129" t="n">
-        <v>0.02035502958579882</v>
-      </c>
-      <c r="I129" t="n">
-        <v>1.066153846153846</v>
+        <v>0.02374753451676528</v>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="J129" t="n">
         <v>1</v>
@@ -5535,34 +5535,36 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>frozenset({'H2'})</t>
+          <t>frozenset({'MarkLogic'})</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>frozenset({'Firebird'})</t>
+          <t>frozenset({'PostgreSQL_ CockroachDB'})</t>
         </is>
       </c>
       <c r="C130" t="n">
+        <v>0.02564102564102564</v>
+      </c>
+      <c r="D130" t="n">
         <v>0.3384615384615385</v>
       </c>
-      <c r="D130" t="n">
-        <v>0.03076923076923077</v>
-      </c>
       <c r="E130" t="n">
-        <v>0.03076923076923077</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="F130" t="n">
-        <v>0.09090909090909091</v>
+        <v>1</v>
       </c>
       <c r="G130" t="n">
         <v>2.954545454545455</v>
       </c>
       <c r="H130" t="n">
-        <v>0.02035502958579882</v>
-      </c>
-      <c r="I130" t="n">
-        <v>1.066153846153846</v>
+        <v>0.01696252465483235</v>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="J130" t="n">
         <v>1</v>
@@ -5574,22 +5576,22 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>frozenset({'SapHana'})</t>
+          <t>frozenset({'PostGIS'})</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>frozenset({'H2'})</t>
+          <t>frozenset({'PostgreSQL_ CockroachDB'})</t>
         </is>
       </c>
       <c r="C131" t="n">
-        <v>0.03076923076923077</v>
+        <v>0.03589743589743589</v>
       </c>
       <c r="D131" t="n">
         <v>0.3384615384615385</v>
       </c>
       <c r="E131" t="n">
-        <v>0.03076923076923077</v>
+        <v>0.03589743589743589</v>
       </c>
       <c r="F131" t="n">
         <v>1</v>
@@ -5598,7 +5600,7 @@
         <v>2.954545454545455</v>
       </c>
       <c r="H131" t="n">
-        <v>0.02035502958579882</v>
+        <v>0.02374753451676528</v>
       </c>
       <c r="I131" t="inlineStr">
         <is>
@@ -5615,36 +5617,34 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>frozenset({'MarkLogic'})</t>
+          <t>frozenset({'PostgreSQL_ CockroachDB'})</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>frozenset({'PostgreSQL_ CockroachDB'})</t>
+          <t>frozenset({'Informix'})</t>
         </is>
       </c>
       <c r="C132" t="n">
-        <v>0.02564102564102564</v>
+        <v>0.3384615384615385</v>
       </c>
       <c r="D132" t="n">
-        <v>0.3384615384615385</v>
+        <v>0.03589743589743589</v>
       </c>
       <c r="E132" t="n">
-        <v>0.02564102564102564</v>
+        <v>0.03589743589743589</v>
       </c>
       <c r="F132" t="n">
-        <v>1</v>
+        <v>0.106060606060606</v>
       </c>
       <c r="G132" t="n">
         <v>2.954545454545455</v>
       </c>
       <c r="H132" t="n">
-        <v>0.01696252465483235</v>
-      </c>
-      <c r="I132" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>0.02374753451676528</v>
+      </c>
+      <c r="I132" t="n">
+        <v>1.078487614080834</v>
       </c>
       <c r="J132" t="n">
         <v>1</v>
@@ -5656,7 +5656,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>frozenset({'SAP Adaptive Server'})</t>
+          <t>frozenset({'IBM DB2'})</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -5665,13 +5665,13 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>0.05128205128205128</v>
+        <v>0.09230769230769231</v>
       </c>
       <c r="D133" t="n">
         <v>0.3384615384615385</v>
       </c>
       <c r="E133" t="n">
-        <v>0.05128205128205128</v>
+        <v>0.09230769230769231</v>
       </c>
       <c r="F133" t="n">
         <v>1</v>
@@ -5680,7 +5680,7 @@
         <v>2.954545454545455</v>
       </c>
       <c r="H133" t="n">
-        <v>0.0339250493096647</v>
+        <v>0.06106508875739645</v>
       </c>
       <c r="I133" t="inlineStr">
         <is>
@@ -5697,25 +5697,25 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
+          <t>frozenset({'Informix'})</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
           <t>frozenset({'PostgreSQL_ CockroachDB'})</t>
         </is>
       </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>frozenset({'PostGIS'})</t>
-        </is>
-      </c>
       <c r="C134" t="n">
+        <v>0.03589743589743589</v>
+      </c>
+      <c r="D134" t="n">
         <v>0.3384615384615385</v>
-      </c>
-      <c r="D134" t="n">
-        <v>0.03589743589743589</v>
       </c>
       <c r="E134" t="n">
         <v>0.03589743589743589</v>
       </c>
       <c r="F134" t="n">
-        <v>0.106060606060606</v>
+        <v>1</v>
       </c>
       <c r="G134" t="n">
         <v>2.954545454545455</v>
@@ -5723,8 +5723,10 @@
       <c r="H134" t="n">
         <v>0.02374753451676528</v>
       </c>
-      <c r="I134" t="n">
-        <v>1.078487614080834</v>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="J134" t="n">
         <v>1</v>
@@ -5736,7 +5738,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>frozenset({'ClickHouse'})</t>
+          <t>frozenset({'Firebird'})</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -5745,13 +5747,13 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>0.05128205128205128</v>
+        <v>0.03076923076923077</v>
       </c>
       <c r="D135" t="n">
         <v>0.3384615384615385</v>
       </c>
       <c r="E135" t="n">
-        <v>0.05128205128205128</v>
+        <v>0.03076923076923077</v>
       </c>
       <c r="F135" t="n">
         <v>1</v>
@@ -5760,7 +5762,7 @@
         <v>2.954545454545455</v>
       </c>
       <c r="H135" t="n">
-        <v>0.0339250493096647</v>
+        <v>0.02035502958579882</v>
       </c>
       <c r="I135" t="inlineStr">
         <is>
@@ -5777,36 +5779,34 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>frozenset({'PostGIS'})</t>
+          <t>frozenset({'PostgreSQL_ CockroachDB'})</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>frozenset({'PostgreSQL_ CockroachDB'})</t>
+          <t>frozenset({'Firebird'})</t>
         </is>
       </c>
       <c r="C136" t="n">
-        <v>0.03589743589743589</v>
+        <v>0.3384615384615385</v>
       </c>
       <c r="D136" t="n">
-        <v>0.3384615384615385</v>
+        <v>0.03076923076923077</v>
       </c>
       <c r="E136" t="n">
-        <v>0.03589743589743589</v>
+        <v>0.03076923076923077</v>
       </c>
       <c r="F136" t="n">
-        <v>1</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="G136" t="n">
         <v>2.954545454545455</v>
       </c>
       <c r="H136" t="n">
-        <v>0.02374753451676528</v>
-      </c>
-      <c r="I136" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>0.02035502958579882</v>
+      </c>
+      <c r="I136" t="n">
+        <v>1.066153846153846</v>
       </c>
       <c r="J136" t="n">
         <v>1</v>
@@ -5859,7 +5859,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>frozenset({'IBM DB2'})</t>
+          <t>frozenset({'SAP Adaptive Server'})</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -5868,13 +5868,13 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>0.09230769230769231</v>
+        <v>0.05128205128205128</v>
       </c>
       <c r="D138" t="n">
         <v>0.3384615384615385</v>
       </c>
       <c r="E138" t="n">
-        <v>0.09230769230769231</v>
+        <v>0.05128205128205128</v>
       </c>
       <c r="F138" t="n">
         <v>1</v>
@@ -5883,7 +5883,7 @@
         <v>2.954545454545455</v>
       </c>
       <c r="H138" t="n">
-        <v>0.06106508875739645</v>
+        <v>0.0339250493096647</v>
       </c>
       <c r="I138" t="inlineStr">
         <is>
@@ -5900,34 +5900,36 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
+          <t>frozenset({'ClickHouse'})</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
           <t>frozenset({'PostgreSQL_ CockroachDB'})</t>
         </is>
       </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>frozenset({'MS Access'})</t>
-        </is>
-      </c>
       <c r="C139" t="n">
+        <v>0.05128205128205128</v>
+      </c>
+      <c r="D139" t="n">
         <v>0.3384615384615385</v>
       </c>
-      <c r="D139" t="n">
-        <v>0.03076923076923077</v>
-      </c>
       <c r="E139" t="n">
-        <v>0.03076923076923077</v>
+        <v>0.05128205128205128</v>
       </c>
       <c r="F139" t="n">
-        <v>0.09090909090909091</v>
+        <v>1</v>
       </c>
       <c r="G139" t="n">
         <v>2.954545454545455</v>
       </c>
       <c r="H139" t="n">
-        <v>0.02035502958579882</v>
-      </c>
-      <c r="I139" t="n">
-        <v>1.066153846153846</v>
+        <v>0.0339250493096647</v>
+      </c>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="J139" t="n">
         <v>1</v>
@@ -5939,36 +5941,34 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>frozenset({'SAP SQL Anywhere'})</t>
+          <t>frozenset({'PostgreSQL_ CockroachDB'})</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>frozenset({'PostgreSQL_ CockroachDB'})</t>
+          <t>frozenset({'PostGIS'})</t>
         </is>
       </c>
       <c r="C140" t="n">
-        <v>0.05641025641025641</v>
+        <v>0.3384615384615385</v>
       </c>
       <c r="D140" t="n">
-        <v>0.3384615384615385</v>
+        <v>0.03589743589743589</v>
       </c>
       <c r="E140" t="n">
-        <v>0.05641025641025641</v>
+        <v>0.03589743589743589</v>
       </c>
       <c r="F140" t="n">
-        <v>1</v>
+        <v>0.106060606060606</v>
       </c>
       <c r="G140" t="n">
         <v>2.954545454545455</v>
       </c>
       <c r="H140" t="n">
-        <v>0.03731755424063116</v>
-      </c>
-      <c r="I140" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>0.02374753451676528</v>
+      </c>
+      <c r="I140" t="n">
+        <v>1.078487614080834</v>
       </c>
       <c r="J140" t="n">
         <v>1</v>
@@ -5980,7 +5980,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>frozenset({'Informix'})</t>
+          <t>frozenset({'SAP SQL Anywhere'})</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -5989,13 +5989,13 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>0.03589743589743589</v>
+        <v>0.05641025641025641</v>
       </c>
       <c r="D141" t="n">
         <v>0.3384615384615385</v>
       </c>
       <c r="E141" t="n">
-        <v>0.03589743589743589</v>
+        <v>0.05641025641025641</v>
       </c>
       <c r="F141" t="n">
         <v>1</v>
@@ -6004,7 +6004,7 @@
         <v>2.954545454545455</v>
       </c>
       <c r="H141" t="n">
-        <v>0.02374753451676528</v>
+        <v>0.03731755424063116</v>
       </c>
       <c r="I141" t="inlineStr">
         <is>
@@ -6026,29 +6026,29 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>frozenset({'Informix'})</t>
+          <t>frozenset({'MS Access'})</t>
         </is>
       </c>
       <c r="C142" t="n">
         <v>0.3384615384615385</v>
       </c>
       <c r="D142" t="n">
-        <v>0.03589743589743589</v>
+        <v>0.03076923076923077</v>
       </c>
       <c r="E142" t="n">
-        <v>0.03589743589743589</v>
+        <v>0.03076923076923077</v>
       </c>
       <c r="F142" t="n">
-        <v>0.106060606060606</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="G142" t="n">
         <v>2.954545454545455</v>
       </c>
       <c r="H142" t="n">
-        <v>0.02374753451676528</v>
+        <v>0.02035502958579882</v>
       </c>
       <c r="I142" t="n">
-        <v>1.078487614080834</v>
+        <v>1.066153846153846</v>
       </c>
       <c r="J142" t="n">
         <v>1</v>
@@ -6065,29 +6065,29 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>frozenset({'MarkLogic'})</t>
+          <t>frozenset({'IBM DB2'})</t>
         </is>
       </c>
       <c r="C143" t="n">
         <v>0.3384615384615385</v>
       </c>
       <c r="D143" t="n">
-        <v>0.02564102564102564</v>
+        <v>0.09230769230769231</v>
       </c>
       <c r="E143" t="n">
-        <v>0.02564102564102564</v>
+        <v>0.09230769230769231</v>
       </c>
       <c r="F143" t="n">
-        <v>0.07575757575757575</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="G143" t="n">
         <v>2.954545454545454</v>
       </c>
       <c r="H143" t="n">
-        <v>0.01696252465483235</v>
+        <v>0.06106508875739645</v>
       </c>
       <c r="I143" t="n">
-        <v>1.05422446406053</v>
+        <v>1.248076923076923</v>
       </c>
       <c r="J143" t="n">
         <v>1</v>
@@ -6104,29 +6104,29 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>frozenset({'ClickHouse'})</t>
+          <t>frozenset({'SAP SQL Anywhere'})</t>
         </is>
       </c>
       <c r="C144" t="n">
         <v>0.3384615384615385</v>
       </c>
       <c r="D144" t="n">
-        <v>0.05128205128205128</v>
+        <v>0.05641025641025641</v>
       </c>
       <c r="E144" t="n">
-        <v>0.05128205128205128</v>
+        <v>0.05641025641025641</v>
       </c>
       <c r="F144" t="n">
-        <v>0.1515151515151515</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="G144" t="n">
         <v>2.954545454545454</v>
       </c>
       <c r="H144" t="n">
-        <v>0.0339250493096647</v>
+        <v>0.03731755424063116</v>
       </c>
       <c r="I144" t="n">
-        <v>1.118131868131868</v>
+        <v>1.132307692307692</v>
       </c>
       <c r="J144" t="n">
         <v>1</v>
@@ -6182,29 +6182,29 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>frozenset({'SAP SQL Anywhere'})</t>
+          <t>frozenset({'ClickHouse'})</t>
         </is>
       </c>
       <c r="C146" t="n">
         <v>0.3384615384615385</v>
       </c>
       <c r="D146" t="n">
-        <v>0.05641025641025641</v>
+        <v>0.05128205128205128</v>
       </c>
       <c r="E146" t="n">
-        <v>0.05641025641025641</v>
+        <v>0.05128205128205128</v>
       </c>
       <c r="F146" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.1515151515151515</v>
       </c>
       <c r="G146" t="n">
         <v>2.954545454545454</v>
       </c>
       <c r="H146" t="n">
-        <v>0.03731755424063116</v>
+        <v>0.0339250493096647</v>
       </c>
       <c r="I146" t="n">
-        <v>1.132307692307692</v>
+        <v>1.118131868131868</v>
       </c>
       <c r="J146" t="n">
         <v>1</v>
@@ -6221,29 +6221,29 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>frozenset({'IBM DB2'})</t>
+          <t>frozenset({'MarkLogic'})</t>
         </is>
       </c>
       <c r="C147" t="n">
         <v>0.3384615384615385</v>
       </c>
       <c r="D147" t="n">
-        <v>0.09230769230769231</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="E147" t="n">
-        <v>0.09230769230769231</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="F147" t="n">
-        <v>0.2727272727272727</v>
+        <v>0.07575757575757575</v>
       </c>
       <c r="G147" t="n">
         <v>2.954545454545454</v>
       </c>
       <c r="H147" t="n">
-        <v>0.06106508875739645</v>
+        <v>0.01696252465483235</v>
       </c>
       <c r="I147" t="n">
-        <v>1.248076923076923</v>
+        <v>1.05422446406053</v>
       </c>
       <c r="J147" t="n">
         <v>1</v>
@@ -6333,25 +6333,25 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
+          <t>frozenset({'MS SQL Server_Microsoft Azure SQL Database'})</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
           <t>frozenset({'Oracle'})</t>
         </is>
       </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>frozenset({'MS SQL Server_Microsoft Azure SQL Database'})</t>
-        </is>
-      </c>
       <c r="C150" t="n">
+        <v>0.1743589743589744</v>
+      </c>
+      <c r="D150" t="n">
         <v>0.2615384615384616</v>
-      </c>
-      <c r="D150" t="n">
-        <v>0.1743589743589744</v>
       </c>
       <c r="E150" t="n">
         <v>0.1230769230769231</v>
       </c>
       <c r="F150" t="n">
-        <v>0.4705882352941176</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="G150" t="n">
         <v>2.698961937716263</v>
@@ -6360,7 +6360,7 @@
         <v>0.07747534516765286</v>
       </c>
       <c r="I150" t="n">
-        <v>1.559544159544159</v>
+        <v>2.510769230769231</v>
       </c>
       <c r="J150" t="n">
         <v>1</v>
@@ -6372,25 +6372,25 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
+          <t>frozenset({'Oracle'})</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
           <t>frozenset({'MS SQL Server_Microsoft Azure SQL Database'})</t>
         </is>
       </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>frozenset({'Oracle'})</t>
-        </is>
-      </c>
       <c r="C151" t="n">
+        <v>0.2615384615384616</v>
+      </c>
+      <c r="D151" t="n">
         <v>0.1743589743589744</v>
-      </c>
-      <c r="D151" t="n">
-        <v>0.2615384615384616</v>
       </c>
       <c r="E151" t="n">
         <v>0.1230769230769231</v>
       </c>
       <c r="F151" t="n">
-        <v>0.7058823529411765</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="G151" t="n">
         <v>2.698961937716263</v>
@@ -6399,7 +6399,7 @@
         <v>0.07747534516765286</v>
       </c>
       <c r="I151" t="n">
-        <v>2.510769230769231</v>
+        <v>1.559544159544159</v>
       </c>
       <c r="J151" t="n">
         <v>1</v>
@@ -6567,25 +6567,25 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
+          <t>frozenset({'Snowflake'})</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
           <t>frozenset({'PostgreSQL_ CockroachDB'})</t>
         </is>
       </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>frozenset({'Snowflake'})</t>
-        </is>
-      </c>
       <c r="C156" t="n">
+        <v>0.04615384615384616</v>
+      </c>
+      <c r="D156" t="n">
         <v>0.3384615384615385</v>
-      </c>
-      <c r="D156" t="n">
-        <v>0.04615384615384616</v>
       </c>
       <c r="E156" t="n">
         <v>0.04102564102564103</v>
       </c>
       <c r="F156" t="n">
-        <v>0.1212121212121212</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="G156" t="n">
         <v>2.626262626262626</v>
@@ -6594,7 +6594,7 @@
         <v>0.0254043392504931</v>
       </c>
       <c r="I156" t="n">
-        <v>1.085411140583554</v>
+        <v>5.953846153846151</v>
       </c>
       <c r="J156" t="n">
         <v>1</v>
@@ -6606,25 +6606,25 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
+          <t>frozenset({'PostgreSQL_ CockroachDB'})</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
           <t>frozenset({'Snowflake'})</t>
         </is>
       </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>frozenset({'PostgreSQL_ CockroachDB'})</t>
-        </is>
-      </c>
       <c r="C157" t="n">
+        <v>0.3384615384615385</v>
+      </c>
+      <c r="D157" t="n">
         <v>0.04615384615384616</v>
-      </c>
-      <c r="D157" t="n">
-        <v>0.3384615384615385</v>
       </c>
       <c r="E157" t="n">
         <v>0.04102564102564103</v>
       </c>
       <c r="F157" t="n">
-        <v>0.8888888888888888</v>
+        <v>0.1212121212121212</v>
       </c>
       <c r="G157" t="n">
         <v>2.626262626262626</v>
@@ -6633,7 +6633,7 @@
         <v>0.0254043392504931</v>
       </c>
       <c r="I157" t="n">
-        <v>5.953846153846151</v>
+        <v>1.085411140583554</v>
       </c>
       <c r="J157" t="n">
         <v>1</v>
@@ -6645,25 +6645,25 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
+          <t>frozenset({'MS SQL Server_Microsoft Azure SQL Database'})</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
           <t>frozenset({'Cassandra'})</t>
         </is>
       </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>frozenset({'MS SQL Server_Microsoft Azure SQL Database'})</t>
-        </is>
-      </c>
       <c r="C158" t="n">
+        <v>0.1743589743589744</v>
+      </c>
+      <c r="D158" t="n">
         <v>0.05641025641025641</v>
-      </c>
-      <c r="D158" t="n">
-        <v>0.1743589743589744</v>
       </c>
       <c r="E158" t="n">
         <v>0.02564102564102564</v>
       </c>
       <c r="F158" t="n">
-        <v>0.4545454545454545</v>
+        <v>0.1470588235294118</v>
       </c>
       <c r="G158" t="n">
         <v>2.606951871657754</v>
@@ -6672,7 +6672,7 @@
         <v>0.01580539119000657</v>
       </c>
       <c r="I158" t="n">
-        <v>1.513675213675214</v>
+        <v>1.106277630415561</v>
       </c>
       <c r="J158" t="n">
         <v>1</v>
@@ -6684,25 +6684,25 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
+          <t>frozenset({'Cassandra'})</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
           <t>frozenset({'MS SQL Server_Microsoft Azure SQL Database'})</t>
         </is>
       </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>frozenset({'Cassandra'})</t>
-        </is>
-      </c>
       <c r="C159" t="n">
+        <v>0.05641025641025641</v>
+      </c>
+      <c r="D159" t="n">
         <v>0.1743589743589744</v>
-      </c>
-      <c r="D159" t="n">
-        <v>0.05641025641025641</v>
       </c>
       <c r="E159" t="n">
         <v>0.02564102564102564</v>
       </c>
       <c r="F159" t="n">
-        <v>0.1470588235294118</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="G159" t="n">
         <v>2.606951871657754</v>
@@ -6711,7 +6711,7 @@
         <v>0.01580539119000657</v>
       </c>
       <c r="I159" t="n">
-        <v>1.106277630415561</v>
+        <v>1.513675213675214</v>
       </c>
       <c r="J159" t="n">
         <v>1</v>
@@ -6840,7 +6840,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>frozenset({'IBM DB2'})</t>
+          <t>frozenset({'MS Access'})</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -6849,25 +6849,25 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>0.09230769230769231</v>
+        <v>0.03076923076923077</v>
       </c>
       <c r="D163" t="n">
         <v>0.3384615384615385</v>
       </c>
       <c r="E163" t="n">
-        <v>0.07692307692307693</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="F163" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.8333333333333333</v>
       </c>
       <c r="G163" t="n">
         <v>2.462121212121212</v>
       </c>
       <c r="H163" t="n">
-        <v>0.04568047337278107</v>
+        <v>0.01522682445759369</v>
       </c>
       <c r="I163" t="n">
-        <v>3.96923076923077</v>
+        <v>3.969230769230768</v>
       </c>
       <c r="J163" t="n">
         <v>1</v>
@@ -6879,7 +6879,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>frozenset({'MS Access'})</t>
+          <t>frozenset({'IBM DB2'})</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -6888,25 +6888,25 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>0.03076923076923077</v>
+        <v>0.09230769230769231</v>
       </c>
       <c r="D164" t="n">
         <v>0.3384615384615385</v>
       </c>
       <c r="E164" t="n">
-        <v>0.02564102564102564</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="F164" t="n">
-        <v>0.8333333333333333</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="G164" t="n">
         <v>2.462121212121212</v>
       </c>
       <c r="H164" t="n">
-        <v>0.01522682445759369</v>
+        <v>0.04568047337278107</v>
       </c>
       <c r="I164" t="n">
-        <v>3.969230769230768</v>
+        <v>3.96923076923077</v>
       </c>
       <c r="J164" t="n">
         <v>1</v>
@@ -6957,25 +6957,25 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
+          <t>frozenset({'Google Cloud Datastore'})</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
           <t>frozenset({'MongoDB'})</t>
         </is>
       </c>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>frozenset({'Google Cloud Datastore'})</t>
-        </is>
-      </c>
       <c r="C166" t="n">
+        <v>0.08717948717948718</v>
+      </c>
+      <c r="D166" t="n">
         <v>0.1435897435897436</v>
-      </c>
-      <c r="D166" t="n">
-        <v>0.08717948717948718</v>
       </c>
       <c r="E166" t="n">
         <v>0.03076923076923077</v>
       </c>
       <c r="F166" t="n">
-        <v>0.2142857142857143</v>
+        <v>0.3529411764705883</v>
       </c>
       <c r="G166" t="n">
         <v>2.457983193277311</v>
@@ -6984,7 +6984,7 @@
         <v>0.01825115055884287</v>
       </c>
       <c r="I166" t="n">
-        <v>1.161771561771562</v>
+        <v>1.323543123543124</v>
       </c>
       <c r="J166" t="n">
         <v>1</v>
@@ -6996,25 +6996,25 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
+          <t>frozenset({'MongoDB'})</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
           <t>frozenset({'Google Cloud Datastore'})</t>
         </is>
       </c>
-      <c r="B167" t="inlineStr">
-        <is>
-          <t>frozenset({'MongoDB'})</t>
-        </is>
-      </c>
       <c r="C167" t="n">
+        <v>0.1435897435897436</v>
+      </c>
+      <c r="D167" t="n">
         <v>0.08717948717948718</v>
-      </c>
-      <c r="D167" t="n">
-        <v>0.1435897435897436</v>
       </c>
       <c r="E167" t="n">
         <v>0.03076923076923077</v>
       </c>
       <c r="F167" t="n">
-        <v>0.3529411764705883</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="G167" t="n">
         <v>2.457983193277311</v>
@@ -7023,7 +7023,7 @@
         <v>0.01825115055884287</v>
       </c>
       <c r="I167" t="n">
-        <v>1.323543123543124</v>
+        <v>1.161771561771562</v>
       </c>
       <c r="J167" t="n">
         <v>1</v>
@@ -7113,25 +7113,25 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
+          <t>frozenset({'PostgreSQL_ CockroachDB'})</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
           <t>frozenset({'Cassandra'})</t>
         </is>
       </c>
-      <c r="B170" t="inlineStr">
-        <is>
-          <t>frozenset({'PostgreSQL_ CockroachDB'})</t>
-        </is>
-      </c>
       <c r="C170" t="n">
+        <v>0.3384615384615385</v>
+      </c>
+      <c r="D170" t="n">
         <v>0.05641025641025641</v>
-      </c>
-      <c r="D170" t="n">
-        <v>0.3384615384615385</v>
       </c>
       <c r="E170" t="n">
         <v>0.04615384615384616</v>
       </c>
       <c r="F170" t="n">
-        <v>0.8181818181818182</v>
+        <v>0.1363636363636364</v>
       </c>
       <c r="G170" t="n">
         <v>2.417355371900826</v>
@@ -7140,7 +7140,7 @@
         <v>0.02706114398422091</v>
       </c>
       <c r="I170" t="n">
-        <v>3.638461538461539</v>
+        <v>1.092577597840756</v>
       </c>
       <c r="J170" t="n">
         <v>1</v>
@@ -7152,25 +7152,25 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
+          <t>frozenset({'Cassandra'})</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
           <t>frozenset({'PostgreSQL_ CockroachDB'})</t>
         </is>
       </c>
-      <c r="B171" t="inlineStr">
-        <is>
-          <t>frozenset({'Cassandra'})</t>
-        </is>
-      </c>
       <c r="C171" t="n">
+        <v>0.05641025641025641</v>
+      </c>
+      <c r="D171" t="n">
         <v>0.3384615384615385</v>
-      </c>
-      <c r="D171" t="n">
-        <v>0.05641025641025641</v>
       </c>
       <c r="E171" t="n">
         <v>0.04615384615384616</v>
       </c>
       <c r="F171" t="n">
-        <v>0.1363636363636364</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="G171" t="n">
         <v>2.417355371900826</v>
@@ -7179,7 +7179,7 @@
         <v>0.02706114398422091</v>
       </c>
       <c r="I171" t="n">
-        <v>1.092577597840756</v>
+        <v>3.638461538461539</v>
       </c>
       <c r="J171" t="n">
         <v>1</v>
@@ -7269,25 +7269,25 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
+          <t>frozenset({'HBase'})</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
           <t>frozenset({'MS SQL Server_Microsoft Azure SQL Database'})</t>
         </is>
       </c>
-      <c r="B174" t="inlineStr">
-        <is>
-          <t>frozenset({'HBase'})</t>
-        </is>
-      </c>
       <c r="C174" t="n">
+        <v>0.06153846153846154</v>
+      </c>
+      <c r="D174" t="n">
         <v>0.1743589743589744</v>
-      </c>
-      <c r="D174" t="n">
-        <v>0.06153846153846154</v>
       </c>
       <c r="E174" t="n">
         <v>0.02564102564102564</v>
       </c>
       <c r="F174" t="n">
-        <v>0.1470588235294118</v>
+        <v>0.4166666666666666</v>
       </c>
       <c r="G174" t="n">
         <v>2.389705882352941</v>
@@ -7296,7 +7296,7 @@
         <v>0.01491124260355029</v>
       </c>
       <c r="I174" t="n">
-        <v>1.10026525198939</v>
+        <v>1.415384615384615</v>
       </c>
       <c r="J174" t="n">
         <v>1</v>
@@ -7308,25 +7308,25 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
+          <t>frozenset({'MS SQL Server_Microsoft Azure SQL Database'})</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
           <t>frozenset({'HBase'})</t>
         </is>
       </c>
-      <c r="B175" t="inlineStr">
-        <is>
-          <t>frozenset({'MS SQL Server_Microsoft Azure SQL Database'})</t>
-        </is>
-      </c>
       <c r="C175" t="n">
+        <v>0.1743589743589744</v>
+      </c>
+      <c r="D175" t="n">
         <v>0.06153846153846154</v>
-      </c>
-      <c r="D175" t="n">
-        <v>0.1743589743589744</v>
       </c>
       <c r="E175" t="n">
         <v>0.02564102564102564</v>
       </c>
       <c r="F175" t="n">
-        <v>0.4166666666666666</v>
+        <v>0.1470588235294118</v>
       </c>
       <c r="G175" t="n">
         <v>2.389705882352941</v>
@@ -7335,7 +7335,7 @@
         <v>0.01491124260355029</v>
       </c>
       <c r="I175" t="n">
-        <v>1.415384615384615</v>
+        <v>1.10026525198939</v>
       </c>
       <c r="J175" t="n">
         <v>1</v>
@@ -7347,25 +7347,25 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
+          <t>frozenset({'HyperSQL'})</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
           <t>frozenset({'Hazelcast'})</t>
         </is>
       </c>
-      <c r="B176" t="inlineStr">
-        <is>
-          <t>frozenset({'HyperSQL'})</t>
-        </is>
-      </c>
       <c r="C176" t="n">
+        <v>0.1948717948717949</v>
+      </c>
+      <c r="D176" t="n">
         <v>0.06666666666666667</v>
-      </c>
-      <c r="D176" t="n">
-        <v>0.1948717948717949</v>
       </c>
       <c r="E176" t="n">
         <v>0.03076923076923077</v>
       </c>
       <c r="F176" t="n">
-        <v>0.4615384615384616</v>
+        <v>0.1578947368421053</v>
       </c>
       <c r="G176" t="n">
         <v>2.368421052631579</v>
@@ -7374,7 +7374,7 @@
         <v>0.01777777777777778</v>
       </c>
       <c r="I176" t="n">
-        <v>1.495238095238095</v>
+        <v>1.108333333333333</v>
       </c>
       <c r="J176" t="n">
         <v>1</v>
@@ -7386,25 +7386,25 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
+          <t>frozenset({'Hazelcast'})</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
           <t>frozenset({'HyperSQL'})</t>
         </is>
       </c>
-      <c r="B177" t="inlineStr">
-        <is>
-          <t>frozenset({'Hazelcast'})</t>
-        </is>
-      </c>
       <c r="C177" t="n">
+        <v>0.06666666666666667</v>
+      </c>
+      <c r="D177" t="n">
         <v>0.1948717948717949</v>
-      </c>
-      <c r="D177" t="n">
-        <v>0.06666666666666667</v>
       </c>
       <c r="E177" t="n">
         <v>0.03076923076923077</v>
       </c>
       <c r="F177" t="n">
-        <v>0.1578947368421053</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="G177" t="n">
         <v>2.368421052631579</v>
@@ -7413,7 +7413,7 @@
         <v>0.01777777777777778</v>
       </c>
       <c r="I177" t="n">
-        <v>1.108333333333333</v>
+        <v>1.495238095238095</v>
       </c>
       <c r="J177" t="n">
         <v>1</v>
@@ -7425,25 +7425,25 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
+          <t>frozenset({'Redis'})</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
           <t>frozenset({'PostGIS'})</t>
         </is>
       </c>
-      <c r="B178" t="inlineStr">
-        <is>
-          <t>frozenset({'Redis'})</t>
-        </is>
-      </c>
       <c r="C178" t="n">
+        <v>0.3025641025641025</v>
+      </c>
+      <c r="D178" t="n">
         <v>0.03589743589743589</v>
-      </c>
-      <c r="D178" t="n">
-        <v>0.3025641025641025</v>
       </c>
       <c r="E178" t="n">
         <v>0.02564102564102564</v>
       </c>
       <c r="F178" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.0847457627118644</v>
       </c>
       <c r="G178" t="n">
         <v>2.360774818401937</v>
@@ -7452,7 +7452,7 @@
         <v>0.01477975016436555</v>
       </c>
       <c r="I178" t="n">
-        <v>2.441025641025641</v>
+        <v>1.053371320037987</v>
       </c>
       <c r="J178" t="n">
         <v>1</v>
@@ -7464,25 +7464,25 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
+          <t>frozenset({'PostGIS'})</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
           <t>frozenset({'Redis'})</t>
         </is>
       </c>
-      <c r="B179" t="inlineStr">
-        <is>
-          <t>frozenset({'PostGIS'})</t>
-        </is>
-      </c>
       <c r="C179" t="n">
+        <v>0.03589743589743589</v>
+      </c>
+      <c r="D179" t="n">
         <v>0.3025641025641025</v>
-      </c>
-      <c r="D179" t="n">
-        <v>0.03589743589743589</v>
       </c>
       <c r="E179" t="n">
         <v>0.02564102564102564</v>
       </c>
       <c r="F179" t="n">
-        <v>0.0847457627118644</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="G179" t="n">
         <v>2.360774818401937</v>
@@ -7491,7 +7491,7 @@
         <v>0.01477975016436555</v>
       </c>
       <c r="I179" t="n">
-        <v>1.053371320037987</v>
+        <v>2.441025641025641</v>
       </c>
       <c r="J179" t="n">
         <v>1</v>
@@ -7586,29 +7586,29 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>frozenset({'PostGIS'})</t>
+          <t>frozenset({'SAP SQL Anywhere'})</t>
         </is>
       </c>
       <c r="C182" t="n">
         <v>0.4358974358974359</v>
       </c>
       <c r="D182" t="n">
-        <v>0.03589743589743589</v>
+        <v>0.05641025641025641</v>
       </c>
       <c r="E182" t="n">
-        <v>0.03589743589743589</v>
+        <v>0.05641025641025641</v>
       </c>
       <c r="F182" t="n">
-        <v>0.08235294117647059</v>
+        <v>0.1294117647058824</v>
       </c>
       <c r="G182" t="n">
         <v>2.294117647058824</v>
       </c>
       <c r="H182" t="n">
-        <v>0.02024983563445102</v>
+        <v>0.03182117028270874</v>
       </c>
       <c r="I182" t="n">
-        <v>1.050624589086128</v>
+        <v>1.083853083853084</v>
       </c>
       <c r="J182" t="n">
         <v>1</v>
@@ -7625,29 +7625,29 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>frozenset({'SAP SQL Anywhere'})</t>
+          <t>frozenset({'PostGIS'})</t>
         </is>
       </c>
       <c r="C183" t="n">
         <v>0.4358974358974359</v>
       </c>
       <c r="D183" t="n">
-        <v>0.05641025641025641</v>
+        <v>0.03589743589743589</v>
       </c>
       <c r="E183" t="n">
-        <v>0.05641025641025641</v>
+        <v>0.03589743589743589</v>
       </c>
       <c r="F183" t="n">
-        <v>0.1294117647058824</v>
+        <v>0.08235294117647059</v>
       </c>
       <c r="G183" t="n">
         <v>2.294117647058824</v>
       </c>
       <c r="H183" t="n">
-        <v>0.03182117028270874</v>
+        <v>0.02024983563445102</v>
       </c>
       <c r="I183" t="n">
-        <v>1.083853083853084</v>
+        <v>1.050624589086128</v>
       </c>
       <c r="J183" t="n">
         <v>1</v>
@@ -7698,7 +7698,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>frozenset({'Informix'})</t>
+          <t>frozenset({'PostGIS'})</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -7739,7 +7739,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>frozenset({'Firebird'})</t>
+          <t>frozenset({'ClickHouse'})</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -7748,13 +7748,13 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>0.03076923076923077</v>
+        <v>0.05128205128205128</v>
       </c>
       <c r="D186" t="n">
         <v>0.4358974358974359</v>
       </c>
       <c r="E186" t="n">
-        <v>0.03076923076923077</v>
+        <v>0.05128205128205128</v>
       </c>
       <c r="F186" t="n">
         <v>1</v>
@@ -7763,7 +7763,7 @@
         <v>2.294117647058823</v>
       </c>
       <c r="H186" t="n">
-        <v>0.01735700197238659</v>
+        <v>0.02892833662064431</v>
       </c>
       <c r="I186" t="inlineStr">
         <is>
@@ -7785,29 +7785,29 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>frozenset({'Firebird'})</t>
+          <t>frozenset({'ClickHouse'})</t>
         </is>
       </c>
       <c r="C187" t="n">
         <v>0.4358974358974359</v>
       </c>
       <c r="D187" t="n">
-        <v>0.03076923076923077</v>
+        <v>0.05128205128205128</v>
       </c>
       <c r="E187" t="n">
-        <v>0.03076923076923077</v>
+        <v>0.05128205128205128</v>
       </c>
       <c r="F187" t="n">
-        <v>0.07058823529411765</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="G187" t="n">
         <v>2.294117647058823</v>
       </c>
       <c r="H187" t="n">
-        <v>0.01735700197238659</v>
+        <v>0.02892833662064431</v>
       </c>
       <c r="I187" t="n">
-        <v>1.04284323271665</v>
+        <v>1.075213675213675</v>
       </c>
       <c r="J187" t="n">
         <v>1</v>
@@ -7819,34 +7819,36 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
+          <t>frozenset({'Informix'})</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
           <t>frozenset({'MySQL_Maria DB'})</t>
         </is>
       </c>
-      <c r="B188" t="inlineStr">
-        <is>
-          <t>frozenset({'SapHana'})</t>
-        </is>
-      </c>
       <c r="C188" t="n">
+        <v>0.03589743589743589</v>
+      </c>
+      <c r="D188" t="n">
         <v>0.4358974358974359</v>
       </c>
-      <c r="D188" t="n">
-        <v>0.03076923076923077</v>
-      </c>
       <c r="E188" t="n">
-        <v>0.03076923076923077</v>
+        <v>0.03589743589743589</v>
       </c>
       <c r="F188" t="n">
-        <v>0.07058823529411765</v>
+        <v>1</v>
       </c>
       <c r="G188" t="n">
         <v>2.294117647058823</v>
       </c>
       <c r="H188" t="n">
-        <v>0.01735700197238659</v>
-      </c>
-      <c r="I188" t="n">
-        <v>1.04284323271665</v>
+        <v>0.02024983563445102</v>
+      </c>
+      <c r="I188" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="J188" t="n">
         <v>1</v>
@@ -7858,25 +7860,25 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
+          <t>frozenset({'MySQL_Maria DB'})</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
           <t>frozenset({'SapHana'})</t>
         </is>
       </c>
-      <c r="B189" t="inlineStr">
-        <is>
-          <t>frozenset({'MySQL_Maria DB'})</t>
-        </is>
-      </c>
       <c r="C189" t="n">
+        <v>0.4358974358974359</v>
+      </c>
+      <c r="D189" t="n">
         <v>0.03076923076923077</v>
-      </c>
-      <c r="D189" t="n">
-        <v>0.4358974358974359</v>
       </c>
       <c r="E189" t="n">
         <v>0.03076923076923077</v>
       </c>
       <c r="F189" t="n">
-        <v>1</v>
+        <v>0.07058823529411765</v>
       </c>
       <c r="G189" t="n">
         <v>2.294117647058823</v>
@@ -7884,10 +7886,8 @@
       <c r="H189" t="n">
         <v>0.01735700197238659</v>
       </c>
-      <c r="I189" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="I189" t="n">
+        <v>1.04284323271665</v>
       </c>
       <c r="J189" t="n">
         <v>1</v>
@@ -7899,34 +7899,36 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
+          <t>frozenset({'SapHana'})</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
           <t>frozenset({'MySQL_Maria DB'})</t>
         </is>
       </c>
-      <c r="B190" t="inlineStr">
-        <is>
-          <t>frozenset({'SAP Adaptive Server'})</t>
-        </is>
-      </c>
       <c r="C190" t="n">
+        <v>0.03076923076923077</v>
+      </c>
+      <c r="D190" t="n">
         <v>0.4358974358974359</v>
       </c>
-      <c r="D190" t="n">
-        <v>0.05128205128205128</v>
-      </c>
       <c r="E190" t="n">
-        <v>0.05128205128205128</v>
+        <v>0.03076923076923077</v>
       </c>
       <c r="F190" t="n">
-        <v>0.1176470588235294</v>
+        <v>1</v>
       </c>
       <c r="G190" t="n">
         <v>2.294117647058823</v>
       </c>
       <c r="H190" t="n">
-        <v>0.02892833662064431</v>
-      </c>
-      <c r="I190" t="n">
-        <v>1.075213675213675</v>
+        <v>0.01735700197238659</v>
+      </c>
+      <c r="I190" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="J190" t="n">
         <v>1</v>
@@ -7938,7 +7940,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>frozenset({'PostGIS'})</t>
+          <t>frozenset({'Firebird'})</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -7947,13 +7949,13 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>0.03589743589743589</v>
+        <v>0.03076923076923077</v>
       </c>
       <c r="D191" t="n">
         <v>0.4358974358974359</v>
       </c>
       <c r="E191" t="n">
-        <v>0.03589743589743589</v>
+        <v>0.03076923076923077</v>
       </c>
       <c r="F191" t="n">
         <v>1</v>
@@ -7962,7 +7964,7 @@
         <v>2.294117647058823</v>
       </c>
       <c r="H191" t="n">
-        <v>0.02024983563445102</v>
+        <v>0.01735700197238659</v>
       </c>
       <c r="I191" t="inlineStr">
         <is>
@@ -7979,36 +7981,34 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>frozenset({'ClickHouse'})</t>
+          <t>frozenset({'MySQL_Maria DB'})</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>frozenset({'MySQL_Maria DB'})</t>
+          <t>frozenset({'Firebird'})</t>
         </is>
       </c>
       <c r="C192" t="n">
-        <v>0.05128205128205128</v>
+        <v>0.4358974358974359</v>
       </c>
       <c r="D192" t="n">
-        <v>0.4358974358974359</v>
+        <v>0.03076923076923077</v>
       </c>
       <c r="E192" t="n">
-        <v>0.05128205128205128</v>
+        <v>0.03076923076923077</v>
       </c>
       <c r="F192" t="n">
-        <v>1</v>
+        <v>0.07058823529411765</v>
       </c>
       <c r="G192" t="n">
         <v>2.294117647058823</v>
       </c>
       <c r="H192" t="n">
-        <v>0.02892833662064431</v>
-      </c>
-      <c r="I192" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>0.01735700197238659</v>
+      </c>
+      <c r="I192" t="n">
+        <v>1.04284323271665</v>
       </c>
       <c r="J192" t="n">
         <v>1</v>
@@ -8020,34 +8020,36 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
+          <t>frozenset({'Influx DB'})</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
           <t>frozenset({'MySQL_Maria DB'})</t>
         </is>
       </c>
-      <c r="B193" t="inlineStr">
-        <is>
-          <t>frozenset({'ClickHouse'})</t>
-        </is>
-      </c>
       <c r="C193" t="n">
+        <v>0.02564102564102564</v>
+      </c>
+      <c r="D193" t="n">
         <v>0.4358974358974359</v>
       </c>
-      <c r="D193" t="n">
-        <v>0.05128205128205128</v>
-      </c>
       <c r="E193" t="n">
-        <v>0.05128205128205128</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="F193" t="n">
-        <v>0.1176470588235294</v>
+        <v>1</v>
       </c>
       <c r="G193" t="n">
         <v>2.294117647058823</v>
       </c>
       <c r="H193" t="n">
-        <v>0.02892833662064431</v>
-      </c>
-      <c r="I193" t="n">
-        <v>1.075213675213675</v>
+        <v>0.01446416831032216</v>
+      </c>
+      <c r="I193" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="J193" t="n">
         <v>1</v>
@@ -8100,36 +8102,34 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>frozenset({'MS Access'})</t>
+          <t>frozenset({'MySQL_Maria DB'})</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>frozenset({'MySQL_Maria DB'})</t>
+          <t>frozenset({'Influx DB'})</t>
         </is>
       </c>
       <c r="C195" t="n">
-        <v>0.03076923076923077</v>
+        <v>0.4358974358974359</v>
       </c>
       <c r="D195" t="n">
-        <v>0.4358974358974359</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="E195" t="n">
-        <v>0.03076923076923077</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="F195" t="n">
-        <v>1</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="G195" t="n">
         <v>2.294117647058823</v>
       </c>
       <c r="H195" t="n">
-        <v>0.01735700197238659</v>
-      </c>
-      <c r="I195" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>0.01446416831032216</v>
+      </c>
+      <c r="I195" t="n">
+        <v>1.03525641025641</v>
       </c>
       <c r="J195" t="n">
         <v>1</v>
@@ -8187,29 +8187,29 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>frozenset({'MS Access'})</t>
+          <t>frozenset({'Snowflake'})</t>
         </is>
       </c>
       <c r="C197" t="n">
         <v>0.4358974358974359</v>
       </c>
       <c r="D197" t="n">
-        <v>0.03076923076923077</v>
+        <v>0.04615384615384616</v>
       </c>
       <c r="E197" t="n">
-        <v>0.03076923076923077</v>
+        <v>0.04615384615384616</v>
       </c>
       <c r="F197" t="n">
-        <v>0.07058823529411765</v>
+        <v>0.1058823529411765</v>
       </c>
       <c r="G197" t="n">
         <v>2.294117647058823</v>
       </c>
       <c r="H197" t="n">
-        <v>0.01735700197238659</v>
+        <v>0.02603550295857988</v>
       </c>
       <c r="I197" t="n">
-        <v>1.04284323271665</v>
+        <v>1.066801619433198</v>
       </c>
       <c r="J197" t="n">
         <v>1</v>
@@ -8267,29 +8267,29 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>frozenset({'Snowflake'})</t>
+          <t>frozenset({'MS Access'})</t>
         </is>
       </c>
       <c r="C199" t="n">
         <v>0.4358974358974359</v>
       </c>
       <c r="D199" t="n">
-        <v>0.04615384615384616</v>
+        <v>0.03076923076923077</v>
       </c>
       <c r="E199" t="n">
-        <v>0.04615384615384616</v>
+        <v>0.03076923076923077</v>
       </c>
       <c r="F199" t="n">
-        <v>0.1058823529411765</v>
+        <v>0.07058823529411765</v>
       </c>
       <c r="G199" t="n">
         <v>2.294117647058823</v>
       </c>
       <c r="H199" t="n">
-        <v>0.02603550295857988</v>
+        <v>0.01735700197238659</v>
       </c>
       <c r="I199" t="n">
-        <v>1.066801619433198</v>
+        <v>1.04284323271665</v>
       </c>
       <c r="J199" t="n">
         <v>1</v>
@@ -8301,34 +8301,36 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
+          <t>frozenset({'MS Access'})</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
           <t>frozenset({'MySQL_Maria DB'})</t>
         </is>
       </c>
-      <c r="B200" t="inlineStr">
-        <is>
-          <t>frozenset({'Influx DB'})</t>
-        </is>
-      </c>
       <c r="C200" t="n">
+        <v>0.03076923076923077</v>
+      </c>
+      <c r="D200" t="n">
         <v>0.4358974358974359</v>
       </c>
-      <c r="D200" t="n">
-        <v>0.02564102564102564</v>
-      </c>
       <c r="E200" t="n">
-        <v>0.02564102564102564</v>
+        <v>0.03076923076923077</v>
       </c>
       <c r="F200" t="n">
-        <v>0.05882352941176471</v>
+        <v>1</v>
       </c>
       <c r="G200" t="n">
         <v>2.294117647058823</v>
       </c>
       <c r="H200" t="n">
-        <v>0.01446416831032216</v>
-      </c>
-      <c r="I200" t="n">
-        <v>1.03525641025641</v>
+        <v>0.01735700197238659</v>
+      </c>
+      <c r="I200" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="J200" t="n">
         <v>1</v>
@@ -8340,36 +8342,34 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>frozenset({'Influx DB'})</t>
+          <t>frozenset({'MySQL_Maria DB'})</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>frozenset({'MySQL_Maria DB'})</t>
+          <t>frozenset({'SAP Adaptive Server'})</t>
         </is>
       </c>
       <c r="C201" t="n">
-        <v>0.02564102564102564</v>
+        <v>0.4358974358974359</v>
       </c>
       <c r="D201" t="n">
-        <v>0.4358974358974359</v>
+        <v>0.05128205128205128</v>
       </c>
       <c r="E201" t="n">
-        <v>0.02564102564102564</v>
+        <v>0.05128205128205128</v>
       </c>
       <c r="F201" t="n">
-        <v>1</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="G201" t="n">
         <v>2.294117647058823</v>
       </c>
       <c r="H201" t="n">
-        <v>0.01446416831032216</v>
-      </c>
-      <c r="I201" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>0.02892833662064431</v>
+      </c>
+      <c r="I201" t="n">
+        <v>1.075213675213675</v>
       </c>
       <c r="J201" t="n">
         <v>1</v>
@@ -8381,25 +8381,25 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
+          <t>frozenset({'MS SQL Server_Microsoft Azure SQL Database'})</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
           <t>frozenset({'MongoDB'})</t>
         </is>
       </c>
-      <c r="B202" t="inlineStr">
-        <is>
-          <t>frozenset({'MS SQL Server_Microsoft Azure SQL Database'})</t>
-        </is>
-      </c>
       <c r="C202" t="n">
+        <v>0.1743589743589744</v>
+      </c>
+      <c r="D202" t="n">
         <v>0.1435897435897436</v>
-      </c>
-      <c r="D202" t="n">
-        <v>0.1743589743589744</v>
       </c>
       <c r="E202" t="n">
         <v>0.05641025641025641</v>
       </c>
       <c r="F202" t="n">
-        <v>0.3928571428571429</v>
+        <v>0.3235294117647059</v>
       </c>
       <c r="G202" t="n">
         <v>2.253151260504202</v>
@@ -8408,7 +8408,7 @@
         <v>0.03137409598948061</v>
       </c>
       <c r="I202" t="n">
-        <v>1.359879336349925</v>
+        <v>1.265997770345596</v>
       </c>
       <c r="J202" t="n">
         <v>1</v>
@@ -8420,25 +8420,25 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
+          <t>frozenset({'MongoDB'})</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
           <t>frozenset({'MS SQL Server_Microsoft Azure SQL Database'})</t>
         </is>
       </c>
-      <c r="B203" t="inlineStr">
-        <is>
-          <t>frozenset({'MongoDB'})</t>
-        </is>
-      </c>
       <c r="C203" t="n">
+        <v>0.1435897435897436</v>
+      </c>
+      <c r="D203" t="n">
         <v>0.1743589743589744</v>
-      </c>
-      <c r="D203" t="n">
-        <v>0.1435897435897436</v>
       </c>
       <c r="E203" t="n">
         <v>0.05641025641025641</v>
       </c>
       <c r="F203" t="n">
-        <v>0.3235294117647059</v>
+        <v>0.3928571428571429</v>
       </c>
       <c r="G203" t="n">
         <v>2.253151260504202</v>
@@ -8447,7 +8447,7 @@
         <v>0.03137409598948061</v>
       </c>
       <c r="I203" t="n">
-        <v>1.265997770345596</v>
+        <v>1.359879336349925</v>
       </c>
       <c r="J203" t="n">
         <v>1</v>
@@ -8615,25 +8615,25 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
+          <t>frozenset({'MySQL_Maria DB'})</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
           <t>frozenset({'IBM DB2'})</t>
         </is>
       </c>
-      <c r="B208" t="inlineStr">
-        <is>
-          <t>frozenset({'MySQL_Maria DB'})</t>
-        </is>
-      </c>
       <c r="C208" t="n">
+        <v>0.4358974358974359</v>
+      </c>
+      <c r="D208" t="n">
         <v>0.09230769230769231</v>
-      </c>
-      <c r="D208" t="n">
-        <v>0.4358974358974359</v>
       </c>
       <c r="E208" t="n">
         <v>0.08717948717948718</v>
       </c>
       <c r="F208" t="n">
-        <v>0.9444444444444443</v>
+        <v>0.2</v>
       </c>
       <c r="G208" t="n">
         <v>2.166666666666667</v>
@@ -8642,7 +8642,7 @@
         <v>0.04694280078895463</v>
       </c>
       <c r="I208" t="n">
-        <v>10.15384615384613</v>
+        <v>1.134615384615385</v>
       </c>
       <c r="J208" t="n">
         <v>1</v>
@@ -8654,25 +8654,25 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
+          <t>frozenset({'IBM DB2'})</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
           <t>frozenset({'MySQL_Maria DB'})</t>
         </is>
       </c>
-      <c r="B209" t="inlineStr">
-        <is>
-          <t>frozenset({'IBM DB2'})</t>
-        </is>
-      </c>
       <c r="C209" t="n">
+        <v>0.09230769230769231</v>
+      </c>
+      <c r="D209" t="n">
         <v>0.4358974358974359</v>
-      </c>
-      <c r="D209" t="n">
-        <v>0.09230769230769231</v>
       </c>
       <c r="E209" t="n">
         <v>0.08717948717948718</v>
       </c>
       <c r="F209" t="n">
-        <v>0.2</v>
+        <v>0.9444444444444443</v>
       </c>
       <c r="G209" t="n">
         <v>2.166666666666667</v>
@@ -8681,7 +8681,7 @@
         <v>0.04694280078895463</v>
       </c>
       <c r="I209" t="n">
-        <v>1.134615384615385</v>
+        <v>10.15384615384613</v>
       </c>
       <c r="J209" t="n">
         <v>1</v>
@@ -9083,25 +9083,25 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
+          <t>frozenset({'H2'})</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
           <t>frozenset({'ClickHouse'})</t>
         </is>
       </c>
-      <c r="B220" t="inlineStr">
-        <is>
-          <t>frozenset({'H2'})</t>
-        </is>
-      </c>
       <c r="C220" t="n">
+        <v>0.3384615384615385</v>
+      </c>
+      <c r="D220" t="n">
         <v>0.05128205128205128</v>
-      </c>
-      <c r="D220" t="n">
-        <v>0.3384615384615385</v>
       </c>
       <c r="E220" t="n">
         <v>0.03589743589743589</v>
       </c>
       <c r="F220" t="n">
-        <v>0.7</v>
+        <v>0.106060606060606</v>
       </c>
       <c r="G220" t="n">
         <v>2.068181818181818</v>
@@ -9110,7 +9110,7 @@
         <v>0.01854043392504931</v>
       </c>
       <c r="I220" t="n">
-        <v>2.205128205128205</v>
+        <v>1.061277705345502</v>
       </c>
       <c r="J220" t="n">
         <v>1</v>
@@ -9122,25 +9122,25 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
+          <t>frozenset({'ClickHouse'})</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
           <t>frozenset({'H2'})</t>
         </is>
       </c>
-      <c r="B221" t="inlineStr">
-        <is>
-          <t>frozenset({'ClickHouse'})</t>
-        </is>
-      </c>
       <c r="C221" t="n">
+        <v>0.05128205128205128</v>
+      </c>
+      <c r="D221" t="n">
         <v>0.3384615384615385</v>
-      </c>
-      <c r="D221" t="n">
-        <v>0.05128205128205128</v>
       </c>
       <c r="E221" t="n">
         <v>0.03589743589743589</v>
       </c>
       <c r="F221" t="n">
-        <v>0.106060606060606</v>
+        <v>0.7</v>
       </c>
       <c r="G221" t="n">
         <v>2.068181818181818</v>
@@ -9149,7 +9149,7 @@
         <v>0.01854043392504931</v>
       </c>
       <c r="I221" t="n">
-        <v>1.061277705345502</v>
+        <v>2.205128205128205</v>
       </c>
       <c r="J221" t="n">
         <v>1</v>
@@ -9161,25 +9161,25 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
+          <t>frozenset({'HyperSQL'})</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
           <t>frozenset({'Oracle'})</t>
         </is>
       </c>
-      <c r="B222" t="inlineStr">
-        <is>
-          <t>frozenset({'HyperSQL'})</t>
-        </is>
-      </c>
       <c r="C222" t="n">
+        <v>0.1948717948717949</v>
+      </c>
+      <c r="D222" t="n">
         <v>0.2615384615384616</v>
-      </c>
-      <c r="D222" t="n">
-        <v>0.1948717948717949</v>
       </c>
       <c r="E222" t="n">
         <v>0.1025641025641026</v>
       </c>
       <c r="F222" t="n">
-        <v>0.392156862745098</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="G222" t="n">
         <v>2.012383900928792</v>
@@ -9188,7 +9188,7 @@
         <v>0.05159763313609467</v>
       </c>
       <c r="I222" t="n">
-        <v>1.324565756823821</v>
+        <v>1.558974358974359</v>
       </c>
       <c r="J222" t="n">
         <v>1</v>
@@ -9200,25 +9200,25 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
+          <t>frozenset({'Oracle'})</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
           <t>frozenset({'HyperSQL'})</t>
         </is>
       </c>
-      <c r="B223" t="inlineStr">
-        <is>
-          <t>frozenset({'Oracle'})</t>
-        </is>
-      </c>
       <c r="C223" t="n">
+        <v>0.2615384615384616</v>
+      </c>
+      <c r="D223" t="n">
         <v>0.1948717948717949</v>
-      </c>
-      <c r="D223" t="n">
-        <v>0.2615384615384616</v>
       </c>
       <c r="E223" t="n">
         <v>0.1025641025641026</v>
       </c>
       <c r="F223" t="n">
-        <v>0.5263157894736842</v>
+        <v>0.392156862745098</v>
       </c>
       <c r="G223" t="n">
         <v>2.012383900928792</v>
@@ -9227,7 +9227,7 @@
         <v>0.05159763313609467</v>
       </c>
       <c r="I223" t="n">
-        <v>1.558974358974359</v>
+        <v>1.324565756823821</v>
       </c>
       <c r="J223" t="n">
         <v>1</v>
@@ -9434,7 +9434,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>frozenset({'PostgreSQL_ CockroachDB'})</t>
+          <t>frozenset({'Snowflake'})</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
@@ -9443,13 +9443,13 @@
         </is>
       </c>
       <c r="C229" t="n">
-        <v>0.3384615384615385</v>
+        <v>0.04615384615384616</v>
       </c>
       <c r="D229" t="n">
         <v>0.3384615384615385</v>
       </c>
       <c r="E229" t="n">
-        <v>0.2256410256410256</v>
+        <v>0.03076923076923077</v>
       </c>
       <c r="F229" t="n">
         <v>0.6666666666666666</v>
@@ -9458,7 +9458,7 @@
         <v>1.96969696969697</v>
       </c>
       <c r="H229" t="n">
-        <v>0.1110848126232741</v>
+        <v>0.01514792899408284</v>
       </c>
       <c r="I229" t="n">
         <v>1.984615384615384</v>
@@ -9473,34 +9473,34 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>frozenset({'H2'})</t>
+          <t>frozenset({'PostgreSQL_ CockroachDB'})</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>frozenset({'PostgreSQL_ CockroachDB'})</t>
+          <t>frozenset({'HBase'})</t>
         </is>
       </c>
       <c r="C230" t="n">
         <v>0.3384615384615385</v>
       </c>
       <c r="D230" t="n">
-        <v>0.3384615384615385</v>
+        <v>0.06153846153846154</v>
       </c>
       <c r="E230" t="n">
-        <v>0.2256410256410256</v>
+        <v>0.04102564102564103</v>
       </c>
       <c r="F230" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.1212121212121212</v>
       </c>
       <c r="G230" t="n">
         <v>1.96969696969697</v>
       </c>
       <c r="H230" t="n">
-        <v>0.1110848126232741</v>
+        <v>0.02019723865877712</v>
       </c>
       <c r="I230" t="n">
-        <v>1.984615384615384</v>
+        <v>1.06790450928382</v>
       </c>
       <c r="J230" t="n">
         <v>1</v>
@@ -9556,29 +9556,29 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>frozenset({'HBase'})</t>
+          <t>frozenset({'H2'})</t>
         </is>
       </c>
       <c r="C232" t="n">
         <v>0.3384615384615385</v>
       </c>
       <c r="D232" t="n">
-        <v>0.06153846153846154</v>
+        <v>0.3384615384615385</v>
       </c>
       <c r="E232" t="n">
-        <v>0.04102564102564103</v>
+        <v>0.2256410256410256</v>
       </c>
       <c r="F232" t="n">
-        <v>0.1212121212121212</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G232" t="n">
         <v>1.96969696969697</v>
       </c>
       <c r="H232" t="n">
-        <v>0.02019723865877712</v>
+        <v>0.1110848126232741</v>
       </c>
       <c r="I232" t="n">
-        <v>1.06790450928382</v>
+        <v>1.984615384615384</v>
       </c>
       <c r="J232" t="n">
         <v>1</v>
@@ -9590,22 +9590,22 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>frozenset({'Snowflake'})</t>
+          <t>frozenset({'H2'})</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>frozenset({'H2'})</t>
+          <t>frozenset({'PostgreSQL_ CockroachDB'})</t>
         </is>
       </c>
       <c r="C233" t="n">
-        <v>0.04615384615384616</v>
+        <v>0.3384615384615385</v>
       </c>
       <c r="D233" t="n">
         <v>0.3384615384615385</v>
       </c>
       <c r="E233" t="n">
-        <v>0.03076923076923077</v>
+        <v>0.2256410256410256</v>
       </c>
       <c r="F233" t="n">
         <v>0.6666666666666666</v>
@@ -9614,7 +9614,7 @@
         <v>1.96969696969697</v>
       </c>
       <c r="H233" t="n">
-        <v>0.01514792899408284</v>
+        <v>0.1110848126232741</v>
       </c>
       <c r="I233" t="n">
         <v>1.984615384615384</v>
@@ -9902,34 +9902,34 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>frozenset({'PostgreSQL_ CockroachDB'})</t>
+          <t>frozenset({'Oracle'})</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>frozenset({'MySQL_Maria DB'})</t>
+          <t>frozenset({'MongoDB'})</t>
         </is>
       </c>
       <c r="C241" t="n">
-        <v>0.3384615384615385</v>
+        <v>0.2615384615384616</v>
       </c>
       <c r="D241" t="n">
-        <v>0.4358974358974359</v>
+        <v>0.1435897435897436</v>
       </c>
       <c r="E241" t="n">
-        <v>0.282051282051282</v>
+        <v>0.07179487179487179</v>
       </c>
       <c r="F241" t="n">
-        <v>0.8333333333333333</v>
+        <v>0.2745098039215686</v>
       </c>
       <c r="G241" t="n">
         <v>1.911764705882353</v>
       </c>
       <c r="H241" t="n">
-        <v>0.134516765285996</v>
+        <v>0.03424063116370808</v>
       </c>
       <c r="I241" t="n">
-        <v>3.384615384615383</v>
+        <v>1.18045738045738</v>
       </c>
       <c r="J241" t="n">
         <v>1</v>
@@ -9941,25 +9941,25 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
+          <t>frozenset({'MongoDB'})</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
           <t>frozenset({'Oracle'})</t>
         </is>
       </c>
-      <c r="B242" t="inlineStr">
-        <is>
-          <t>frozenset({'MongoDB'})</t>
-        </is>
-      </c>
       <c r="C242" t="n">
+        <v>0.1435897435897436</v>
+      </c>
+      <c r="D242" t="n">
         <v>0.2615384615384616</v>
-      </c>
-      <c r="D242" t="n">
-        <v>0.1435897435897436</v>
       </c>
       <c r="E242" t="n">
         <v>0.07179487179487179</v>
       </c>
       <c r="F242" t="n">
-        <v>0.2745098039215686</v>
+        <v>0.5</v>
       </c>
       <c r="G242" t="n">
         <v>1.911764705882353</v>
@@ -9968,7 +9968,7 @@
         <v>0.03424063116370808</v>
       </c>
       <c r="I242" t="n">
-        <v>1.18045738045738</v>
+        <v>1.476923076923077</v>
       </c>
       <c r="J242" t="n">
         <v>1</v>
@@ -9980,34 +9980,34 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>frozenset({'MongoDB'})</t>
+          <t>frozenset({'PostgreSQL_ CockroachDB'})</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>frozenset({'Oracle'})</t>
+          <t>frozenset({'MySQL_Maria DB'})</t>
         </is>
       </c>
       <c r="C243" t="n">
-        <v>0.1435897435897436</v>
+        <v>0.3384615384615385</v>
       </c>
       <c r="D243" t="n">
-        <v>0.2615384615384616</v>
+        <v>0.4358974358974359</v>
       </c>
       <c r="E243" t="n">
-        <v>0.07179487179487179</v>
+        <v>0.282051282051282</v>
       </c>
       <c r="F243" t="n">
-        <v>0.5</v>
+        <v>0.8333333333333333</v>
       </c>
       <c r="G243" t="n">
         <v>1.911764705882353</v>
       </c>
       <c r="H243" t="n">
-        <v>0.03424063116370808</v>
+        <v>0.134516765285996</v>
       </c>
       <c r="I243" t="n">
-        <v>1.476923076923077</v>
+        <v>3.384615384615383</v>
       </c>
       <c r="J243" t="n">
         <v>1</v>
@@ -10175,25 +10175,25 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>frozenset({'H2'})</t>
+          <t>frozenset({'Hazelcast'})</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>frozenset({'Hazelcast'})</t>
+          <t>frozenset({'PostgreSQL_ CockroachDB'})</t>
         </is>
       </c>
       <c r="C248" t="n">
+        <v>0.06666666666666667</v>
+      </c>
+      <c r="D248" t="n">
         <v>0.3384615384615385</v>
-      </c>
-      <c r="D248" t="n">
-        <v>0.06666666666666667</v>
       </c>
       <c r="E248" t="n">
         <v>0.04102564102564103</v>
       </c>
       <c r="F248" t="n">
-        <v>0.1212121212121212</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="G248" t="n">
         <v>1.818181818181818</v>
@@ -10202,7 +10202,7 @@
         <v>0.01846153846153846</v>
       </c>
       <c r="I248" t="n">
-        <v>1.062068965517242</v>
+        <v>1.72</v>
       </c>
       <c r="J248" t="n">
         <v>1</v>
@@ -10292,25 +10292,25 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
+          <t>frozenset({'H2'})</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
           <t>frozenset({'Hazelcast'})</t>
         </is>
       </c>
-      <c r="B251" t="inlineStr">
-        <is>
-          <t>frozenset({'PostgreSQL_ CockroachDB'})</t>
-        </is>
-      </c>
       <c r="C251" t="n">
+        <v>0.3384615384615385</v>
+      </c>
+      <c r="D251" t="n">
         <v>0.06666666666666667</v>
-      </c>
-      <c r="D251" t="n">
-        <v>0.3384615384615385</v>
       </c>
       <c r="E251" t="n">
         <v>0.04102564102564103</v>
       </c>
       <c r="F251" t="n">
-        <v>0.6153846153846154</v>
+        <v>0.1212121212121212</v>
       </c>
       <c r="G251" t="n">
         <v>1.818181818181818</v>
@@ -10319,7 +10319,7 @@
         <v>0.01846153846153846</v>
       </c>
       <c r="I251" t="n">
-        <v>1.72</v>
+        <v>1.062068965517242</v>
       </c>
       <c r="J251" t="n">
         <v>1</v>
@@ -10331,25 +10331,25 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
+          <t>frozenset({'HyperSQL'})</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
           <t>frozenset({'MySQL_Maria DB'})</t>
         </is>
       </c>
-      <c r="B252" t="inlineStr">
-        <is>
-          <t>frozenset({'HyperSQL'})</t>
-        </is>
-      </c>
       <c r="C252" t="n">
+        <v>0.1948717948717949</v>
+      </c>
+      <c r="D252" t="n">
         <v>0.4358974358974359</v>
-      </c>
-      <c r="D252" t="n">
-        <v>0.1948717948717949</v>
       </c>
       <c r="E252" t="n">
         <v>0.1538461538461539</v>
       </c>
       <c r="F252" t="n">
-        <v>0.3529411764705883</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="G252" t="n">
         <v>1.811145510835913</v>
@@ -10358,7 +10358,7 @@
         <v>0.06890203813280737</v>
       </c>
       <c r="I252" t="n">
-        <v>1.244289044289044</v>
+        <v>2.67948717948718</v>
       </c>
       <c r="J252" t="n">
         <v>1</v>
@@ -10370,25 +10370,25 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
+          <t>frozenset({'MySQL_Maria DB'})</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
           <t>frozenset({'HyperSQL'})</t>
         </is>
       </c>
-      <c r="B253" t="inlineStr">
-        <is>
-          <t>frozenset({'MySQL_Maria DB'})</t>
-        </is>
-      </c>
       <c r="C253" t="n">
+        <v>0.4358974358974359</v>
+      </c>
+      <c r="D253" t="n">
         <v>0.1948717948717949</v>
-      </c>
-      <c r="D253" t="n">
-        <v>0.4358974358974359</v>
       </c>
       <c r="E253" t="n">
         <v>0.1538461538461539</v>
       </c>
       <c r="F253" t="n">
-        <v>0.7894736842105263</v>
+        <v>0.3529411764705883</v>
       </c>
       <c r="G253" t="n">
         <v>1.811145510835913</v>
@@ -10397,7 +10397,7 @@
         <v>0.06890203813280737</v>
       </c>
       <c r="I253" t="n">
-        <v>2.67948717948718</v>
+        <v>1.244289044289044</v>
       </c>
       <c r="J253" t="n">
         <v>1</v>
@@ -10409,25 +10409,25 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
+          <t>frozenset({'MongoDB'})</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
           <t>frozenset({'MySQL_Maria DB'})</t>
         </is>
       </c>
-      <c r="B254" t="inlineStr">
-        <is>
-          <t>frozenset({'MongoDB'})</t>
-        </is>
-      </c>
       <c r="C254" t="n">
+        <v>0.1435897435897436</v>
+      </c>
+      <c r="D254" t="n">
         <v>0.4358974358974359</v>
-      </c>
-      <c r="D254" t="n">
-        <v>0.1435897435897436</v>
       </c>
       <c r="E254" t="n">
         <v>0.1128205128205128</v>
       </c>
       <c r="F254" t="n">
-        <v>0.2588235294117647</v>
+        <v>0.7857142857142858</v>
       </c>
       <c r="G254" t="n">
         <v>1.802521008403362</v>
@@ -10436,7 +10436,7 @@
         <v>0.05023011176857331</v>
       </c>
       <c r="I254" t="n">
-        <v>1.155474155474155</v>
+        <v>2.632478632478634</v>
       </c>
       <c r="J254" t="n">
         <v>1</v>
@@ -10448,25 +10448,25 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
+          <t>frozenset({'MySQL_Maria DB'})</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
           <t>frozenset({'MongoDB'})</t>
         </is>
       </c>
-      <c r="B255" t="inlineStr">
-        <is>
-          <t>frozenset({'MySQL_Maria DB'})</t>
-        </is>
-      </c>
       <c r="C255" t="n">
+        <v>0.4358974358974359</v>
+      </c>
+      <c r="D255" t="n">
         <v>0.1435897435897436</v>
-      </c>
-      <c r="D255" t="n">
-        <v>0.4358974358974359</v>
       </c>
       <c r="E255" t="n">
         <v>0.1128205128205128</v>
       </c>
       <c r="F255" t="n">
-        <v>0.7857142857142858</v>
+        <v>0.2588235294117647</v>
       </c>
       <c r="G255" t="n">
         <v>1.802521008403362</v>
@@ -10475,7 +10475,7 @@
         <v>0.05023011176857331</v>
       </c>
       <c r="I255" t="n">
-        <v>2.632478632478634</v>
+        <v>1.155474155474155</v>
       </c>
       <c r="J255" t="n">
         <v>1</v>
@@ -10565,25 +10565,25 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
+          <t>frozenset({'Oracle'})</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
           <t>frozenset({'H2'})</t>
         </is>
       </c>
-      <c r="B258" t="inlineStr">
-        <is>
-          <t>frozenset({'Oracle'})</t>
-        </is>
-      </c>
       <c r="C258" t="n">
+        <v>0.2615384615384616</v>
+      </c>
+      <c r="D258" t="n">
         <v>0.3384615384615385</v>
-      </c>
-      <c r="D258" t="n">
-        <v>0.2615384615384616</v>
       </c>
       <c r="E258" t="n">
         <v>0.158974358974359</v>
       </c>
       <c r="F258" t="n">
-        <v>0.4696969696969697</v>
+        <v>0.6078431372549019</v>
       </c>
       <c r="G258" t="n">
         <v>1.795900178253119</v>
@@ -10592,7 +10592,7 @@
         <v>0.07045364891518736</v>
       </c>
       <c r="I258" t="n">
-        <v>1.392527472527473</v>
+        <v>1.686923076923077</v>
       </c>
       <c r="J258" t="n">
         <v>1</v>
@@ -10604,25 +10604,25 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
+          <t>frozenset({'H2'})</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
           <t>frozenset({'Oracle'})</t>
         </is>
       </c>
-      <c r="B259" t="inlineStr">
-        <is>
-          <t>frozenset({'H2'})</t>
-        </is>
-      </c>
       <c r="C259" t="n">
+        <v>0.3384615384615385</v>
+      </c>
+      <c r="D259" t="n">
         <v>0.2615384615384616</v>
-      </c>
-      <c r="D259" t="n">
-        <v>0.3384615384615385</v>
       </c>
       <c r="E259" t="n">
         <v>0.158974358974359</v>
       </c>
       <c r="F259" t="n">
-        <v>0.6078431372549019</v>
+        <v>0.4696969696969697</v>
       </c>
       <c r="G259" t="n">
         <v>1.795900178253119</v>
@@ -10631,7 +10631,7 @@
         <v>0.07045364891518736</v>
       </c>
       <c r="I259" t="n">
-        <v>1.686923076923077</v>
+        <v>1.392527472527473</v>
       </c>
       <c r="J259" t="n">
         <v>1</v>
@@ -10643,25 +10643,25 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
+          <t>frozenset({'MongoDB'})</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
           <t>frozenset({'PostgreSQL_ CockroachDB'})</t>
         </is>
       </c>
-      <c r="B260" t="inlineStr">
-        <is>
-          <t>frozenset({'MongoDB'})</t>
-        </is>
-      </c>
       <c r="C260" t="n">
+        <v>0.1435897435897436</v>
+      </c>
+      <c r="D260" t="n">
         <v>0.3384615384615385</v>
-      </c>
-      <c r="D260" t="n">
-        <v>0.1435897435897436</v>
       </c>
       <c r="E260" t="n">
         <v>0.08717948717948718</v>
       </c>
       <c r="F260" t="n">
-        <v>0.2575757575757576</v>
+        <v>0.6071428571428572</v>
       </c>
       <c r="G260" t="n">
         <v>1.793831168831169</v>
@@ -10670,7 +10670,7 @@
         <v>0.03857988165680473</v>
       </c>
       <c r="I260" t="n">
-        <v>1.153532182103611</v>
+        <v>1.683916083916084</v>
       </c>
       <c r="J260" t="n">
         <v>1</v>
@@ -10682,25 +10682,25 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
+          <t>frozenset({'PostgreSQL_ CockroachDB'})</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
           <t>frozenset({'MongoDB'})</t>
         </is>
       </c>
-      <c r="B261" t="inlineStr">
-        <is>
-          <t>frozenset({'PostgreSQL_ CockroachDB'})</t>
-        </is>
-      </c>
       <c r="C261" t="n">
+        <v>0.3384615384615385</v>
+      </c>
+      <c r="D261" t="n">
         <v>0.1435897435897436</v>
-      </c>
-      <c r="D261" t="n">
-        <v>0.3384615384615385</v>
       </c>
       <c r="E261" t="n">
         <v>0.08717948717948718</v>
       </c>
       <c r="F261" t="n">
-        <v>0.6071428571428572</v>
+        <v>0.2575757575757576</v>
       </c>
       <c r="G261" t="n">
         <v>1.793831168831169</v>
@@ -10709,7 +10709,7 @@
         <v>0.03857988165680473</v>
       </c>
       <c r="I261" t="n">
-        <v>1.683916083916084</v>
+        <v>1.153532182103611</v>
       </c>
       <c r="J261" t="n">
         <v>1</v>
@@ -10877,25 +10877,25 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
+          <t>frozenset({'Hazelcast'})</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
           <t>frozenset({'Oracle'})</t>
         </is>
       </c>
-      <c r="B266" t="inlineStr">
-        <is>
-          <t>frozenset({'Hazelcast'})</t>
-        </is>
-      </c>
       <c r="C266" t="n">
+        <v>0.06666666666666667</v>
+      </c>
+      <c r="D266" t="n">
         <v>0.2615384615384616</v>
-      </c>
-      <c r="D266" t="n">
-        <v>0.06666666666666667</v>
       </c>
       <c r="E266" t="n">
         <v>0.03076923076923077</v>
       </c>
       <c r="F266" t="n">
-        <v>0.1176470588235294</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="G266" t="n">
         <v>1.764705882352941</v>
@@ -10904,7 +10904,7 @@
         <v>0.01333333333333334</v>
       </c>
       <c r="I266" t="n">
-        <v>1.057777777777778</v>
+        <v>1.371428571428572</v>
       </c>
       <c r="J266" t="n">
         <v>1</v>
@@ -10916,25 +10916,25 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
+          <t>frozenset({'Oracle'})</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
           <t>frozenset({'Hazelcast'})</t>
         </is>
       </c>
-      <c r="B267" t="inlineStr">
-        <is>
-          <t>frozenset({'Oracle'})</t>
-        </is>
-      </c>
       <c r="C267" t="n">
+        <v>0.2615384615384616</v>
+      </c>
+      <c r="D267" t="n">
         <v>0.06666666666666667</v>
-      </c>
-      <c r="D267" t="n">
-        <v>0.2615384615384616</v>
       </c>
       <c r="E267" t="n">
         <v>0.03076923076923077</v>
       </c>
       <c r="F267" t="n">
-        <v>0.4615384615384616</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="G267" t="n">
         <v>1.764705882352941</v>
@@ -10943,7 +10943,7 @@
         <v>0.01333333333333334</v>
       </c>
       <c r="I267" t="n">
-        <v>1.371428571428572</v>
+        <v>1.057777777777778</v>
       </c>
       <c r="J267" t="n">
         <v>1</v>
@@ -11267,25 +11267,25 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
+          <t>frozenset({'H2'})</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
           <t>frozenset({'HBase'})</t>
         </is>
       </c>
-      <c r="B276" t="inlineStr">
-        <is>
-          <t>frozenset({'H2'})</t>
-        </is>
-      </c>
       <c r="C276" t="n">
+        <v>0.3384615384615385</v>
+      </c>
+      <c r="D276" t="n">
         <v>0.06153846153846154</v>
-      </c>
-      <c r="D276" t="n">
-        <v>0.3384615384615385</v>
       </c>
       <c r="E276" t="n">
         <v>0.03589743589743589</v>
       </c>
       <c r="F276" t="n">
-        <v>0.5833333333333333</v>
+        <v>0.106060606060606</v>
       </c>
       <c r="G276" t="n">
         <v>1.723484848484848</v>
@@ -11294,7 +11294,7 @@
         <v>0.01506903353057199</v>
       </c>
       <c r="I276" t="n">
-        <v>1.587692307692307</v>
+        <v>1.04980443285528</v>
       </c>
       <c r="J276" t="n">
         <v>1</v>
@@ -11306,25 +11306,25 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
+          <t>frozenset({'HBase'})</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
           <t>frozenset({'H2'})</t>
         </is>
       </c>
-      <c r="B277" t="inlineStr">
-        <is>
-          <t>frozenset({'HBase'})</t>
-        </is>
-      </c>
       <c r="C277" t="n">
+        <v>0.06153846153846154</v>
+      </c>
+      <c r="D277" t="n">
         <v>0.3384615384615385</v>
-      </c>
-      <c r="D277" t="n">
-        <v>0.06153846153846154</v>
       </c>
       <c r="E277" t="n">
         <v>0.03589743589743589</v>
       </c>
       <c r="F277" t="n">
-        <v>0.106060606060606</v>
+        <v>0.5833333333333333</v>
       </c>
       <c r="G277" t="n">
         <v>1.723484848484848</v>
@@ -11333,7 +11333,7 @@
         <v>0.01506903353057199</v>
       </c>
       <c r="I277" t="n">
-        <v>1.04980443285528</v>
+        <v>1.587692307692307</v>
       </c>
       <c r="J277" t="n">
         <v>1</v>
@@ -11345,25 +11345,25 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
+          <t>frozenset({'HyperSQL'})</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
           <t>frozenset({'H2'})</t>
         </is>
       </c>
-      <c r="B278" t="inlineStr">
-        <is>
-          <t>frozenset({'HyperSQL'})</t>
-        </is>
-      </c>
       <c r="C278" t="n">
+        <v>0.1948717948717949</v>
+      </c>
+      <c r="D278" t="n">
         <v>0.3384615384615385</v>
-      </c>
-      <c r="D278" t="n">
-        <v>0.1948717948717949</v>
       </c>
       <c r="E278" t="n">
         <v>0.1128205128205128</v>
       </c>
       <c r="F278" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="G278" t="n">
         <v>1.710526315789474</v>
@@ -11372,7 +11372,7 @@
         <v>0.04686390532544378</v>
       </c>
       <c r="I278" t="n">
-        <v>1.207692307692308</v>
+        <v>1.571153846153846</v>
       </c>
       <c r="J278" t="n">
         <v>1</v>
@@ -11384,25 +11384,25 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
+          <t>frozenset({'H2'})</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
           <t>frozenset({'HyperSQL'})</t>
         </is>
       </c>
-      <c r="B279" t="inlineStr">
-        <is>
-          <t>frozenset({'H2'})</t>
-        </is>
-      </c>
       <c r="C279" t="n">
+        <v>0.3384615384615385</v>
+      </c>
+      <c r="D279" t="n">
         <v>0.1948717948717949</v>
-      </c>
-      <c r="D279" t="n">
-        <v>0.3384615384615385</v>
       </c>
       <c r="E279" t="n">
         <v>0.1128205128205128</v>
       </c>
       <c r="F279" t="n">
-        <v>0.5789473684210527</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G279" t="n">
         <v>1.710526315789474</v>
@@ -11411,7 +11411,7 @@
         <v>0.04686390532544378</v>
       </c>
       <c r="I279" t="n">
-        <v>1.571153846153846</v>
+        <v>1.207692307692308</v>
       </c>
       <c r="J279" t="n">
         <v>1</v>
@@ -11657,25 +11657,25 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
+          <t>frozenset({'SQLite'})</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
           <t>frozenset({'MySQL_Maria DB'})</t>
         </is>
       </c>
-      <c r="B286" t="inlineStr">
-        <is>
-          <t>frozenset({'SQLite'})</t>
-        </is>
-      </c>
       <c r="C286" t="n">
+        <v>0.1333333333333333</v>
+      </c>
+      <c r="D286" t="n">
         <v>0.4358974358974359</v>
-      </c>
-      <c r="D286" t="n">
-        <v>0.1333333333333333</v>
       </c>
       <c r="E286" t="n">
         <v>0.09743589743589744</v>
       </c>
       <c r="F286" t="n">
-        <v>0.2235294117647059</v>
+        <v>0.7307692307692308</v>
       </c>
       <c r="G286" t="n">
         <v>1.676470588235294</v>
@@ -11684,7 +11684,7 @@
         <v>0.03931623931623932</v>
       </c>
       <c r="I286" t="n">
-        <v>1.116161616161616</v>
+        <v>2.095238095238096</v>
       </c>
       <c r="J286" t="n">
         <v>1</v>
@@ -11696,25 +11696,25 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
+          <t>frozenset({'MySQL_Maria DB'})</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
           <t>frozenset({'SQLite'})</t>
         </is>
       </c>
-      <c r="B287" t="inlineStr">
-        <is>
-          <t>frozenset({'MySQL_Maria DB'})</t>
-        </is>
-      </c>
       <c r="C287" t="n">
+        <v>0.4358974358974359</v>
+      </c>
+      <c r="D287" t="n">
         <v>0.1333333333333333</v>
-      </c>
-      <c r="D287" t="n">
-        <v>0.4358974358974359</v>
       </c>
       <c r="E287" t="n">
         <v>0.09743589743589744</v>
       </c>
       <c r="F287" t="n">
-        <v>0.7307692307692308</v>
+        <v>0.2235294117647059</v>
       </c>
       <c r="G287" t="n">
         <v>1.676470588235294</v>
@@ -11723,7 +11723,7 @@
         <v>0.03931623931623932</v>
       </c>
       <c r="I287" t="n">
-        <v>2.095238095238096</v>
+        <v>1.116161616161616</v>
       </c>
       <c r="J287" t="n">
         <v>1</v>
@@ -11813,25 +11813,25 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
+          <t>frozenset({'DynamoDB'})</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
           <t>frozenset({'Redis'})</t>
         </is>
       </c>
-      <c r="B290" t="inlineStr">
-        <is>
-          <t>frozenset({'DynamoDB'})</t>
-        </is>
-      </c>
       <c r="C290" t="n">
+        <v>0.09230769230769231</v>
+      </c>
+      <c r="D290" t="n">
         <v>0.3025641025641025</v>
-      </c>
-      <c r="D290" t="n">
-        <v>0.09230769230769231</v>
       </c>
       <c r="E290" t="n">
         <v>0.04615384615384616</v>
       </c>
       <c r="F290" t="n">
-        <v>0.1525423728813559</v>
+        <v>0.5</v>
       </c>
       <c r="G290" t="n">
         <v>1.652542372881356</v>
@@ -11840,7 +11840,7 @@
         <v>0.01822485207100592</v>
       </c>
       <c r="I290" t="n">
-        <v>1.071076923076923</v>
+        <v>1.394871794871795</v>
       </c>
       <c r="J290" t="n">
         <v>1</v>
@@ -11852,25 +11852,25 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
+          <t>frozenset({'Redis'})</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
           <t>frozenset({'DynamoDB'})</t>
         </is>
       </c>
-      <c r="B291" t="inlineStr">
-        <is>
-          <t>frozenset({'Redis'})</t>
-        </is>
-      </c>
       <c r="C291" t="n">
+        <v>0.3025641025641025</v>
+      </c>
+      <c r="D291" t="n">
         <v>0.09230769230769231</v>
-      </c>
-      <c r="D291" t="n">
-        <v>0.3025641025641025</v>
       </c>
       <c r="E291" t="n">
         <v>0.04615384615384616</v>
       </c>
       <c r="F291" t="n">
-        <v>0.5</v>
+        <v>0.1525423728813559</v>
       </c>
       <c r="G291" t="n">
         <v>1.652542372881356</v>
@@ -11879,7 +11879,7 @@
         <v>0.01822485207100592</v>
       </c>
       <c r="I291" t="n">
-        <v>1.394871794871795</v>
+        <v>1.071076923076923</v>
       </c>
       <c r="J291" t="n">
         <v>1</v>
@@ -11891,25 +11891,25 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
+          <t>frozenset({'HyperSQL'})</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
           <t>frozenset({'MongoDB'})</t>
         </is>
       </c>
-      <c r="B292" t="inlineStr">
-        <is>
-          <t>frozenset({'HyperSQL'})</t>
-        </is>
-      </c>
       <c r="C292" t="n">
+        <v>0.1948717948717949</v>
+      </c>
+      <c r="D292" t="n">
         <v>0.1435897435897436</v>
-      </c>
-      <c r="D292" t="n">
-        <v>0.1948717948717949</v>
       </c>
       <c r="E292" t="n">
         <v>0.04615384615384616</v>
       </c>
       <c r="F292" t="n">
-        <v>0.3214285714285715</v>
+        <v>0.2368421052631579</v>
       </c>
       <c r="G292" t="n">
         <v>1.649436090225564</v>
@@ -11918,7 +11918,7 @@
         <v>0.01817225509533202</v>
       </c>
       <c r="I292" t="n">
-        <v>1.186504723346829</v>
+        <v>1.122192749778957</v>
       </c>
       <c r="J292" t="n">
         <v>1</v>
@@ -11930,25 +11930,25 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
+          <t>frozenset({'MongoDB'})</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
           <t>frozenset({'HyperSQL'})</t>
         </is>
       </c>
-      <c r="B293" t="inlineStr">
-        <is>
-          <t>frozenset({'MongoDB'})</t>
-        </is>
-      </c>
       <c r="C293" t="n">
+        <v>0.1435897435897436</v>
+      </c>
+      <c r="D293" t="n">
         <v>0.1948717948717949</v>
-      </c>
-      <c r="D293" t="n">
-        <v>0.1435897435897436</v>
       </c>
       <c r="E293" t="n">
         <v>0.04615384615384616</v>
       </c>
       <c r="F293" t="n">
-        <v>0.2368421052631579</v>
+        <v>0.3214285714285715</v>
       </c>
       <c r="G293" t="n">
         <v>1.649436090225564</v>
@@ -11957,7 +11957,7 @@
         <v>0.01817225509533202</v>
       </c>
       <c r="I293" t="n">
-        <v>1.122192749778957</v>
+        <v>1.186504723346829</v>
       </c>
       <c r="J293" t="n">
         <v>1</v>
@@ -11969,25 +11969,25 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
+          <t>frozenset({'PostgreSQL_ CockroachDB'})</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
           <t>frozenset({'DynamoDB'})</t>
         </is>
       </c>
-      <c r="B294" t="inlineStr">
-        <is>
-          <t>frozenset({'PostgreSQL_ CockroachDB'})</t>
-        </is>
-      </c>
       <c r="C294" t="n">
+        <v>0.3384615384615385</v>
+      </c>
+      <c r="D294" t="n">
         <v>0.09230769230769231</v>
-      </c>
-      <c r="D294" t="n">
-        <v>0.3384615384615385</v>
       </c>
       <c r="E294" t="n">
         <v>0.05128205128205128</v>
       </c>
       <c r="F294" t="n">
-        <v>0.5555555555555555</v>
+        <v>0.1515151515151515</v>
       </c>
       <c r="G294" t="n">
         <v>1.641414141414141</v>
@@ -11996,7 +11996,7 @@
         <v>0.02003944773175542</v>
       </c>
       <c r="I294" t="n">
-        <v>1.488461538461538</v>
+        <v>1.06978021978022</v>
       </c>
       <c r="J294" t="n">
         <v>1</v>
@@ -12008,25 +12008,25 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
+          <t>frozenset({'DynamoDB'})</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
           <t>frozenset({'PostgreSQL_ CockroachDB'})</t>
         </is>
       </c>
-      <c r="B295" t="inlineStr">
-        <is>
-          <t>frozenset({'DynamoDB'})</t>
-        </is>
-      </c>
       <c r="C295" t="n">
+        <v>0.09230769230769231</v>
+      </c>
+      <c r="D295" t="n">
         <v>0.3384615384615385</v>
-      </c>
-      <c r="D295" t="n">
-        <v>0.09230769230769231</v>
       </c>
       <c r="E295" t="n">
         <v>0.05128205128205128</v>
       </c>
       <c r="F295" t="n">
-        <v>0.1515151515151515</v>
+        <v>0.5555555555555555</v>
       </c>
       <c r="G295" t="n">
         <v>1.641414141414141</v>
@@ -12035,7 +12035,7 @@
         <v>0.02003944773175542</v>
       </c>
       <c r="I295" t="n">
-        <v>1.06978021978022</v>
+        <v>1.488461538461538</v>
       </c>
       <c r="J295" t="n">
         <v>1</v>
@@ -12047,25 +12047,25 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
+          <t>frozenset({'Oracle'})</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
           <t>frozenset({'SQLite'})</t>
         </is>
       </c>
-      <c r="B296" t="inlineStr">
-        <is>
-          <t>frozenset({'Oracle'})</t>
-        </is>
-      </c>
       <c r="C296" t="n">
+        <v>0.2615384615384616</v>
+      </c>
+      <c r="D296" t="n">
         <v>0.1333333333333333</v>
-      </c>
-      <c r="D296" t="n">
-        <v>0.2615384615384616</v>
       </c>
       <c r="E296" t="n">
         <v>0.05641025641025641</v>
       </c>
       <c r="F296" t="n">
-        <v>0.4230769230769231</v>
+        <v>0.2156862745098039</v>
       </c>
       <c r="G296" t="n">
         <v>1.617647058823529</v>
@@ -12074,7 +12074,7 @@
         <v>0.02153846153846154</v>
       </c>
       <c r="I296" t="n">
-        <v>1.28</v>
+        <v>1.105</v>
       </c>
       <c r="J296" t="n">
         <v>1</v>
@@ -12086,25 +12086,25 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
+          <t>frozenset({'SQLite'})</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
           <t>frozenset({'Oracle'})</t>
         </is>
       </c>
-      <c r="B297" t="inlineStr">
-        <is>
-          <t>frozenset({'SQLite'})</t>
-        </is>
-      </c>
       <c r="C297" t="n">
+        <v>0.1333333333333333</v>
+      </c>
+      <c r="D297" t="n">
         <v>0.2615384615384616</v>
-      </c>
-      <c r="D297" t="n">
-        <v>0.1333333333333333</v>
       </c>
       <c r="E297" t="n">
         <v>0.05641025641025641</v>
       </c>
       <c r="F297" t="n">
-        <v>0.2156862745098039</v>
+        <v>0.4230769230769231</v>
       </c>
       <c r="G297" t="n">
         <v>1.617647058823529</v>
@@ -12113,7 +12113,7 @@
         <v>0.02153846153846154</v>
       </c>
       <c r="I297" t="n">
-        <v>1.105</v>
+        <v>1.28</v>
       </c>
       <c r="J297" t="n">
         <v>1</v>
@@ -12125,25 +12125,25 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
+          <t>frozenset({'H2'})</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
           <t>frozenset({'Redis'})</t>
         </is>
       </c>
-      <c r="B298" t="inlineStr">
-        <is>
-          <t>frozenset({'H2'})</t>
-        </is>
-      </c>
       <c r="C298" t="n">
+        <v>0.3384615384615385</v>
+      </c>
+      <c r="D298" t="n">
         <v>0.3025641025641025</v>
-      </c>
-      <c r="D298" t="n">
-        <v>0.3384615384615385</v>
       </c>
       <c r="E298" t="n">
         <v>0.1641025641025641</v>
       </c>
       <c r="F298" t="n">
-        <v>0.5423728813559322</v>
+        <v>0.4848484848484848</v>
       </c>
       <c r="G298" t="n">
         <v>1.602465331278891</v>
@@ -12152,7 +12152,7 @@
         <v>0.06169625246548324</v>
       </c>
       <c r="I298" t="n">
-        <v>1.445584045584046</v>
+        <v>1.353846153846154</v>
       </c>
       <c r="J298" t="n">
         <v>1</v>
@@ -12164,25 +12164,25 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
+          <t>frozenset({'Redis'})</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
           <t>frozenset({'H2'})</t>
         </is>
       </c>
-      <c r="B299" t="inlineStr">
-        <is>
-          <t>frozenset({'Redis'})</t>
-        </is>
-      </c>
       <c r="C299" t="n">
+        <v>0.3025641025641025</v>
+      </c>
+      <c r="D299" t="n">
         <v>0.3384615384615385</v>
-      </c>
-      <c r="D299" t="n">
-        <v>0.3025641025641025</v>
       </c>
       <c r="E299" t="n">
         <v>0.1641025641025641</v>
       </c>
       <c r="F299" t="n">
-        <v>0.4848484848484848</v>
+        <v>0.5423728813559322</v>
       </c>
       <c r="G299" t="n">
         <v>1.602465331278891</v>
@@ -12191,7 +12191,7 @@
         <v>0.06169625246548324</v>
       </c>
       <c r="I299" t="n">
-        <v>1.353846153846154</v>
+        <v>1.445584045584046</v>
       </c>
       <c r="J299" t="n">
         <v>1</v>
@@ -12281,25 +12281,25 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
+          <t>frozenset({'Oracle'})</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
           <t>frozenset({'HBase'})</t>
         </is>
       </c>
-      <c r="B302" t="inlineStr">
-        <is>
-          <t>frozenset({'Oracle'})</t>
-        </is>
-      </c>
       <c r="C302" t="n">
+        <v>0.2615384615384616</v>
+      </c>
+      <c r="D302" t="n">
         <v>0.06153846153846154</v>
-      </c>
-      <c r="D302" t="n">
-        <v>0.2615384615384616</v>
       </c>
       <c r="E302" t="n">
         <v>0.02564102564102564</v>
       </c>
       <c r="F302" t="n">
-        <v>0.4166666666666666</v>
+        <v>0.09803921568627449</v>
       </c>
       <c r="G302" t="n">
         <v>1.59313725490196</v>
@@ -12308,7 +12308,7 @@
         <v>0.00954635108481262</v>
       </c>
       <c r="I302" t="n">
-        <v>1.265934065934066</v>
+        <v>1.040468227424749</v>
       </c>
       <c r="J302" t="n">
         <v>1</v>
@@ -12320,25 +12320,25 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
+          <t>frozenset({'HBase'})</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
           <t>frozenset({'Oracle'})</t>
         </is>
       </c>
-      <c r="B303" t="inlineStr">
-        <is>
-          <t>frozenset({'HBase'})</t>
-        </is>
-      </c>
       <c r="C303" t="n">
+        <v>0.06153846153846154</v>
+      </c>
+      <c r="D303" t="n">
         <v>0.2615384615384616</v>
-      </c>
-      <c r="D303" t="n">
-        <v>0.06153846153846154</v>
       </c>
       <c r="E303" t="n">
         <v>0.02564102564102564</v>
       </c>
       <c r="F303" t="n">
-        <v>0.09803921568627449</v>
+        <v>0.4166666666666666</v>
       </c>
       <c r="G303" t="n">
         <v>1.59313725490196</v>
@@ -12347,7 +12347,7 @@
         <v>0.00954635108481262</v>
       </c>
       <c r="I303" t="n">
-        <v>1.040468227424749</v>
+        <v>1.265934065934066</v>
       </c>
       <c r="J303" t="n">
         <v>1</v>
@@ -12359,25 +12359,25 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
+          <t>frozenset({'Hazelcast'})</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
           <t>frozenset({'Redis'})</t>
         </is>
       </c>
-      <c r="B304" t="inlineStr">
-        <is>
-          <t>frozenset({'Hazelcast'})</t>
-        </is>
-      </c>
       <c r="C304" t="n">
+        <v>0.06666666666666667</v>
+      </c>
+      <c r="D304" t="n">
         <v>0.3025641025641025</v>
-      </c>
-      <c r="D304" t="n">
-        <v>0.06666666666666667</v>
       </c>
       <c r="E304" t="n">
         <v>0.03076923076923077</v>
       </c>
       <c r="F304" t="n">
-        <v>0.1016949152542373</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="G304" t="n">
         <v>1.525423728813559</v>
@@ -12386,7 +12386,7 @@
         <v>0.0105982905982906</v>
       </c>
       <c r="I304" t="n">
-        <v>1.038993710691824</v>
+        <v>1.295238095238095</v>
       </c>
       <c r="J304" t="n">
         <v>1</v>
@@ -12398,25 +12398,25 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
+          <t>frozenset({'Redis'})</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
           <t>frozenset({'Hazelcast'})</t>
         </is>
       </c>
-      <c r="B305" t="inlineStr">
-        <is>
-          <t>frozenset({'Redis'})</t>
-        </is>
-      </c>
       <c r="C305" t="n">
+        <v>0.3025641025641025</v>
+      </c>
+      <c r="D305" t="n">
         <v>0.06666666666666667</v>
-      </c>
-      <c r="D305" t="n">
-        <v>0.3025641025641025</v>
       </c>
       <c r="E305" t="n">
         <v>0.03076923076923077</v>
       </c>
       <c r="F305" t="n">
-        <v>0.4615384615384616</v>
+        <v>0.1016949152542373</v>
       </c>
       <c r="G305" t="n">
         <v>1.525423728813559</v>
@@ -12425,7 +12425,7 @@
         <v>0.0105982905982906</v>
       </c>
       <c r="I305" t="n">
-        <v>1.295238095238095</v>
+        <v>1.038993710691824</v>
       </c>
       <c r="J305" t="n">
         <v>1</v>
@@ -12983,25 +12983,25 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
+          <t>frozenset({'Google Cloud Datastore'})</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
           <t>frozenset({'H2'})</t>
         </is>
       </c>
-      <c r="B320" t="inlineStr">
-        <is>
-          <t>frozenset({'Google Cloud Datastore'})</t>
-        </is>
-      </c>
       <c r="C320" t="n">
+        <v>0.08717948717948718</v>
+      </c>
+      <c r="D320" t="n">
         <v>0.3384615384615385</v>
-      </c>
-      <c r="D320" t="n">
-        <v>0.08717948717948718</v>
       </c>
       <c r="E320" t="n">
         <v>0.04102564102564103</v>
       </c>
       <c r="F320" t="n">
-        <v>0.1212121212121212</v>
+        <v>0.4705882352941177</v>
       </c>
       <c r="G320" t="n">
         <v>1.390374331550802</v>
@@ -13010,7 +13010,7 @@
         <v>0.01151873767258383</v>
       </c>
       <c r="I320" t="n">
-        <v>1.038726790450928</v>
+        <v>1.24957264957265</v>
       </c>
       <c r="J320" t="n">
         <v>1</v>
@@ -13022,25 +13022,25 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
+          <t>frozenset({'H2'})</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
           <t>frozenset({'Google Cloud Datastore'})</t>
         </is>
       </c>
-      <c r="B321" t="inlineStr">
-        <is>
-          <t>frozenset({'H2'})</t>
-        </is>
-      </c>
       <c r="C321" t="n">
+        <v>0.3384615384615385</v>
+      </c>
+      <c r="D321" t="n">
         <v>0.08717948717948718</v>
-      </c>
-      <c r="D321" t="n">
-        <v>0.3384615384615385</v>
       </c>
       <c r="E321" t="n">
         <v>0.04102564102564103</v>
       </c>
       <c r="F321" t="n">
-        <v>0.4705882352941177</v>
+        <v>0.1212121212121212</v>
       </c>
       <c r="G321" t="n">
         <v>1.390374331550802</v>
@@ -13049,7 +13049,7 @@
         <v>0.01151873767258383</v>
       </c>
       <c r="I321" t="n">
-        <v>1.24957264957265</v>
+        <v>1.038726790450928</v>
       </c>
       <c r="J321" t="n">
         <v>1</v>
